--- a/downloads/D-EITI_Zahlungsabgleich.xlsx
+++ b/downloads/D-EITI_Zahlungsabgleich.xlsx
@@ -5,26 +5,28 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaas_rab\Documents\Nachtragsbericht\Zahlungabgleich\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaas_rab\Documents\Nachtragsbericht\2. Runde Paperdice\Änderungen Portal - Zweite Runde\restliche Dokumente zum erstmaligen Versand\Daten zum 1. D-EITI Bericht\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" tabRatio="754"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8100" tabRatio="754" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Unternehmen je Sektor" sheetId="8" r:id="rId1"/>
     <sheet name="Abdeckung" sheetId="12" r:id="rId2"/>
     <sheet name="Übersicht je Zahlung" sheetId="7" r:id="rId3"/>
-    <sheet name="Gesamtdarstellung" sheetId="2" r:id="rId4"/>
-    <sheet name="Übersicht KSt_Förderabgabe" sheetId="3" r:id="rId5"/>
-    <sheet name="KSt" sheetId="4" r:id="rId6"/>
-    <sheet name="Feldes_Förderabgabe_1" sheetId="9" r:id="rId7"/>
-    <sheet name="Feldes_Förderabgabe_2" sheetId="10" r:id="rId8"/>
-    <sheet name="Beispielunt GewSt" sheetId="11" r:id="rId9"/>
-    <sheet name="Feldes_Förderabgabe_alt" sheetId="5" r:id="rId10"/>
+    <sheet name="Tabelle1" sheetId="13" r:id="rId4"/>
+    <sheet name="Gesamtdarstellung" sheetId="2" r:id="rId5"/>
+    <sheet name="Übersicht KSt_Förderabgabe" sheetId="3" r:id="rId6"/>
+    <sheet name="KSt" sheetId="4" r:id="rId7"/>
+    <sheet name="Feldes_Förderabgabe_1" sheetId="9" r:id="rId8"/>
+    <sheet name="Feldes_Förderabgabe_2" sheetId="10" r:id="rId9"/>
+    <sheet name="Beispielunt GewSt" sheetId="11" r:id="rId10"/>
+    <sheet name="Feldes_Förderabgabe_alt" sheetId="5" r:id="rId11"/>
+    <sheet name="GewSt" sheetId="14" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="6">Feldes_Förderabgabe_1!$1:$7</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="7">Feldes_Förderabgabe_1!$1:$7</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="150">
   <si>
     <t>EUR</t>
   </si>
@@ -475,6 +477,30 @@
   <si>
     <t>JTSD Braunkohlenwerke GmbH, Zeitz (Mibrag)</t>
   </si>
+  <si>
+    <t>Gewerbesteuer (&gt; 2.000.000 EUR je staatliche Stelle)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Kämmerei und Steueramt Stadt Hannover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Steueramt Gemeinde Großenkneten</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Steueramt Samtgemeinde Wathlingen/Nienhagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Kassen- und Steueramt Stadt Lingen (Ems)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Stadtkämmerei (FA für Großunternehmen) Hamburg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Steuerkasse Stadt Köln</t>
+  </si>
+  <si>
+    <t>enthält EUR 50.116,48 Gewerbesteuernachzahlung 2007 für in Vorjahren abgegebene Organgesellschaft</t>
+  </si>
 </sst>
 </file>
 
@@ -484,13 +510,19 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -574,6 +606,19 @@
     <font>
       <sz val="20"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -713,146 +758,161 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="9" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="11" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="9" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="9" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="9" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="10" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="9" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="11" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="7" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="13" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="9" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="4" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="5" fillId="4" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="4" fillId="4" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="6" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="4" fillId="4" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="3" fillId="4" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1142,7 +1202,7 @@
   </sheetPr>
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -1818,6 +1878,609 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1:U19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="2.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="50.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="0.85546875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="44" customWidth="1"/>
+    <col min="6" max="6" width="3.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="44" customWidth="1"/>
+    <col min="8" max="8" width="3.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" style="44" customWidth="1"/>
+    <col min="10" max="10" width="0.85546875" style="2" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="2" customWidth="1"/>
+    <col min="12" max="13" width="0.85546875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="44" customWidth="1"/>
+    <col min="15" max="16" width="0.85546875" style="2" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="44" customWidth="1"/>
+    <col min="18" max="18" width="0.85546875" style="2" customWidth="1"/>
+    <col min="19" max="19" width="10.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="0.7109375" style="2" customWidth="1"/>
+    <col min="21" max="21" width="1.7109375" style="2" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+    </row>
+    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="1"/>
+    </row>
+    <row r="3" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="U3" s="1"/>
+    </row>
+    <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="1"/>
+    </row>
+    <row r="5" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="1"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A6" s="38"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="9"/>
+      <c r="U6" s="1"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A7" s="38"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="1"/>
+    </row>
+    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="50" t="s">
+        <v>77</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="30">
+        <v>355164.11</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="30">
+        <v>355164.11</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="30">
+        <f>E8-G8</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="72">
+        <f>IF(AND(E8=0,G8=0),0,I8/E8*100)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="30">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="30">
+        <f>I8+N8</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="11"/>
+      <c r="S8" s="72">
+        <f>IF(AND(E8=0,G8=0),0,Q8/E8*100)</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="9"/>
+      <c r="U8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="50"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="1"/>
+    </row>
+    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="30">
+        <v>1452246.19</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="30">
+        <v>1452246.19</v>
+      </c>
+      <c r="H10" s="32"/>
+      <c r="I10" s="30">
+        <f>E10-G10</f>
+        <v>0</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="72">
+        <f>IF(AND(E10=0,G10=0),0,I10/E10*100)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="30">
+        <v>0</v>
+      </c>
+      <c r="O10" s="13"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="30">
+        <f>I10+N10</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="11"/>
+      <c r="S10" s="72">
+        <f>IF(AND(E10=0,G10=0),0,Q10/E10*100)</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="9"/>
+      <c r="U10" s="1"/>
+    </row>
+    <row r="11" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="50"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="33"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="30">
+        <v>591734.75</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="30">
+        <v>591734.75</v>
+      </c>
+      <c r="H12" s="32"/>
+      <c r="I12" s="30">
+        <f>E12-G12</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="72">
+        <f>IF(AND(E12=0,G12=0),0,I12/E12*100)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="30">
+        <v>0</v>
+      </c>
+      <c r="O12" s="13"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="30">
+        <f>I12+N12</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="11"/>
+      <c r="S12" s="72">
+        <f>IF(AND(E12=0,G12=0),0,Q12/E12*100)</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="9"/>
+      <c r="U12" s="1"/>
+    </row>
+    <row r="13" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="50"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="73"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="50" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="30">
+        <v>1366973.82</v>
+      </c>
+      <c r="F14" s="32"/>
+      <c r="G14" s="30">
+        <v>1366973.82</v>
+      </c>
+      <c r="H14" s="32"/>
+      <c r="I14" s="30">
+        <f>E14-G14</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="11"/>
+      <c r="K14" s="72">
+        <f>IF(AND(E14=0,G14=0),0,I14/E14*100)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="30">
+        <v>0</v>
+      </c>
+      <c r="O14" s="13"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="30">
+        <f>I14+N14</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="11"/>
+      <c r="S14" s="72">
+        <f>IF(AND(E14=0,G14=0),0,Q14/E14*100)</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="9"/>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="33"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="38"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="35">
+        <f>SUM(E8:E15)</f>
+        <v>3766118.87</v>
+      </c>
+      <c r="F17" s="32"/>
+      <c r="G17" s="35">
+        <f>SUM(G8:G15)</f>
+        <v>3766118.87</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="35">
+        <f>SUM(I8:I15)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="35">
+        <f>SUM(N8:N15)</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="13"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="35">
+        <f>SUM(Q8:Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="11"/>
+      <c r="S17" s="13"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="17"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="43"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T32"/>
   <sheetViews>
@@ -2695,6 +3358,998 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="31.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="2"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="40"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="2"/>
+    </row>
+    <row r="3" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="93" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="41" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="R3" s="1"/>
+      <c r="S3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="T3" s="9"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="2"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="2"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="2"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="7"/>
+      <c r="S6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="T6" s="9"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="2"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="33"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="33"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="11"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="2"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="100" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="30">
+        <v>24197568.879999999</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="30">
+        <v>24247685.359999999</v>
+      </c>
+      <c r="H8" s="32"/>
+      <c r="I8" s="30">
+        <v>-50116.480000000447</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="95">
+        <v>-0.20711369910149605</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="30">
+        <v>50116.480000000003</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="30">
+        <v>-4.4383341446518898E-10</v>
+      </c>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12">
+        <v>-1.8342066373123557E-15</v>
+      </c>
+      <c r="T8" s="9"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="2"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="33">
+        <v>15678254.369999999</v>
+      </c>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33">
+        <v>15728370.85</v>
+      </c>
+      <c r="H10" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="33">
+        <v>-50116.480000000447</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="13">
+        <v>-0.31965599496776409</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="33">
+        <v>50116.480000000003</v>
+      </c>
+      <c r="O10" s="13"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="33">
+        <v>-4.4383341446518898E-10</v>
+      </c>
+      <c r="R10" s="11"/>
+      <c r="S10" s="13">
+        <v>-2.8308854033804593E-15</v>
+      </c>
+      <c r="T10" s="9"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="33">
+        <v>4023191.17</v>
+      </c>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33">
+        <v>4023191.17</v>
+      </c>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33">
+        <v>0</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="13">
+        <v>0</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="33">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="33">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11"/>
+      <c r="S11" s="13">
+        <v>0</v>
+      </c>
+      <c r="T11" s="9"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="2"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="33">
+        <v>4496123.34</v>
+      </c>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33">
+        <v>4496123.3400000008</v>
+      </c>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33">
+        <v>0</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="33">
+        <v>0</v>
+      </c>
+      <c r="O12" s="13"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="33">
+        <v>0</v>
+      </c>
+      <c r="R12" s="11"/>
+      <c r="S12" s="13">
+        <v>0</v>
+      </c>
+      <c r="T12" s="9"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="33"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="2"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="2"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="101" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="30">
+        <v>2651682.84</v>
+      </c>
+      <c r="F15" s="32"/>
+      <c r="G15" s="30">
+        <v>2651682.84</v>
+      </c>
+      <c r="H15" s="32"/>
+      <c r="I15" s="30">
+        <v>0</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="12">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="30">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="30">
+        <v>0</v>
+      </c>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12">
+        <v>0</v>
+      </c>
+      <c r="T15" s="9"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="2"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="2"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="96" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="33">
+        <v>2651682.84</v>
+      </c>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33">
+        <v>2651682.84</v>
+      </c>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33">
+        <v>0</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="13">
+        <v>0</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="33">
+        <v>0</v>
+      </c>
+      <c r="O17" s="13"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="33">
+        <v>0</v>
+      </c>
+      <c r="R17" s="11"/>
+      <c r="S17" s="13">
+        <v>0</v>
+      </c>
+      <c r="T17" s="9"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="98"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="9"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="2"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="101" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="30">
+        <v>27312111.859999999</v>
+      </c>
+      <c r="F19" s="29"/>
+      <c r="G19" s="30">
+        <v>27312111.859999999</v>
+      </c>
+      <c r="H19" s="32"/>
+      <c r="I19" s="30">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="12">
+        <v>0</v>
+      </c>
+      <c r="L19" s="13"/>
+      <c r="M19" s="26"/>
+      <c r="N19" s="30">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13"/>
+      <c r="P19" s="26"/>
+      <c r="Q19" s="30">
+        <v>0</v>
+      </c>
+      <c r="R19" s="11"/>
+      <c r="S19" s="12">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="2"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="33"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="9"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="2"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="96" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" s="33">
+        <v>13957016.050000001</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33">
+        <v>13957016.050000001</v>
+      </c>
+      <c r="H21" s="33"/>
+      <c r="I21" s="33">
+        <v>0</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="13">
+        <v>0</v>
+      </c>
+      <c r="L21" s="13"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="33">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="33">
+        <v>0</v>
+      </c>
+      <c r="R21" s="11"/>
+      <c r="S21" s="13">
+        <v>0</v>
+      </c>
+      <c r="T21" s="9"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="98"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="96" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="33">
+        <v>8485455.3699999992</v>
+      </c>
+      <c r="F22" s="33"/>
+      <c r="G22" s="33">
+        <v>8485455.3699999992</v>
+      </c>
+      <c r="H22" s="33"/>
+      <c r="I22" s="33">
+        <v>0</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="13">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="33">
+        <v>0</v>
+      </c>
+      <c r="O22" s="13"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="33">
+        <v>0</v>
+      </c>
+      <c r="R22" s="11"/>
+      <c r="S22" s="13">
+        <v>0</v>
+      </c>
+      <c r="T22" s="9"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="98"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="96" t="s">
+        <v>148</v>
+      </c>
+      <c r="D23" s="11"/>
+      <c r="E23" s="33">
+        <v>2787941.08</v>
+      </c>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33">
+        <v>2787941.08</v>
+      </c>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33">
+        <v>0</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13"/>
+      <c r="M23" s="26"/>
+      <c r="N23" s="33">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13"/>
+      <c r="P23" s="26"/>
+      <c r="Q23" s="33">
+        <v>0</v>
+      </c>
+      <c r="R23" s="11"/>
+      <c r="S23" s="13">
+        <v>0</v>
+      </c>
+      <c r="T23" s="9"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="98"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="33">
+        <v>2081699.36</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33">
+        <v>2081699.36</v>
+      </c>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33">
+        <v>0</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="13">
+        <v>0</v>
+      </c>
+      <c r="L24" s="13"/>
+      <c r="M24" s="26"/>
+      <c r="N24" s="33">
+        <v>0</v>
+      </c>
+      <c r="O24" s="13"/>
+      <c r="P24" s="26"/>
+      <c r="Q24" s="33">
+        <v>0</v>
+      </c>
+      <c r="R24" s="11"/>
+      <c r="S24" s="13">
+        <v>0</v>
+      </c>
+      <c r="T24" s="9"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="98"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="34"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="34"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="9"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="2"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="35">
+        <v>54161363.579999998</v>
+      </c>
+      <c r="F26" s="32"/>
+      <c r="G26" s="35">
+        <v>54211480.060000002</v>
+      </c>
+      <c r="H26" s="32"/>
+      <c r="I26" s="35">
+        <v>-50116.480000000447</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="35">
+        <v>50116.480000000003</v>
+      </c>
+      <c r="O26" s="13"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="35">
+        <v>-4.4383341446518898E-10</v>
+      </c>
+      <c r="R26" s="11"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="9"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="2"/>
+    </row>
+    <row r="27" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="43"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="2"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="39"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="39"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="2"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" s="99" t="s">
+        <v>149</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="2"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="2"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="29"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="33"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="44"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
@@ -3143,7 +4798,7 @@
   </sheetPr>
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="K57" sqref="K57"/>
     </sheetView>
   </sheetViews>
@@ -4809,6 +6464,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:F23"/>
@@ -5018,7 +6688,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -5457,7 +7127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -7753,7 +9423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -7761,7 +9431,7 @@
   </sheetPr>
   <dimension ref="A1:Z233"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A94" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A168" sqref="A168"/>
     </sheetView>
   </sheetViews>
@@ -16986,7 +18656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
@@ -17841,607 +19511,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3" tint="0.39997558519241921"/>
-  </sheetPr>
-  <dimension ref="A1:U19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="3.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="44" customWidth="1"/>
-    <col min="6" max="6" width="3.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="44" customWidth="1"/>
-    <col min="8" max="8" width="3.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="44" customWidth="1"/>
-    <col min="10" max="10" width="0.85546875" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10.7109375" style="2" customWidth="1"/>
-    <col min="12" max="13" width="0.85546875" style="2" customWidth="1"/>
-    <col min="14" max="14" width="15.7109375" style="44" customWidth="1"/>
-    <col min="15" max="16" width="0.85546875" style="2" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="44" customWidth="1"/>
-    <col min="18" max="18" width="0.85546875" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="0.7109375" style="2" customWidth="1"/>
-    <col min="21" max="21" width="1.7109375" style="2" customWidth="1"/>
-    <col min="22" max="16384" width="11.42578125" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" ht="8.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-    </row>
-    <row r="2" spans="1:21" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="1"/>
-    </row>
-    <row r="3" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="45" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="1"/>
-    </row>
-    <row r="4" spans="1:21" ht="2.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="42"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="49" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="42"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="42"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="1"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="1"/>
-    </row>
-    <row r="8" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="50" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="30">
-        <v>355164.11</v>
-      </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="30">
-        <v>355164.11</v>
-      </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="30">
-        <f>E8-G8</f>
-        <v>0</v>
-      </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="72">
-        <f>IF(AND(E8=0,G8=0),0,I8/E8*100)</f>
-        <v>0</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="30">
-        <v>0</v>
-      </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="30">
-        <f>I8+N8</f>
-        <v>0</v>
-      </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="72">
-        <f>IF(AND(E8=0,G8=0),0,Q8/E8*100)</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="9"/>
-      <c r="U8" s="1"/>
-    </row>
-    <row r="9" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="50"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="73"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="1"/>
-    </row>
-    <row r="10" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
-        <v>78</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="30">
-        <v>1452246.19</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="30">
-        <v>1452246.19</v>
-      </c>
-      <c r="H10" s="32"/>
-      <c r="I10" s="30">
-        <f>E10-G10</f>
-        <v>0</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="72">
-        <f>IF(AND(E10=0,G10=0),0,I10/E10*100)</f>
-        <v>0</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="30">
-        <v>0</v>
-      </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="30">
-        <f>I10+N10</f>
-        <v>0</v>
-      </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="72">
-        <f>IF(AND(E10=0,G10=0),0,Q10/E10*100)</f>
-        <v>0</v>
-      </c>
-      <c r="T10" s="9"/>
-      <c r="U10" s="1"/>
-    </row>
-    <row r="11" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="73"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="11"/>
-      <c r="S11" s="73"/>
-      <c r="T11" s="9"/>
-      <c r="U11" s="1"/>
-    </row>
-    <row r="12" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="30">
-        <v>591734.75</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="30">
-        <v>591734.75</v>
-      </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="30">
-        <f>E12-G12</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="72">
-        <f>IF(AND(E12=0,G12=0),0,I12/E12*100)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="30">
-        <v>0</v>
-      </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="30">
-        <f>I12+N12</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="72">
-        <f>IF(AND(E12=0,G12=0),0,Q12/E12*100)</f>
-        <v>0</v>
-      </c>
-      <c r="T12" s="9"/>
-      <c r="U12" s="1"/>
-    </row>
-    <row r="13" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="73"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="26"/>
-      <c r="Q13" s="33"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="1"/>
-    </row>
-    <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="30">
-        <v>1366973.82</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="30">
-        <v>1366973.82</v>
-      </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="30">
-        <f>E14-G14</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="11"/>
-      <c r="K14" s="72">
-        <f>IF(AND(E14=0,G14=0),0,I14/E14*100)</f>
-        <v>0</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="30">
-        <v>0</v>
-      </c>
-      <c r="O14" s="13"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="30">
-        <f>I14+N14</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="11"/>
-      <c r="S14" s="72">
-        <f>IF(AND(E14=0,G14=0),0,Q14/E14*100)</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="9"/>
-      <c r="U14" s="1"/>
-    </row>
-    <row r="15" spans="1:21" ht="3" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="26"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="26"/>
-      <c r="Q15" s="33"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="13"/>
-      <c r="T15" s="9"/>
-      <c r="U15" s="1"/>
-    </row>
-    <row r="16" spans="1:21" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="1"/>
-    </row>
-    <row r="17" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="35">
-        <f>SUM(E8:E15)</f>
-        <v>3766118.87</v>
-      </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="35">
-        <f>SUM(G8:G15)</f>
-        <v>3766118.87</v>
-      </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="35">
-        <f>SUM(I8:I15)</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="35">
-        <f>SUM(N8:N15)</f>
-        <v>0</v>
-      </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="35">
-        <f>SUM(Q8:Q15)</f>
-        <v>0</v>
-      </c>
-      <c r="R17" s="11"/>
-      <c r="S17" s="13"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="1"/>
-    </row>
-    <row r="18" spans="1:21" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="43"/>
-      <c r="O18" s="19"/>
-      <c r="P18" s="19"/>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="19"/>
-      <c r="S18" s="19"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="1"/>
-    </row>
-    <row r="19" spans="1:21" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/downloads/D-EITI_Zahlungsabgleich.xlsx
+++ b/downloads/D-EITI_Zahlungsabgleich.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaas_rab\Documents\Nachtragsbericht\2. Runde Paperdice\finale Änderungsrunde\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaas_rab\Documents\02 - Aktualisierung Datenportal\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" tabRatio="754"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12345" tabRatio="754" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Unternehmen je Sektor" sheetId="8" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="154">
   <si>
     <t>EUR</t>
   </si>
@@ -503,6 +503,24 @@
 sicher zu stellen. Die Abdeckung der rohstoffspezifischen Zahlungen (Feldes- und Förderabgaben) wird durch die nicht berichtenden Unternehmen
 nicht wesentlich beeinträchtigt, die Abdeckung dieser Zahlungen beträgt 99,58 %. Tabelle 11: Abdeckung der Förderabgabe</t>
   </si>
+  <si>
+    <t>Quarzwerke GmbH, Frechen</t>
+  </si>
+  <si>
+    <t>Südwestdeutsche Salzwerke AG</t>
+  </si>
+  <si>
+    <t>15.</t>
+  </si>
+  <si>
+    <t>16.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   Stadt Frechen</t>
+  </si>
+  <si>
+    <t>Es sind Zahlungen erfolgt, allerdings in Summe unter EUR 100.000,00.</t>
+  </si>
 </sst>
 </file>
 
@@ -512,13 +530,25 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -636,15 +666,14 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color theme="1"/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -675,7 +704,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -781,176 +810,245 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="15" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="14" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="15" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="18" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="16" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="17" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="14" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="16" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="16" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="14" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="16" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="16" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="15" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="14" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="16" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="12" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="17" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="18" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="18" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="20" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="16" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="10" fillId="4" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="9" fillId="4" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="12" fillId="4" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="11" fillId="4" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="12" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="8" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="10" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="4" fontId="8" fillId="4" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="10" fillId="4" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="14" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="21" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="22" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="17" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="17" fillId="4" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="20" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="23" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
+    <cellStyle name="Standard 2 2" xfId="3"/>
+    <cellStyle name="Standard 3" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1232,676 +1330,494 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:D55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="2.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="50.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="0.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="0.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="0.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="1.28515625" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="3.5703125" style="106" customWidth="1"/>
+    <col min="2" max="2" width="49.5703125" style="106" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.140625" style="106" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="106" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.42578125" style="106"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8" t="s">
+    <row r="1" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="104"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="107"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="107"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="109" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="108"/>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B5" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="35" t="s">
+      <c r="C5" s="108"/>
+      <c r="D5" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="37"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="37" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="110"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="112"/>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B7" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="35" t="s">
+      <c r="C7" s="108"/>
+      <c r="D7" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="37"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="110"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="112"/>
+    </row>
+    <row r="9" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B9" s="108" t="s">
         <v>117</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="35" t="s">
+      <c r="C9" s="108"/>
+      <c r="D9" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="37"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+    </row>
+    <row r="10" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="110"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="112"/>
+    </row>
+    <row r="11" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B11" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="35" t="s">
+      <c r="C11" s="108"/>
+      <c r="D11" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="13"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="37"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37" t="s">
+    </row>
+    <row r="12" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="110"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="112"/>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B13" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="35" t="s">
+      <c r="C13" s="108"/>
+      <c r="D13" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="110"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="112"/>
+    </row>
+    <row r="15" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B15" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="35" t="s">
+      <c r="C15" s="108"/>
+      <c r="D15" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="37"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
+    </row>
+    <row r="16" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="110"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="112"/>
+    </row>
+    <row r="17" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="110" t="s">
         <v>56</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B17" s="108" t="s">
         <v>45</v>
       </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11" t="s">
+      <c r="C17" s="108"/>
+      <c r="D17" s="113"/>
+    </row>
+    <row r="18" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="110"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="112"/>
+    </row>
+    <row r="19" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="110"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="11"/>
-      <c r="E20" s="35" t="s">
+      <c r="D19" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="110"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="35" t="s">
+      <c r="D20" s="111" t="s">
         <v>46</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="37" t="s">
+    </row>
+    <row r="21" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="110"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="112"/>
+    </row>
+    <row r="22" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="110" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B22" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="37"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11" t="s">
+      <c r="C22" s="108"/>
+      <c r="D22" s="113"/>
+    </row>
+    <row r="23" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="110"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="112"/>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="110"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="35" t="s">
+      <c r="D24" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11" t="s">
+    </row>
+    <row r="25" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="110"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="35" t="s">
+      <c r="D25" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="37"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11" t="s">
+    </row>
+    <row r="26" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="110"/>
+      <c r="B26" s="108"/>
+      <c r="C26" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="11"/>
-      <c r="E27" s="35" t="s">
+      <c r="D26" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="F27" s="13"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="37"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11" t="s">
+    </row>
+    <row r="27" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="110"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="D28" s="11"/>
-      <c r="E28" s="35" t="s">
+      <c r="D27" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="F28" s="13"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="37"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11" t="s">
+    </row>
+    <row r="28" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="110"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="11"/>
-      <c r="E29" s="35" t="s">
+      <c r="D28" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="13"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="37"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11" t="s">
+    </row>
+    <row r="29" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="110"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="35" t="s">
+      <c r="D29" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="37"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11" t="s">
+    </row>
+    <row r="30" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="110"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="D31" s="11"/>
-      <c r="E31" s="35" t="s">
+      <c r="D30" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="1"/>
-    </row>
-    <row r="32" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="37"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11" t="s">
+    </row>
+    <row r="31" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="110"/>
+      <c r="B31" s="108"/>
+      <c r="C31" s="108" t="s">
         <v>37</v>
       </c>
-      <c r="D32" s="11"/>
-      <c r="E32" s="35" t="s">
+      <c r="D31" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="F32" s="13"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="37"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11" t="s">
+    </row>
+    <row r="32" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="110"/>
+      <c r="B32" s="108"/>
+      <c r="C32" s="108" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="11"/>
-      <c r="E33" s="35" t="s">
+      <c r="D32" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="13"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="37"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="37" t="s">
+    </row>
+    <row r="33" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="110"/>
+      <c r="B33" s="108"/>
+      <c r="C33" s="108"/>
+      <c r="D33" s="112"/>
+    </row>
+    <row r="34" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="110" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="11" t="s">
+      <c r="B34" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
-      <c r="E35" s="35" t="s">
+      <c r="C34" s="108"/>
+      <c r="D34" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="F35" s="13"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="1"/>
-    </row>
-    <row r="36" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="37"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="1"/>
-    </row>
-    <row r="37" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="88" t="s">
+    </row>
+    <row r="35" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="110"/>
+      <c r="B35" s="108"/>
+      <c r="C35" s="108"/>
+      <c r="D35" s="112"/>
+    </row>
+    <row r="36" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="110" t="s">
         <v>59</v>
       </c>
-      <c r="B37" s="89" t="s">
+      <c r="B36" s="108" t="s">
         <v>129</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="35" t="s">
+      <c r="C36" s="108"/>
+      <c r="D36" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="13"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="1"/>
-    </row>
-    <row r="38" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="37"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="13"/>
-      <c r="F38" s="13"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="1"/>
-    </row>
-    <row r="39" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="88" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="110"/>
+      <c r="B37" s="108"/>
+      <c r="C37" s="108"/>
+      <c r="D37" s="112"/>
+    </row>
+    <row r="38" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="110" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B38" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="108"/>
+      <c r="D38" s="111" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="110"/>
+      <c r="B39" s="108"/>
+      <c r="C39" s="108"/>
+      <c r="D39" s="112"/>
+    </row>
+    <row r="40" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="110" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="36"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="1"/>
-    </row>
-    <row r="40" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="37"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="1"/>
-    </row>
-    <row r="41" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="37"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11" t="s">
+      <c r="C40" s="108"/>
+      <c r="D40" s="113"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="110"/>
+      <c r="B41" s="108"/>
+      <c r="C41" s="108"/>
+      <c r="D41" s="112"/>
+    </row>
+    <row r="42" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="110"/>
+      <c r="B42" s="108"/>
+      <c r="C42" s="108" t="s">
         <v>40</v>
       </c>
-      <c r="D41" s="11"/>
-      <c r="E41" s="35" t="s">
+      <c r="D42" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="F41" s="13"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="1"/>
-    </row>
-    <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="37"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11" t="s">
+    </row>
+    <row r="43" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="110"/>
+      <c r="B43" s="108"/>
+      <c r="C43" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="D42" s="11"/>
-      <c r="E42" s="35" t="s">
+      <c r="D43" s="111" t="s">
         <v>49</v>
       </c>
-      <c r="F42" s="13"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="1"/>
-    </row>
-    <row r="43" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="1"/>
-    </row>
-    <row r="44" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="B44" s="84" t="s">
+    </row>
+    <row r="44" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="110"/>
+      <c r="B44" s="108"/>
+      <c r="C44" s="108"/>
+      <c r="D44" s="112"/>
+    </row>
+    <row r="45" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="B45" s="108" t="s">
         <v>122</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="35" t="s">
+      <c r="C45" s="108"/>
+      <c r="D45" s="111" t="s">
         <v>44</v>
       </c>
-      <c r="F44" s="13"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="1"/>
-    </row>
-    <row r="45" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="37"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="1"/>
-    </row>
-    <row r="46" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="88" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" s="102" t="s">
+    </row>
+    <row r="46" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="110"/>
+      <c r="B46" s="108"/>
+      <c r="C46" s="108"/>
+      <c r="D46" s="112"/>
+    </row>
+    <row r="47" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="110" t="s">
+        <v>128</v>
+      </c>
+      <c r="B47" s="108" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="108"/>
+      <c r="D47" s="111" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="110"/>
+      <c r="B48" s="108"/>
+      <c r="C48" s="108"/>
+      <c r="D48" s="112"/>
+    </row>
+    <row r="49" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="110" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="108" t="s">
         <v>138</v>
       </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="35" t="s">
+      <c r="C49" s="108"/>
+      <c r="D49" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="F46" s="13"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="1"/>
-    </row>
-    <row r="47" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="37"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="1"/>
-    </row>
-    <row r="48" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="88" t="s">
-        <v>128</v>
-      </c>
-      <c r="B48" s="11" t="s">
+    </row>
+    <row r="50" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="110"/>
+      <c r="B50" s="108"/>
+      <c r="C50" s="108"/>
+      <c r="D50" s="112"/>
+    </row>
+    <row r="51" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="110" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="35" t="s">
+      <c r="C51" s="108"/>
+      <c r="D51" s="111" t="s">
         <v>43</v>
       </c>
-      <c r="F48" s="13"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="1"/>
-    </row>
-    <row r="49" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="13"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="1"/>
-    </row>
-    <row r="50" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="6"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="13"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="1"/>
-    </row>
-    <row r="51" spans="1:8" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="19"/>
-      <c r="H51" s="1"/>
-    </row>
-    <row r="52" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
+    </row>
+    <row r="52" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="107"/>
+      <c r="B52" s="108"/>
+      <c r="C52" s="108"/>
+      <c r="D52" s="112"/>
+    </row>
+    <row r="53" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="107"/>
+      <c r="B53" s="108"/>
+      <c r="C53" s="108"/>
+      <c r="D53" s="15"/>
+    </row>
+    <row r="54" spans="1:4" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="114"/>
+      <c r="B54" s="115"/>
+      <c r="C54" s="115"/>
+      <c r="D54" s="116"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="117"/>
+      <c r="B55" s="117"/>
+      <c r="C55" s="117"/>
+      <c r="D55" s="117"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -1911,990 +1827,1128 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V40"/>
+  <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="31.7109375" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="7" max="7" width="22.42578125" customWidth="1"/>
+    <col min="1" max="3" width="11.42578125" style="138"/>
+    <col min="4" max="4" width="31.7109375" style="138" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="138" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="138"/>
+    <col min="7" max="7" width="22.42578125" style="138" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="138"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="4"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="2"/>
-    </row>
-    <row r="3" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="92" t="s">
+    <row r="1" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="117"/>
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="118"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="118"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="118"/>
+      <c r="O1" s="117"/>
+      <c r="P1" s="117"/>
+      <c r="Q1" s="118"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="106"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="104"/>
+      <c r="B2" s="105"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="105"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="105"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="120"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="120"/>
+      <c r="P2" s="105"/>
+      <c r="Q2" s="119"/>
+      <c r="R2" s="105"/>
+      <c r="S2" s="120"/>
+      <c r="T2" s="121"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="106"/>
+    </row>
+    <row r="3" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="107" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="44" t="s">
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="44" t="s">
+      <c r="F3" s="117"/>
+      <c r="G3" s="122" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="1"/>
-      <c r="I3" s="40" t="s">
+      <c r="H3" s="117"/>
+      <c r="I3" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="8" t="s">
+      <c r="J3" s="117"/>
+      <c r="K3" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="40" t="s">
+      <c r="L3" s="117"/>
+      <c r="M3" s="124"/>
+      <c r="N3" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="O3" s="1"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="40" t="s">
+      <c r="O3" s="117"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="123" t="s">
         <v>3</v>
       </c>
-      <c r="R3" s="1"/>
-      <c r="S3" s="8" t="s">
+      <c r="R3" s="117"/>
+      <c r="S3" s="109" t="s">
         <v>3</v>
       </c>
-      <c r="T3" s="9"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="2"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="6"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="41"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="2"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="T3" s="125"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="106"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="107"/>
+      <c r="B4" s="108"/>
+      <c r="C4" s="108"/>
+      <c r="D4" s="117"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="117"/>
+      <c r="G4" s="126"/>
+      <c r="H4" s="117"/>
+      <c r="I4" s="126"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="117"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="126"/>
+      <c r="O4" s="117"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="126"/>
+      <c r="R4" s="117"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="125"/>
+      <c r="U4" s="117"/>
+      <c r="V4" s="106"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="10"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="11"/>
-      <c r="S5" s="26"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="2"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8" t="s">
+      <c r="D5" s="108"/>
+      <c r="E5" s="126"/>
+      <c r="F5" s="108"/>
+      <c r="G5" s="126"/>
+      <c r="H5" s="108"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="108"/>
+      <c r="K5" s="127"/>
+      <c r="L5" s="108"/>
+      <c r="M5" s="124"/>
+      <c r="N5" s="126"/>
+      <c r="O5" s="108"/>
+      <c r="P5" s="124"/>
+      <c r="Q5" s="126"/>
+      <c r="R5" s="108"/>
+      <c r="S5" s="127"/>
+      <c r="T5" s="125"/>
+      <c r="U5" s="117"/>
+      <c r="V5" s="106"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="110"/>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="128"/>
+      <c r="G6" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="128"/>
+      <c r="I6" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="128"/>
+      <c r="K6" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="O6" s="7"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="R6" s="7"/>
-      <c r="S6" s="8" t="s">
+      <c r="L6" s="128"/>
+      <c r="M6" s="129"/>
+      <c r="N6" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="128"/>
+      <c r="P6" s="129"/>
+      <c r="Q6" s="123" t="s">
+        <v>0</v>
+      </c>
+      <c r="R6" s="128"/>
+      <c r="S6" s="109" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="9"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="2"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="32"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="11"/>
-      <c r="S7" s="11"/>
-      <c r="T7" s="9"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="2"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8" s="99" t="s">
+      <c r="T6" s="125"/>
+      <c r="U6" s="117"/>
+      <c r="V6" s="106"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="110"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="130"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="108"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="124"/>
+      <c r="N7" s="130"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="124"/>
+      <c r="Q7" s="130"/>
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="125"/>
+      <c r="U7" s="117"/>
+      <c r="V7" s="106"/>
+    </row>
+    <row r="8" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="29">
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="131">
         <v>24197568.879999999</v>
       </c>
       <c r="F8" s="31"/>
-      <c r="G8" s="29">
+      <c r="G8" s="131">
         <v>24247685.359999999</v>
       </c>
       <c r="H8" s="31"/>
-      <c r="I8" s="29">
+      <c r="I8" s="131">
         <v>-50116.480000000447</v>
       </c>
-      <c r="J8" s="11"/>
-      <c r="K8" s="94">
+      <c r="J8" s="108"/>
+      <c r="K8" s="132">
         <v>-0.20711369910149605</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="29">
+      <c r="L8" s="112"/>
+      <c r="M8" s="133"/>
+      <c r="N8" s="131">
         <v>50116.480000000003</v>
       </c>
-      <c r="O8" s="13"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="29">
+      <c r="O8" s="112"/>
+      <c r="P8" s="133"/>
+      <c r="Q8" s="131">
         <v>-4.4383341446518898E-10</v>
       </c>
-      <c r="R8" s="11"/>
-      <c r="S8" s="12">
+      <c r="R8" s="108"/>
+      <c r="S8" s="134">
         <v>-1.8342066373123557E-15</v>
       </c>
-      <c r="T8" s="9"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="2"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="9"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="2"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="95" t="s">
+      <c r="T8" s="125"/>
+      <c r="U8" s="117"/>
+      <c r="V8" s="106"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="110"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="108"/>
+      <c r="E9" s="130"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="108"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="133"/>
+      <c r="N9" s="130"/>
+      <c r="O9" s="112"/>
+      <c r="P9" s="133"/>
+      <c r="Q9" s="130"/>
+      <c r="R9" s="108"/>
+      <c r="S9" s="112"/>
+      <c r="T9" s="125"/>
+      <c r="U9" s="117"/>
+      <c r="V9" s="106"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="110"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="32">
+      <c r="D10" s="108"/>
+      <c r="E10" s="130">
         <v>15678254.369999999</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32">
+      <c r="F10" s="130"/>
+      <c r="G10" s="130">
         <v>15728370.85</v>
       </c>
-      <c r="H10" s="96" t="s">
+      <c r="H10" s="130" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="130">
         <v>-50116.480000000447</v>
       </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="13">
+      <c r="J10" s="108"/>
+      <c r="K10" s="112">
         <v>-0.31965599496776409</v>
       </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="32">
+      <c r="L10" s="112"/>
+      <c r="M10" s="133"/>
+      <c r="N10" s="130">
         <v>50116.480000000003</v>
       </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="32">
+      <c r="O10" s="112"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="130">
         <v>-4.4383341446518898E-10</v>
       </c>
-      <c r="R10" s="11"/>
-      <c r="S10" s="13">
+      <c r="R10" s="108"/>
+      <c r="S10" s="112">
         <v>-2.8308854033804593E-15</v>
       </c>
-      <c r="T10" s="9"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="2"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="95" t="s">
+      <c r="T10" s="125"/>
+      <c r="U10" s="117"/>
+      <c r="V10" s="106"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="110"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="32">
+      <c r="D11" s="108"/>
+      <c r="E11" s="130">
         <v>4023191.17</v>
       </c>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32">
+      <c r="F11" s="130"/>
+      <c r="G11" s="130">
         <v>4023191.17</v>
       </c>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="13">
-        <v>0</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="32">
-        <v>0</v>
-      </c>
-      <c r="O11" s="13"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="32">
-        <v>0</v>
-      </c>
-      <c r="R11" s="11"/>
-      <c r="S11" s="13">
-        <v>0</v>
-      </c>
-      <c r="T11" s="9"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="2"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="95" t="s">
+      <c r="H11" s="130"/>
+      <c r="I11" s="130">
+        <v>0</v>
+      </c>
+      <c r="J11" s="108"/>
+      <c r="K11" s="112">
+        <v>0</v>
+      </c>
+      <c r="L11" s="112"/>
+      <c r="M11" s="133"/>
+      <c r="N11" s="130">
+        <v>0</v>
+      </c>
+      <c r="O11" s="112"/>
+      <c r="P11" s="133"/>
+      <c r="Q11" s="130">
+        <v>0</v>
+      </c>
+      <c r="R11" s="108"/>
+      <c r="S11" s="112">
+        <v>0</v>
+      </c>
+      <c r="T11" s="125"/>
+      <c r="U11" s="117"/>
+      <c r="V11" s="106"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="110"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108" t="s">
         <v>133</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="32">
+      <c r="D12" s="108"/>
+      <c r="E12" s="130">
         <v>4496123.34</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32">
+      <c r="F12" s="130"/>
+      <c r="G12" s="130">
         <v>4496123.3400000008</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32">
-        <v>0</v>
-      </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="13">
-        <v>0</v>
-      </c>
-      <c r="L12" s="13"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="32">
-        <v>0</v>
-      </c>
-      <c r="O12" s="13"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="32">
-        <v>0</v>
-      </c>
-      <c r="R12" s="11"/>
-      <c r="S12" s="13">
-        <v>0</v>
-      </c>
-      <c r="T12" s="9"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="2"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="9"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="2"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="13"/>
-      <c r="T14" s="9"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="2"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="100" t="s">
+      <c r="H12" s="130"/>
+      <c r="I12" s="130">
+        <v>0</v>
+      </c>
+      <c r="J12" s="108"/>
+      <c r="K12" s="112">
+        <v>0</v>
+      </c>
+      <c r="L12" s="112"/>
+      <c r="M12" s="133"/>
+      <c r="N12" s="130">
+        <v>0</v>
+      </c>
+      <c r="O12" s="112"/>
+      <c r="P12" s="133"/>
+      <c r="Q12" s="130">
+        <v>0</v>
+      </c>
+      <c r="R12" s="108"/>
+      <c r="S12" s="112">
+        <v>0</v>
+      </c>
+      <c r="T12" s="125"/>
+      <c r="U12" s="117"/>
+      <c r="V12" s="106"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="110"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="130"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="108"/>
+      <c r="K13" s="112"/>
+      <c r="L13" s="112"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="130"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="133"/>
+      <c r="Q13" s="130"/>
+      <c r="R13" s="108"/>
+      <c r="S13" s="112"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="117"/>
+      <c r="V13" s="106"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="110"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="108"/>
+      <c r="K14" s="112"/>
+      <c r="L14" s="112"/>
+      <c r="M14" s="133"/>
+      <c r="N14" s="130"/>
+      <c r="O14" s="112"/>
+      <c r="P14" s="133"/>
+      <c r="Q14" s="130"/>
+      <c r="R14" s="108"/>
+      <c r="S14" s="112"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="117"/>
+      <c r="V14" s="106"/>
+    </row>
+    <row r="15" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="29">
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="131">
         <v>2651682.84</v>
       </c>
       <c r="F15" s="31"/>
-      <c r="G15" s="29">
+      <c r="G15" s="131">
         <v>2651682.84</v>
       </c>
       <c r="H15" s="31"/>
-      <c r="I15" s="29">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11"/>
-      <c r="K15" s="12">
-        <v>0</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="29">
-        <v>0</v>
-      </c>
-      <c r="O15" s="13"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="29">
-        <v>0</v>
-      </c>
-      <c r="R15" s="11"/>
-      <c r="S15" s="12">
-        <v>0</v>
-      </c>
-      <c r="T15" s="9"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="2"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="32"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="2"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="95" t="s">
+      <c r="I15" s="131">
+        <v>0</v>
+      </c>
+      <c r="J15" s="108"/>
+      <c r="K15" s="134">
+        <v>0</v>
+      </c>
+      <c r="L15" s="112"/>
+      <c r="M15" s="133"/>
+      <c r="N15" s="131">
+        <v>0</v>
+      </c>
+      <c r="O15" s="112"/>
+      <c r="P15" s="133"/>
+      <c r="Q15" s="131">
+        <v>0</v>
+      </c>
+      <c r="R15" s="108"/>
+      <c r="S15" s="134">
+        <v>0</v>
+      </c>
+      <c r="T15" s="125"/>
+      <c r="U15" s="117"/>
+      <c r="V15" s="106"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="110"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="130"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="108"/>
+      <c r="K16" s="112"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="133"/>
+      <c r="N16" s="130"/>
+      <c r="O16" s="112"/>
+      <c r="P16" s="133"/>
+      <c r="Q16" s="130"/>
+      <c r="R16" s="108"/>
+      <c r="S16" s="112"/>
+      <c r="T16" s="125"/>
+      <c r="U16" s="117"/>
+      <c r="V16" s="106"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="110"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="32">
+      <c r="D17" s="108"/>
+      <c r="E17" s="130">
         <v>2651682.84</v>
       </c>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32">
+      <c r="F17" s="130"/>
+      <c r="G17" s="130">
         <v>2651682.84</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="13">
-        <v>0</v>
-      </c>
-      <c r="L17" s="13"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="32">
-        <v>0</v>
-      </c>
-      <c r="O17" s="13"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="32">
-        <v>0</v>
-      </c>
-      <c r="R17" s="11"/>
-      <c r="S17" s="13">
-        <v>0</v>
-      </c>
-      <c r="T17" s="9"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="97"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="32"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="32"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="13"/>
-      <c r="T18" s="9"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="2"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A19" s="100" t="s">
+      <c r="H17" s="130"/>
+      <c r="I17" s="130">
+        <v>0</v>
+      </c>
+      <c r="J17" s="108"/>
+      <c r="K17" s="112">
+        <v>0</v>
+      </c>
+      <c r="L17" s="112"/>
+      <c r="M17" s="133"/>
+      <c r="N17" s="130">
+        <v>0</v>
+      </c>
+      <c r="O17" s="112"/>
+      <c r="P17" s="133"/>
+      <c r="Q17" s="130">
+        <v>0</v>
+      </c>
+      <c r="R17" s="108"/>
+      <c r="S17" s="112">
+        <v>0</v>
+      </c>
+      <c r="T17" s="125"/>
+      <c r="U17" s="117"/>
+      <c r="V17" s="106"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="110"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="108"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="112"/>
+      <c r="M18" s="133"/>
+      <c r="N18" s="130"/>
+      <c r="O18" s="112"/>
+      <c r="P18" s="133"/>
+      <c r="Q18" s="130"/>
+      <c r="R18" s="108"/>
+      <c r="S18" s="112"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="117"/>
+      <c r="V18" s="106"/>
+    </row>
+    <row r="19" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="29">
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="131">
         <v>27312111.859999999</v>
       </c>
       <c r="F19" s="28"/>
-      <c r="G19" s="29">
+      <c r="G19" s="131">
         <v>27312111.859999999</v>
       </c>
       <c r="H19" s="31"/>
-      <c r="I19" s="29">
-        <v>0</v>
-      </c>
-      <c r="J19" s="11"/>
-      <c r="K19" s="12">
-        <v>0</v>
-      </c>
-      <c r="L19" s="13"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="29">
-        <v>0</v>
-      </c>
-      <c r="O19" s="13"/>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="29">
-        <v>0</v>
-      </c>
-      <c r="R19" s="11"/>
-      <c r="S19" s="12">
-        <v>0</v>
-      </c>
-      <c r="T19" s="9"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="2"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A20" s="37"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="32"/>
-      <c r="G20" s="32"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="32"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="32"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="32"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="13"/>
-      <c r="T20" s="9"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="2"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A21" s="37"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="95" t="s">
+      <c r="I19" s="131">
+        <v>0</v>
+      </c>
+      <c r="J19" s="108"/>
+      <c r="K19" s="134">
+        <v>0</v>
+      </c>
+      <c r="L19" s="112"/>
+      <c r="M19" s="133"/>
+      <c r="N19" s="131">
+        <v>0</v>
+      </c>
+      <c r="O19" s="112"/>
+      <c r="P19" s="133"/>
+      <c r="Q19" s="131">
+        <v>0</v>
+      </c>
+      <c r="R19" s="108"/>
+      <c r="S19" s="134">
+        <v>0</v>
+      </c>
+      <c r="T19" s="125"/>
+      <c r="U19" s="117"/>
+      <c r="V19" s="106"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="110"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="108"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="112"/>
+      <c r="M20" s="133"/>
+      <c r="N20" s="130"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="133"/>
+      <c r="Q20" s="130"/>
+      <c r="R20" s="108"/>
+      <c r="S20" s="112"/>
+      <c r="T20" s="125"/>
+      <c r="U20" s="117"/>
+      <c r="V20" s="106"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="110"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="32">
+      <c r="D21" s="108"/>
+      <c r="E21" s="130">
         <v>13957016.050000001</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32">
+      <c r="F21" s="130"/>
+      <c r="G21" s="130">
         <v>13957016.050000001</v>
       </c>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32">
-        <v>0</v>
-      </c>
-      <c r="J21" s="11"/>
-      <c r="K21" s="13">
-        <v>0</v>
-      </c>
-      <c r="L21" s="13"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="32">
-        <v>0</v>
-      </c>
-      <c r="O21" s="13"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="32">
-        <v>0</v>
-      </c>
-      <c r="R21" s="11"/>
-      <c r="S21" s="13">
-        <v>0</v>
-      </c>
-      <c r="T21" s="9"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="97"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A22" s="37"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="95" t="s">
+      <c r="H21" s="130"/>
+      <c r="I21" s="130">
+        <v>0</v>
+      </c>
+      <c r="J21" s="108"/>
+      <c r="K21" s="112">
+        <v>0</v>
+      </c>
+      <c r="L21" s="112"/>
+      <c r="M21" s="133"/>
+      <c r="N21" s="130">
+        <v>0</v>
+      </c>
+      <c r="O21" s="112"/>
+      <c r="P21" s="133"/>
+      <c r="Q21" s="130">
+        <v>0</v>
+      </c>
+      <c r="R21" s="108"/>
+      <c r="S21" s="112">
+        <v>0</v>
+      </c>
+      <c r="T21" s="125"/>
+      <c r="U21" s="117"/>
+      <c r="V21" s="106"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="110"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108" t="s">
         <v>131</v>
       </c>
-      <c r="D22" s="11"/>
-      <c r="E22" s="32">
+      <c r="D22" s="108"/>
+      <c r="E22" s="130">
         <v>8485455.3699999992</v>
       </c>
-      <c r="F22" s="32"/>
-      <c r="G22" s="32">
+      <c r="F22" s="130"/>
+      <c r="G22" s="130">
         <v>8485455.3699999992</v>
       </c>
-      <c r="H22" s="32"/>
-      <c r="I22" s="32">
-        <v>0</v>
-      </c>
-      <c r="J22" s="11"/>
-      <c r="K22" s="13">
-        <v>0</v>
-      </c>
-      <c r="L22" s="13"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="32">
-        <v>0</v>
-      </c>
-      <c r="O22" s="13"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="32">
-        <v>0</v>
-      </c>
-      <c r="R22" s="11"/>
-      <c r="S22" s="13">
-        <v>0</v>
-      </c>
-      <c r="T22" s="9"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="97"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="37"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="95" t="s">
+      <c r="H22" s="130"/>
+      <c r="I22" s="130">
+        <v>0</v>
+      </c>
+      <c r="J22" s="108"/>
+      <c r="K22" s="112">
+        <v>0</v>
+      </c>
+      <c r="L22" s="112"/>
+      <c r="M22" s="133"/>
+      <c r="N22" s="130">
+        <v>0</v>
+      </c>
+      <c r="O22" s="112"/>
+      <c r="P22" s="133"/>
+      <c r="Q22" s="130">
+        <v>0</v>
+      </c>
+      <c r="R22" s="108"/>
+      <c r="S22" s="112">
+        <v>0</v>
+      </c>
+      <c r="T22" s="125"/>
+      <c r="U22" s="117"/>
+      <c r="V22" s="106"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="110"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108" t="s">
         <v>136</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="32">
+      <c r="D23" s="108"/>
+      <c r="E23" s="130">
         <v>2787941.08</v>
       </c>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32">
+      <c r="F23" s="130"/>
+      <c r="G23" s="130">
         <v>2787941.08</v>
       </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32">
-        <v>0</v>
-      </c>
-      <c r="J23" s="11"/>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="32">
-        <v>0</v>
-      </c>
-      <c r="O23" s="13"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="32">
-        <v>0</v>
-      </c>
-      <c r="R23" s="11"/>
-      <c r="S23" s="13">
-        <v>0</v>
-      </c>
-      <c r="T23" s="9"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="97"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="95" t="s">
+      <c r="H23" s="130"/>
+      <c r="I23" s="130">
+        <v>0</v>
+      </c>
+      <c r="J23" s="108"/>
+      <c r="K23" s="112">
+        <v>0</v>
+      </c>
+      <c r="L23" s="112"/>
+      <c r="M23" s="133"/>
+      <c r="N23" s="130">
+        <v>0</v>
+      </c>
+      <c r="O23" s="112"/>
+      <c r="P23" s="133"/>
+      <c r="Q23" s="130">
+        <v>0</v>
+      </c>
+      <c r="R23" s="108"/>
+      <c r="S23" s="112">
+        <v>0</v>
+      </c>
+      <c r="T23" s="125"/>
+      <c r="U23" s="117"/>
+      <c r="V23" s="106"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="110"/>
+      <c r="B24" s="108"/>
+      <c r="C24" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="32">
+      <c r="D24" s="108"/>
+      <c r="E24" s="130">
         <v>2081699.36</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32">
+      <c r="F24" s="130"/>
+      <c r="G24" s="130">
         <v>2081699.36</v>
       </c>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32">
-        <v>0</v>
-      </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="13">
-        <v>0</v>
-      </c>
-      <c r="L24" s="13"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="32">
-        <v>0</v>
-      </c>
-      <c r="O24" s="13"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="32">
-        <v>0</v>
-      </c>
-      <c r="R24" s="11"/>
-      <c r="S24" s="13">
-        <v>0</v>
-      </c>
-      <c r="T24" s="9"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="97"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A25" s="37"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="33"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="13"/>
-      <c r="T25" s="9"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="2"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="37"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="34">
-        <v>54161363.579999998</v>
-      </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="34">
-        <v>54211480.060000002</v>
-      </c>
-      <c r="H26" s="31"/>
-      <c r="I26" s="34">
+      <c r="H24" s="130"/>
+      <c r="I24" s="130">
+        <v>0</v>
+      </c>
+      <c r="J24" s="108"/>
+      <c r="K24" s="112">
+        <v>0</v>
+      </c>
+      <c r="L24" s="112"/>
+      <c r="M24" s="133"/>
+      <c r="N24" s="130">
+        <v>0</v>
+      </c>
+      <c r="O24" s="112"/>
+      <c r="P24" s="133"/>
+      <c r="Q24" s="130">
+        <v>0</v>
+      </c>
+      <c r="R24" s="108"/>
+      <c r="S24" s="112">
+        <v>0</v>
+      </c>
+      <c r="T24" s="125"/>
+      <c r="U24" s="117"/>
+      <c r="V24" s="106"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="110"/>
+      <c r="B25" s="108"/>
+      <c r="C25" s="108"/>
+      <c r="D25" s="108"/>
+      <c r="E25" s="130"/>
+      <c r="F25" s="130"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="130"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="108"/>
+      <c r="K25" s="112"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="133"/>
+      <c r="N25" s="130"/>
+      <c r="O25" s="112"/>
+      <c r="P25" s="133"/>
+      <c r="Q25" s="130"/>
+      <c r="R25" s="108"/>
+      <c r="S25" s="112"/>
+      <c r="T25" s="125"/>
+      <c r="U25" s="117"/>
+      <c r="V25" s="106"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="110" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="108"/>
+      <c r="D26" s="108"/>
+      <c r="E26" s="131">
+        <v>4552976.9400000004</v>
+      </c>
+      <c r="F26" s="130"/>
+      <c r="G26" s="131">
+        <v>4552976.9400000004</v>
+      </c>
+      <c r="H26" s="130"/>
+      <c r="I26" s="131">
+        <v>0</v>
+      </c>
+      <c r="J26" s="108"/>
+      <c r="K26" s="134">
+        <v>0</v>
+      </c>
+      <c r="L26" s="112"/>
+      <c r="M26" s="133"/>
+      <c r="N26" s="131">
+        <v>0</v>
+      </c>
+      <c r="O26" s="112"/>
+      <c r="P26" s="133"/>
+      <c r="Q26" s="131">
+        <v>0</v>
+      </c>
+      <c r="R26" s="108"/>
+      <c r="S26" s="134">
+        <v>0</v>
+      </c>
+      <c r="T26" s="125"/>
+      <c r="U26" s="117"/>
+      <c r="V26" s="106"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="110"/>
+      <c r="B27" s="108"/>
+      <c r="C27" s="108"/>
+      <c r="D27" s="108"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="130"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="108"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="112"/>
+      <c r="M27" s="133"/>
+      <c r="N27" s="130"/>
+      <c r="O27" s="112"/>
+      <c r="P27" s="133"/>
+      <c r="Q27" s="130"/>
+      <c r="R27" s="108"/>
+      <c r="S27" s="112"/>
+      <c r="T27" s="125"/>
+      <c r="U27" s="117"/>
+      <c r="V27" s="106"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="110"/>
+      <c r="B28" s="108"/>
+      <c r="C28" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="D28" s="108"/>
+      <c r="E28" s="130">
+        <v>4552976.9400000004</v>
+      </c>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130">
+        <v>4552976.9400000004</v>
+      </c>
+      <c r="H28" s="130"/>
+      <c r="I28" s="130">
+        <v>0</v>
+      </c>
+      <c r="J28" s="108"/>
+      <c r="K28" s="112">
+        <v>0</v>
+      </c>
+      <c r="L28" s="112"/>
+      <c r="M28" s="133"/>
+      <c r="N28" s="130">
+        <v>0</v>
+      </c>
+      <c r="O28" s="112"/>
+      <c r="P28" s="133"/>
+      <c r="Q28" s="130">
+        <v>0</v>
+      </c>
+      <c r="R28" s="108"/>
+      <c r="S28" s="112">
+        <v>0</v>
+      </c>
+      <c r="T28" s="125"/>
+      <c r="U28" s="117"/>
+      <c r="V28" s="106"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="110"/>
+      <c r="B29" s="108"/>
+      <c r="C29" s="108"/>
+      <c r="D29" s="108"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="108"/>
+      <c r="K29" s="112"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="133"/>
+      <c r="N29" s="130"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="133"/>
+      <c r="Q29" s="130"/>
+      <c r="R29" s="108"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="125"/>
+      <c r="U29" s="117"/>
+      <c r="V29" s="106"/>
+    </row>
+    <row r="30" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="110"/>
+      <c r="B30" s="108"/>
+      <c r="C30" s="108"/>
+      <c r="D30" s="108"/>
+      <c r="E30" s="102">
+        <f>SUM(E8,E15,E19,E26)</f>
+        <v>58714340.519999996</v>
+      </c>
+      <c r="F30" s="31"/>
+      <c r="G30" s="102">
+        <f>SUM(G8,G15,G19,G26)</f>
+        <v>58764457</v>
+      </c>
+      <c r="H30" s="31"/>
+      <c r="I30" s="102">
+        <f>SUM(I8,I15,I19,I26)</f>
         <v>-50116.480000000447</v>
       </c>
-      <c r="J26" s="11"/>
-      <c r="K26" s="13"/>
-      <c r="L26" s="13"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="34">
+      <c r="J30" s="108"/>
+      <c r="K30" s="112"/>
+      <c r="L30" s="112"/>
+      <c r="M30" s="133"/>
+      <c r="N30" s="102">
+        <f>SUM(N8,N15,N19,N26)</f>
         <v>50116.480000000003</v>
       </c>
-      <c r="O26" s="13"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="34">
+      <c r="O30" s="112"/>
+      <c r="P30" s="133"/>
+      <c r="Q30" s="102">
+        <f>SUM(Q8,Q15,Q19,Q26)</f>
         <v>-4.4383341446518898E-10</v>
       </c>
-      <c r="R26" s="11"/>
-      <c r="S26" s="13"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="2"/>
-    </row>
-    <row r="27" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="42"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="42"/>
-      <c r="R27" s="18"/>
-      <c r="S27" s="18"/>
-      <c r="T27" s="19"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="2"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="38"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="2"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A29" s="45" t="s">
+      <c r="R30" s="108"/>
+      <c r="S30" s="112"/>
+      <c r="T30" s="125"/>
+      <c r="U30" s="117"/>
+      <c r="V30" s="106"/>
+    </row>
+    <row r="31" spans="1:22" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="114"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="135"/>
+      <c r="G31" s="135"/>
+      <c r="H31" s="135"/>
+      <c r="I31" s="135"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="116"/>
+      <c r="M31" s="116"/>
+      <c r="N31" s="135"/>
+      <c r="O31" s="116"/>
+      <c r="P31" s="116"/>
+      <c r="Q31" s="135"/>
+      <c r="R31" s="116"/>
+      <c r="S31" s="116"/>
+      <c r="T31" s="136"/>
+      <c r="U31" s="117"/>
+      <c r="V31" s="106"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="106"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="117"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="118"/>
+      <c r="F32" s="130"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="130"/>
+      <c r="I32" s="118"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="117"/>
+      <c r="N32" s="118"/>
+      <c r="O32" s="117"/>
+      <c r="P32" s="117"/>
+      <c r="Q32" s="118"/>
+      <c r="R32" s="117"/>
+      <c r="S32" s="117"/>
+      <c r="T32" s="117"/>
+      <c r="U32" s="117"/>
+      <c r="V32" s="106"/>
+    </row>
+    <row r="33" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="98" t="s">
+      <c r="B33" s="117" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="2"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="2"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="32"/>
-      <c r="G40" s="43"/>
-      <c r="H40" s="32"/>
-      <c r="I40" s="43"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="43"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="2"/>
-      <c r="Q40" s="43"/>
-      <c r="R40" s="2"/>
-      <c r="S40" s="2"/>
-      <c r="T40" s="2"/>
-      <c r="U40" s="2"/>
-      <c r="V40" s="2"/>
+      <c r="C33" s="117"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="117"/>
+      <c r="N33" s="117"/>
+      <c r="O33" s="117"/>
+      <c r="P33" s="117"/>
+      <c r="Q33" s="117"/>
+      <c r="R33" s="117"/>
+      <c r="S33" s="117"/>
+      <c r="T33" s="117"/>
+      <c r="U33" s="117"/>
+      <c r="V33" s="106"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="106"/>
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="117"/>
+      <c r="N34" s="117"/>
+      <c r="O34" s="117"/>
+      <c r="P34" s="117"/>
+      <c r="Q34" s="117"/>
+      <c r="R34" s="117"/>
+      <c r="S34" s="117"/>
+      <c r="T34" s="117"/>
+      <c r="U34" s="117"/>
+      <c r="V34" s="106"/>
+    </row>
+    <row r="44" spans="1:22" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="28"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="137"/>
+      <c r="F44" s="130"/>
+      <c r="G44" s="137"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="137"/>
+      <c r="J44" s="106"/>
+      <c r="K44" s="106"/>
+      <c r="L44" s="106"/>
+      <c r="M44" s="106"/>
+      <c r="N44" s="137"/>
+      <c r="O44" s="106"/>
+      <c r="P44" s="106"/>
+      <c r="Q44" s="137"/>
+      <c r="R44" s="106"/>
+      <c r="S44" s="106"/>
+      <c r="T44" s="106"/>
+      <c r="U44" s="106"/>
+      <c r="V44" s="106"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2906,371 +2960,236 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21.75" customHeight="1" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="0.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="5" max="5" width="3.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="6" max="6" width="16.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="2.7109375" style="2" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" style="2" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="12" max="12" width="16.7109375" style="2" hidden="1" customWidth="1" outlineLevel="1"/>
-    <col min="13" max="13" width="0.7109375" style="2" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="1.140625" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="1" width="22.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="2.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="2.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="1.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+    <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
       <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+      <c r="A2" s="95" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="11"/>
+      <c r="B2" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="23"/>
       <c r="C3" s="1"/>
-      <c r="D3" s="21"/>
+      <c r="D3" s="23"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="21" t="s">
-        <v>76</v>
-      </c>
+      <c r="F3" s="23"/>
       <c r="G3" s="1"/>
-      <c r="H3" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="K3" s="1"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
+    </row>
+    <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="23"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="1"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="50">
+      <c r="B5" s="50">
         <v>1</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="50">
+      <c r="C5" s="31"/>
+      <c r="D5" s="50">
         <f>(171547-1074)/171547</f>
         <v>0.99373932508292184</v>
       </c>
-      <c r="I6" s="31"/>
-      <c r="J6" s="29" t="s">
+      <c r="E5" s="31"/>
+      <c r="F5" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="29"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="90"/>
-    </row>
-    <row r="7" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="32"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="89"/>
+    </row>
+    <row r="6" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="95" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="50">
+        <v>0.96</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="50">
+        <v>0.96</v>
+      </c>
       <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="106" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="50">
-        <v>0.96</v>
-      </c>
-      <c r="G8" s="31"/>
-      <c r="H8" s="50">
-        <v>0.96</v>
-      </c>
-      <c r="I8" s="32"/>
-      <c r="J8" s="29" t="s">
+      <c r="F7" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="50">
+      <c r="B9" s="50">
         <v>0.997</v>
       </c>
-      <c r="G10" s="31"/>
-      <c r="H10" s="50">
+      <c r="C9" s="31"/>
+      <c r="D9" s="50">
         <v>0.997</v>
       </c>
-      <c r="I10" s="31"/>
-      <c r="J10" s="29" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="31"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="32"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="75">
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="D11" s="75">
+        <v>0.97799999999999998</v>
+      </c>
       <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="32"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="75">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="G12" s="31"/>
-      <c r="H12" s="75">
-        <v>0.97799999999999998</v>
-      </c>
-      <c r="I12" s="32"/>
-      <c r="J12" s="76" t="s">
+      <c r="F11" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="K12" s="32"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="75">
+      <c r="B13" s="75">
         <v>0.83399999999999996</v>
       </c>
-      <c r="G14" s="31" t="s">
+      <c r="C13" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="51" t="s">
+      <c r="D13" s="51" t="s">
         <v>67</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="E13" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="J14" s="76" t="s">
+      <c r="F13" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="K14" s="32"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="9"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="18"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="104" t="s">
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:8" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="93" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="105" t="s">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="94" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="107" t="s">
+    <row r="18" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="96" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="107" t="s">
+    <row r="19" spans="1:1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="96" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3285,13 +3204,13 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:S63"/>
+  <dimension ref="A1:S67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="2.7109375" style="2" customWidth="1"/>
@@ -3309,7 +3228,9 @@
     <col min="14" max="14" width="16.7109375" style="2" customWidth="1"/>
     <col min="15" max="15" width="0.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="1.140625" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="11.42578125" style="2"/>
+    <col min="17" max="17" width="11.42578125" style="2"/>
+    <col min="18" max="18" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -3348,7 +3269,7 @@
       <c r="O2" s="5"/>
       <c r="P2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>103</v>
       </c>
@@ -3460,7 +3381,7 @@
       <c r="O7" s="9"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="37" t="s">
         <v>50</v>
       </c>
@@ -3497,7 +3418,7 @@
       <c r="O8" s="9"/>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="37"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -3515,7 +3436,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="37" t="s">
         <v>51</v>
       </c>
@@ -3552,7 +3473,7 @@
       <c r="O10" s="9"/>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="37"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -3570,7 +3491,7 @@
       <c r="O11" s="9"/>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>52</v>
       </c>
@@ -3605,7 +3526,7 @@
       <c r="O12" s="9"/>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="37"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -3623,7 +3544,7 @@
       <c r="O13" s="9"/>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="37" t="s">
         <v>53</v>
       </c>
@@ -3660,7 +3581,7 @@
       <c r="O14" s="9"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="37"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -3678,7 +3599,7 @@
       <c r="O15" s="9"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="37" t="s">
         <v>54</v>
       </c>
@@ -3715,7 +3636,7 @@
       <c r="O16" s="9"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:19" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="37"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -3733,7 +3654,7 @@
       <c r="O17" s="9"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:19" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="37" t="s">
         <v>55</v>
       </c>
@@ -3770,7 +3691,7 @@
       <c r="R18" s="66"/>
       <c r="S18" s="66"/>
     </row>
-    <row r="19" spans="1:19" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="37"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -3788,7 +3709,7 @@
       <c r="O19" s="9"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:19" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>56</v>
       </c>
@@ -3810,7 +3731,7 @@
       <c r="O20" s="9"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:19" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="37"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -3828,7 +3749,7 @@
       <c r="O21" s="9"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:19" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="37"/>
       <c r="B22" s="1"/>
       <c r="C22" s="11" t="s">
@@ -3862,7 +3783,7 @@
       <c r="O22" s="9"/>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="1:19" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="37"/>
       <c r="B23" s="1"/>
       <c r="C23" s="11" t="s">
@@ -3898,7 +3819,7 @@
       <c r="O23" s="9"/>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="1:19" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="37"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -3916,7 +3837,7 @@
       <c r="O24" s="9"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="1:19" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="37" t="s">
         <v>57</v>
       </c>
@@ -3938,7 +3859,7 @@
       <c r="O25" s="9"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="1:19" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="37"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -3956,7 +3877,7 @@
       <c r="O26" s="9"/>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="1:19" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="37"/>
       <c r="B27" s="1"/>
       <c r="C27" s="11" t="s">
@@ -3992,7 +3913,7 @@
       <c r="O27" s="9"/>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="1:19" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="37"/>
       <c r="B28" s="1"/>
       <c r="C28" s="11" t="s">
@@ -4028,7 +3949,7 @@
       <c r="O28" s="9"/>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="1:19" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="37"/>
       <c r="B29" s="1"/>
       <c r="C29" s="11" t="s">
@@ -4066,7 +3987,7 @@
       <c r="O29" s="9"/>
       <c r="P29" s="1"/>
     </row>
-    <row r="30" spans="1:19" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="37"/>
       <c r="B30" s="1"/>
       <c r="C30" s="11" t="s">
@@ -4100,7 +4021,7 @@
       <c r="O30" s="9"/>
       <c r="P30" s="1"/>
     </row>
-    <row r="31" spans="1:19" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="37"/>
       <c r="B31" s="1"/>
       <c r="C31" s="11" t="s">
@@ -4136,7 +4057,7 @@
       <c r="O31" s="9"/>
       <c r="P31" s="1"/>
     </row>
-    <row r="32" spans="1:19" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="37"/>
       <c r="B32" s="1"/>
       <c r="C32" s="11" t="s">
@@ -4169,7 +4090,7 @@
       <c r="O32" s="9"/>
       <c r="P32" s="1"/>
     </row>
-    <row r="33" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="37"/>
       <c r="B33" s="1"/>
       <c r="C33" s="11" t="s">
@@ -4205,7 +4126,7 @@
       <c r="O33" s="9"/>
       <c r="P33" s="1"/>
     </row>
-    <row r="34" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="37"/>
       <c r="B34" s="1"/>
       <c r="C34" s="11" t="s">
@@ -4241,7 +4162,7 @@
       <c r="O34" s="9"/>
       <c r="P34" s="1"/>
     </row>
-    <row r="35" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="37"/>
       <c r="B35" s="1"/>
       <c r="C35" s="11" t="s">
@@ -4275,7 +4196,7 @@
       <c r="O35" s="9"/>
       <c r="P35" s="1"/>
     </row>
-    <row r="36" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="37"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -4293,7 +4214,7 @@
       <c r="O36" s="9"/>
       <c r="P36" s="1"/>
     </row>
-    <row r="37" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="37" t="s">
         <v>58</v>
       </c>
@@ -4327,7 +4248,7 @@
       <c r="O37" s="9"/>
       <c r="P37" s="1"/>
     </row>
-    <row r="38" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="37"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -4345,11 +4266,11 @@
       <c r="O38" s="9"/>
       <c r="P38" s="1"/>
     </row>
-    <row r="39" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="91" t="s">
+    <row r="39" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="89" t="s">
+      <c r="B39" s="88" t="s">
         <v>129</v>
       </c>
       <c r="C39" s="11"/>
@@ -4379,7 +4300,7 @@
       <c r="O39" s="9"/>
       <c r="P39" s="1"/>
     </row>
-    <row r="40" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="37"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -4397,29 +4318,41 @@
       <c r="O40" s="9"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="91" t="s">
+    <row r="41" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
+      <c r="B41" s="80" t="s">
+        <v>148</v>
+      </c>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
+      <c r="E41" s="29">
+        <v>4299120</v>
+      </c>
+      <c r="F41" s="140"/>
+      <c r="G41" s="29">
+        <f>6573000</f>
+        <v>6573000</v>
+      </c>
+      <c r="H41" s="140"/>
+      <c r="I41" s="29">
+        <v>0</v>
+      </c>
+      <c r="J41" s="140"/>
+      <c r="K41" s="29">
+        <v>0</v>
+      </c>
+      <c r="L41" s="140"/>
+      <c r="M41" s="140"/>
+      <c r="N41" s="29">
+        <f>SUM(E41:K41)</f>
+        <v>10872120</v>
+      </c>
       <c r="O41" s="9"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="37"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -4427,7 +4360,7 @@
       <c r="E42" s="32"/>
       <c r="F42" s="32"/>
       <c r="G42" s="32"/>
-      <c r="H42" s="31"/>
+      <c r="H42" s="32"/>
       <c r="I42" s="32"/>
       <c r="J42" s="32"/>
       <c r="K42" s="32"/>
@@ -4437,115 +4370,103 @@
       <c r="O42" s="9"/>
       <c r="P42" s="1"/>
     </row>
-    <row r="43" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="37"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11" t="s">
-        <v>40</v>
-      </c>
+    <row r="43" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="11"/>
       <c r="D43" s="11"/>
-      <c r="E43" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F43" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G43" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="H43" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="29">
-        <f>Feldes_Förderabgabe_1!G179</f>
-        <v>0</v>
-      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="32"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="32"/>
       <c r="J43" s="32"/>
-      <c r="K43" s="29">
-        <v>140945.06</v>
-      </c>
+      <c r="K43" s="32"/>
       <c r="L43" s="32"/>
       <c r="M43" s="32"/>
-      <c r="N43" s="29">
-        <f>+I43+K43</f>
-        <v>140945.06</v>
-      </c>
+      <c r="N43" s="32"/>
       <c r="O43" s="9"/>
       <c r="P43" s="1"/>
     </row>
-    <row r="44" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="37"/>
       <c r="B44" s="11"/>
-      <c r="C44" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="C44" s="11"/>
       <c r="D44" s="11"/>
-      <c r="E44" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F44" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="H44" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="29">
-        <f>Feldes_Förderabgabe_1!G187</f>
-        <v>0</v>
-      </c>
+      <c r="E44" s="32"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="32"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="32"/>
       <c r="J44" s="32"/>
-      <c r="K44" s="29">
-        <v>0</v>
-      </c>
+      <c r="K44" s="32"/>
       <c r="L44" s="32"/>
       <c r="M44" s="32"/>
-      <c r="N44" s="29">
-        <f>+I44+K44</f>
-        <v>0</v>
-      </c>
+      <c r="N44" s="32"/>
       <c r="O44" s="9"/>
       <c r="P44" s="1"/>
     </row>
-    <row r="45" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="37"/>
       <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
+      <c r="C45" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D45" s="11"/>
-      <c r="E45" s="32"/>
-      <c r="F45" s="32"/>
-      <c r="G45" s="32"/>
-      <c r="H45" s="32"/>
-      <c r="I45" s="32"/>
+      <c r="E45" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G45" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="29">
+        <f>Feldes_Förderabgabe_1!G181</f>
+        <v>0</v>
+      </c>
       <c r="J45" s="32"/>
-      <c r="K45" s="32"/>
+      <c r="K45" s="29">
+        <v>140945.06</v>
+      </c>
       <c r="L45" s="32"/>
       <c r="M45" s="32"/>
-      <c r="N45" s="32"/>
+      <c r="N45" s="29">
+        <f>+I45+K45</f>
+        <v>140945.06</v>
+      </c>
       <c r="O45" s="9"/>
       <c r="P45" s="1"/>
     </row>
-    <row r="46" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="B46" s="84" t="s">
-        <v>122</v>
-      </c>
-      <c r="C46" s="11"/>
+    <row r="46" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="37"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="D46" s="11"/>
-      <c r="E46" s="30">
-        <v>684912</v>
-      </c>
-      <c r="F46" s="31"/>
-      <c r="G46" s="29">
-        <v>637853.12</v>
-      </c>
-      <c r="H46" s="32"/>
+      <c r="E46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F46" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G46" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="31" t="s">
+        <v>20</v>
+      </c>
       <c r="I46" s="29">
-        <f>Feldes_Förderabgabe_1!G194</f>
+        <f>Feldes_Förderabgabe_1!G189</f>
         <v>0</v>
       </c>
       <c r="J46" s="32"/>
@@ -4555,13 +4476,13 @@
       <c r="L46" s="32"/>
       <c r="M46" s="32"/>
       <c r="N46" s="29">
-        <f>SUM(E46:M46)</f>
-        <v>1322765.1200000001</v>
+        <f>+I46+K46</f>
+        <v>0</v>
       </c>
       <c r="O46" s="9"/>
       <c r="P46" s="1"/>
     </row>
-    <row r="47" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="37"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -4579,28 +4500,26 @@
       <c r="O47" s="9"/>
       <c r="P47" s="1"/>
     </row>
-    <row r="48" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="91" t="s">
+    <row r="48" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="B48" s="101" t="s">
-        <v>138</v>
+      <c r="B48" s="84" t="s">
+        <v>122</v>
       </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
-      <c r="E48" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F48" s="31" t="s">
-        <v>16</v>
-      </c>
+      <c r="E48" s="30">
+        <v>684912</v>
+      </c>
+      <c r="F48" s="31"/>
       <c r="G48" s="29">
-        <v>0</v>
+        <v>637853.12</v>
       </c>
       <c r="H48" s="32"/>
       <c r="I48" s="29">
-        <f>Feldes_Förderabgabe_1!G205</f>
-        <v>2114465.0099999998</v>
+        <f>Feldes_Förderabgabe_1!G196</f>
+        <v>0</v>
       </c>
       <c r="J48" s="32"/>
       <c r="K48" s="29">
@@ -4609,13 +4528,13 @@
       <c r="L48" s="32"/>
       <c r="M48" s="32"/>
       <c r="N48" s="29">
-        <f>+G48+I48+K48</f>
-        <v>2114465.0099999998</v>
+        <f>SUM(E48:M48)</f>
+        <v>1322765.1200000001</v>
       </c>
       <c r="O48" s="9"/>
       <c r="P48" s="1"/>
     </row>
-    <row r="49" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="37"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -4633,46 +4552,41 @@
       <c r="O49" s="9"/>
       <c r="P49" s="1"/>
     </row>
-    <row r="50" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="91" t="s">
+    <row r="50" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="139" t="s">
         <v>128</v>
       </c>
-      <c r="B50" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F50" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G50" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="H50" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="29">
-        <f>Feldes_Förderabgabe_1!G214</f>
-        <v>40832665</v>
-      </c>
-      <c r="J50" s="32"/>
-      <c r="K50" s="29">
-        <v>0</v>
-      </c>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="29">
-        <f>+I50+K50</f>
-        <v>40832665</v>
+      <c r="B50" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="30">
+        <v>7498629.6299999999</v>
+      </c>
+      <c r="F50" s="140"/>
+      <c r="G50" s="30">
+        <v>4696041.57</v>
+      </c>
+      <c r="H50" s="141"/>
+      <c r="I50" s="30">
+        <v>0</v>
+      </c>
+      <c r="J50" s="140"/>
+      <c r="K50" s="30">
+        <v>0</v>
+      </c>
+      <c r="L50" s="140"/>
+      <c r="M50" s="140"/>
+      <c r="N50" s="30">
+        <f>SUM(E50:K50)</f>
+        <v>12194671.199999999</v>
       </c>
       <c r="O50" s="9"/>
       <c r="P50" s="1"/>
     </row>
-    <row r="51" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="6"/>
+    <row r="51" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="37"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -4689,162 +4603,193 @@
       <c r="O51" s="9"/>
       <c r="P51" s="1"/>
     </row>
-    <row r="52" spans="1:16" ht="11.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B52" s="11"/>
+    <row r="52" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="91" t="s">
+        <v>138</v>
+      </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="33"/>
-      <c r="F52" s="32"/>
-      <c r="G52" s="33"/>
+      <c r="E52" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" s="29">
+        <v>0</v>
+      </c>
       <c r="H52" s="32"/>
-      <c r="I52" s="33"/>
+      <c r="I52" s="29">
+        <f>Feldes_Förderabgabe_1!G209</f>
+        <v>2114465.0099999998</v>
+      </c>
       <c r="J52" s="32"/>
-      <c r="K52" s="33"/>
+      <c r="K52" s="29">
+        <v>0</v>
+      </c>
       <c r="L52" s="32"/>
       <c r="M52" s="32"/>
-      <c r="N52" s="33"/>
+      <c r="N52" s="29">
+        <f>+G52+I52+K52</f>
+        <v>2114465.0099999998</v>
+      </c>
       <c r="O52" s="9"/>
       <c r="P52" s="1"/>
     </row>
-    <row r="53" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53" s="27"/>
+    <row r="53" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="37"/>
+      <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
-      <c r="E53" s="34">
-        <f>SUM(E50,E48,E46,E39,E37,E30,E22,E23,E18,E16,E14,E12,E10,E8,E32)</f>
-        <v>77314863.819999993</v>
-      </c>
+      <c r="E53" s="32"/>
       <c r="F53" s="32"/>
-      <c r="G53" s="34">
-        <f>SUM(G50,G48,G46,G39,G37,G30,G22,G23,G18,G16,G14,G12,G10,G8,G32)</f>
-        <v>106353975.10999998</v>
-      </c>
+      <c r="G53" s="32"/>
       <c r="H53" s="32"/>
-      <c r="I53" s="34">
-        <f>SUM(I50,I48,I46,I39,I37,I22,I23,I18,I16,I14,I12,I10,I8,I32)</f>
-        <v>231812141.45000002</v>
-      </c>
+      <c r="I53" s="32"/>
       <c r="J53" s="32"/>
-      <c r="K53" s="34">
-        <f>SUM(K50,K48,K46,K39,K37,K18,K16,K14,K12,K10,K8,K22,K23,K28,K43,K44)</f>
-        <v>646677.99</v>
-      </c>
+      <c r="K53" s="32"/>
       <c r="L53" s="32"/>
       <c r="M53" s="32"/>
-      <c r="N53" s="34">
-        <f>SUM(N50,N48,N46,N39,N18,N16,N14,N12,N10,N8,N22,N23,N27,N28,N29,N30,N31,N32,N33,N34,N35,N43,N44)</f>
-        <v>416127658.37</v>
-      </c>
+      <c r="N53" s="32"/>
       <c r="O53" s="9"/>
       <c r="P53" s="1"/>
     </row>
-    <row r="54" spans="1:16" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="18"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="18"/>
-      <c r="J54" s="17"/>
-      <c r="K54" s="18"/>
-      <c r="L54" s="17"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="18"/>
-      <c r="O54" s="19"/>
+    <row r="54" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G54" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H54" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="29">
+        <f>Feldes_Förderabgabe_1!G218</f>
+        <v>40832665</v>
+      </c>
+      <c r="J54" s="32"/>
+      <c r="K54" s="29">
+        <v>0</v>
+      </c>
+      <c r="L54" s="32"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="29">
+        <f>+I54+K54</f>
+        <v>40832665</v>
+      </c>
+      <c r="O54" s="9"/>
       <c r="P54" s="1"/>
     </row>
-    <row r="55" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-      <c r="K55" s="1"/>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
+    <row r="55" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="6"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="32"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="32"/>
+      <c r="I55" s="32"/>
+      <c r="J55" s="32"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="32"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="9"/>
       <c r="P55" s="1"/>
     </row>
-    <row r="56" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B56" s="45"/>
-      <c r="C56" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="1"/>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="1"/>
+    <row r="56" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="32"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="32"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="32"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="33"/>
+      <c r="O56" s="9"/>
       <c r="P56" s="1"/>
     </row>
-    <row r="57" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="45"/>
-      <c r="B57" s="45"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
-      <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1"/>
+    <row r="57" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57" s="27"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="34">
+        <f>SUM(E54,E52,E48,E39,E37,E30,E22,E23,E18,E16,E41,E50,E14,E12,E10,E8,E32)</f>
+        <v>89112613.449999988</v>
+      </c>
+      <c r="F57" s="32"/>
+      <c r="G57" s="34">
+        <f>SUM(G54,G52,G48,G39,G37,G30,G22,G23,G41,G18,G16,G14,G12,G10,G8,G32,G50)</f>
+        <v>117623016.68000001</v>
+      </c>
+      <c r="H57" s="32"/>
+      <c r="I57" s="34">
+        <f>SUM(I54,I52,I48,I39,I37,I22,I23,I18,I16,I14,I12,I10,I8,I32,I50)</f>
+        <v>231812141.45000002</v>
+      </c>
+      <c r="J57" s="32"/>
+      <c r="K57" s="34">
+        <f>SUM(K54,K52,K48,K39,K37,K18,K16,K14,K12,K10,K8,K22,K23,K28,K45,K46,K50)</f>
+        <v>646677.99</v>
+      </c>
+      <c r="L57" s="32"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="34">
+        <f>SUM(N54,N52,N48,N39,N18,N16,N14,N12,N10,N8,N22,N23,N27,N41,N50,N28,N29,N30,N31,N32,N33,N34,N35,N45,N46)</f>
+        <v>439194449.56999999</v>
+      </c>
+      <c r="O57" s="9"/>
       <c r="P57" s="1"/>
-    </row>
-    <row r="58" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B58" s="45"/>
-      <c r="C58" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-      <c r="K58" s="1"/>
-      <c r="L58" s="1"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
+      <c r="R57" s="43"/>
+    </row>
+    <row r="58" spans="1:18" ht="11.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="16"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="17"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+      <c r="O58" s="19"/>
       <c r="P58" s="1"/>
     </row>
-    <row r="59" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="45"/>
-      <c r="B59" s="45"/>
+    <row r="59" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
@@ -4860,13 +4805,13 @@
       <c r="O59" s="1"/>
       <c r="P59" s="1"/>
     </row>
-    <row r="60" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="45" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B60" s="45"/>
       <c r="C60" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
@@ -4878,11 +4823,11 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-      <c r="N60" s="1"/>
+      <c r="N60" s="38"/>
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
     </row>
-    <row r="61" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="45"/>
       <c r="B61" s="45"/>
       <c r="C61" s="1"/>
@@ -4900,13 +4845,13 @@
       <c r="O61" s="1"/>
       <c r="P61" s="1"/>
     </row>
-    <row r="62" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="45" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B62" s="45"/>
       <c r="C62" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
@@ -4922,9 +4867,9 @@
       <c r="O62" s="1"/>
       <c r="P62" s="1"/>
     </row>
-    <row r="63" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
+    <row r="63" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="45"/>
+      <c r="B63" s="45"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
@@ -4939,6 +4884,86 @@
       <c r="N63" s="1"/>
       <c r="O63" s="1"/>
       <c r="P63" s="1"/>
+    </row>
+    <row r="64" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="B64" s="45"/>
+      <c r="C64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+    </row>
+    <row r="65" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="45"/>
+      <c r="B65" s="45"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="142" t="s">
+        <v>23</v>
+      </c>
+      <c r="B66" s="142"/>
+      <c r="C66" s="143" t="s">
+        <v>153</v>
+      </c>
+      <c r="D66" s="143"/>
+      <c r="E66" s="143"/>
+      <c r="F66" s="143"/>
+      <c r="G66" s="143"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67" spans="1:16" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4958,7 +4983,7 @@
   <dimension ref="A2:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="25.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4973,7 +4998,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="103" t="s">
+      <c r="A2" s="92" t="s">
         <v>139</v>
       </c>
       <c r="B2" s="1"/>
@@ -5022,8 +5047,8 @@
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="29">
-        <f>'Übersicht je Zahlung'!E53+'Übersicht je Zahlung'!I53</f>
-        <v>309127005.26999998</v>
+        <f>SUM('Übersicht je Zahlung'!E57,'Übersicht je Zahlung'!I57)</f>
+        <v>320924754.89999998</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="9"/>
@@ -5043,8 +5068,8 @@
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="29">
-        <f>KSt!G64+Feldes_Förderabgabe_1!I225</f>
-        <v>308699019.65999997</v>
+        <f>'Übersicht KSt_Förderabgabe'!E12</f>
+        <v>320496769.28999996</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="9"/>
@@ -5093,7 +5118,7 @@
       </c>
       <c r="B14" s="11"/>
       <c r="C14" s="34">
-        <f>KSt!N64+Feldes_Förderabgabe_1!P225</f>
+        <f>KSt!N68+Feldes_Förderabgabe_1!P229</f>
         <v>-427985.64</v>
       </c>
       <c r="D14" s="13"/>
@@ -5170,7 +5195,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5240,7 +5265,7 @@
       <c r="S2" s="5"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="1"/>
       <c r="C3" s="21" t="s">
@@ -5384,13 +5409,13 @@
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="29">
-        <f>KSt!E64</f>
-        <v>77314863.819999993</v>
+        <f>'Übersicht je Zahlung'!E57</f>
+        <v>89112613.449999988</v>
       </c>
       <c r="D8" s="32"/>
       <c r="E8" s="29">
-        <f>KSt!G64</f>
-        <v>77314863.819999993</v>
+        <f>KSt!G68</f>
+        <v>89112613.449999988</v>
       </c>
       <c r="F8" s="32"/>
       <c r="G8" s="29">
@@ -5406,7 +5431,7 @@
       <c r="K8" s="25"/>
       <c r="L8" s="13"/>
       <c r="M8" s="29">
-        <f>KSt!N64</f>
+        <f>KSt!N68</f>
         <v>0</v>
       </c>
       <c r="N8" s="13"/>
@@ -5451,12 +5476,12 @@
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="29">
-        <f>Feldes_Förderabgabe_1!G225</f>
+        <f>Feldes_Förderabgabe_1!G229</f>
         <v>231812141.44999999</v>
       </c>
       <c r="D10" s="32"/>
       <c r="E10" s="29">
-        <f>Feldes_Förderabgabe_1!I225</f>
+        <f>Feldes_Förderabgabe_1!I229</f>
         <v>231384155.83999997</v>
       </c>
       <c r="F10" s="32"/>
@@ -5473,7 +5498,7 @@
       <c r="K10" s="25"/>
       <c r="L10" s="13"/>
       <c r="M10" s="29">
-        <f>Feldes_Förderabgabe_1!P225</f>
+        <f>Feldes_Förderabgabe_1!P229</f>
         <v>-427985.64</v>
       </c>
       <c r="N10" s="13"/>
@@ -5517,12 +5542,12 @@
       <c r="B12" s="11"/>
       <c r="C12" s="34">
         <f>SUM(C8:C11)</f>
-        <v>309127005.26999998</v>
+        <v>320924754.89999998</v>
       </c>
       <c r="D12" s="32"/>
       <c r="E12" s="34">
-        <f>SUM(E8:E11)</f>
-        <v>308699019.65999997</v>
+        <f>SUM(E8,E10)</f>
+        <v>320496769.28999996</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="34">
@@ -5607,10 +5632,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S61" sqref="S61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" customHeight="1" outlineLevelRow="2" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -5683,7 +5708,7 @@
       <c r="T2" s="5"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:22" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="11" t="s">
         <v>8</v>
@@ -6165,9 +6190,7 @@
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:22" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="37" t="s">
-        <v>53</v>
-      </c>
+      <c r="A18" s="37"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
@@ -6307,9 +6330,7 @@
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:22" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
-        <v>54</v>
-      </c>
+      <c r="A22" s="37"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
@@ -6448,9 +6469,7 @@
       <c r="V25" s="52"/>
     </row>
     <row r="26" spans="1:22" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
-        <v>55</v>
-      </c>
+      <c r="A26" s="37"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -6567,9 +6586,7 @@
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:22" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="37" t="s">
-        <v>56</v>
-      </c>
+      <c r="A30" s="37"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -6700,9 +6717,7 @@
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="1:22" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="37" t="s">
-        <v>57</v>
-      </c>
+      <c r="A35" s="37"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -7138,9 +7153,7 @@
       <c r="U48" s="1"/>
     </row>
     <row r="49" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="37" t="s">
-        <v>58</v>
-      </c>
+      <c r="A49" s="37"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
@@ -7163,10 +7176,10 @@
       <c r="U49" s="1"/>
     </row>
     <row r="50" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="91" t="s">
+      <c r="A50" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="B50" s="89" t="s">
+      <c r="B50" s="88" t="s">
         <v>129</v>
       </c>
       <c r="C50" s="11"/>
@@ -7208,9 +7221,7 @@
       <c r="U50" s="1"/>
     </row>
     <row r="51" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="37" t="s">
-        <v>58</v>
-      </c>
+      <c r="A51" s="37"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="11"/>
@@ -7233,36 +7244,48 @@
       <c r="U51" s="1"/>
     </row>
     <row r="52" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="91" t="s">
+      <c r="A52" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="B52" s="11" t="s">
-        <v>48</v>
+      <c r="B52" s="98" t="s">
+        <v>148</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="32"/>
+      <c r="E52" s="29">
+        <v>4299120</v>
+      </c>
       <c r="F52" s="31"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="32"/>
-      <c r="I52" s="32"/>
+      <c r="G52" s="29">
+        <v>4299120</v>
+      </c>
+      <c r="H52" s="31"/>
+      <c r="I52" s="29">
+        <v>0</v>
+      </c>
       <c r="J52" s="11"/>
-      <c r="K52" s="72"/>
+      <c r="K52" s="29">
+        <v>0</v>
+      </c>
       <c r="L52" s="13"/>
       <c r="M52" s="25"/>
-      <c r="N52" s="32"/>
+      <c r="N52" s="29">
+        <v>0</v>
+      </c>
       <c r="O52" s="13"/>
       <c r="P52" s="25"/>
-      <c r="Q52" s="32"/>
+      <c r="Q52" s="29">
+        <v>0</v>
+      </c>
       <c r="R52" s="11"/>
-      <c r="S52" s="72"/>
+      <c r="S52" s="29">
+        <v>0</v>
+      </c>
       <c r="T52" s="9"/>
       <c r="U52" s="1"/>
     </row>
     <row r="53" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="37" t="s">
-        <v>59</v>
-      </c>
+      <c r="A53" s="37"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="11"/>
@@ -7285,136 +7308,115 @@
       <c r="U53" s="1"/>
     </row>
     <row r="54" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="37"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11" t="s">
-        <v>40</v>
-      </c>
+      <c r="A54" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="11"/>
       <c r="D54" s="11"/>
-      <c r="E54" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F54" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" s="29"/>
+      <c r="E54" s="32"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="32"/>
       <c r="H54" s="32"/>
-      <c r="I54" s="29"/>
+      <c r="I54" s="32"/>
       <c r="J54" s="11"/>
-      <c r="K54" s="71"/>
+      <c r="K54" s="72"/>
       <c r="L54" s="13"/>
       <c r="M54" s="25"/>
-      <c r="N54" s="29"/>
+      <c r="N54" s="32"/>
       <c r="O54" s="13"/>
       <c r="P54" s="25"/>
-      <c r="Q54" s="29"/>
+      <c r="Q54" s="32"/>
       <c r="R54" s="11"/>
-      <c r="S54" s="71"/>
+      <c r="S54" s="72"/>
       <c r="T54" s="9"/>
       <c r="U54" s="1"/>
     </row>
     <row r="55" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A55" s="37"/>
       <c r="B55" s="11"/>
-      <c r="C55" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="C55" s="11"/>
       <c r="D55" s="11"/>
-      <c r="E55" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F55" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" s="29"/>
-      <c r="H55" s="32"/>
-      <c r="I55" s="29"/>
+      <c r="E55" s="32"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="32"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="32"/>
       <c r="J55" s="11"/>
-      <c r="K55" s="71"/>
+      <c r="K55" s="72"/>
       <c r="L55" s="13"/>
       <c r="M55" s="25"/>
-      <c r="N55" s="29"/>
+      <c r="N55" s="32"/>
       <c r="O55" s="13"/>
       <c r="P55" s="25"/>
-      <c r="Q55" s="29"/>
+      <c r="Q55" s="32"/>
       <c r="R55" s="11"/>
-      <c r="S55" s="71"/>
+      <c r="S55" s="72"/>
       <c r="T55" s="9"/>
       <c r="U55" s="1"/>
     </row>
     <row r="56" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A56" s="37"/>
       <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
+      <c r="C56" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="D56" s="11"/>
-      <c r="E56" s="32"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="32"/>
+      <c r="E56" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G56" s="29"/>
       <c r="H56" s="32"/>
-      <c r="I56" s="32"/>
+      <c r="I56" s="29"/>
       <c r="J56" s="11"/>
-      <c r="K56" s="72"/>
+      <c r="K56" s="71"/>
       <c r="L56" s="13"/>
       <c r="M56" s="25"/>
-      <c r="N56" s="32"/>
+      <c r="N56" s="29"/>
       <c r="O56" s="13"/>
       <c r="P56" s="25"/>
-      <c r="Q56" s="32"/>
+      <c r="Q56" s="29"/>
       <c r="R56" s="11"/>
-      <c r="S56" s="72"/>
+      <c r="S56" s="71"/>
       <c r="T56" s="9"/>
       <c r="U56" s="1"/>
     </row>
     <row r="57" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="84" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="11"/>
+      <c r="A57" s="37"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="D57" s="11"/>
-      <c r="E57" s="85">
-        <v>684912</v>
-      </c>
-      <c r="F57" s="31"/>
-      <c r="G57" s="87">
-        <v>684912</v>
-      </c>
-      <c r="H57" s="31"/>
-      <c r="I57" s="29">
-        <f>E57-G57</f>
-        <v>0</v>
-      </c>
+      <c r="E57" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" s="29"/>
+      <c r="H57" s="32"/>
+      <c r="I57" s="29"/>
       <c r="J57" s="11"/>
-      <c r="K57" s="71">
-        <f>IF(AND(E57=0,G57=0),0,I57/E57*100)</f>
-        <v>0</v>
-      </c>
+      <c r="K57" s="71"/>
       <c r="L57" s="13"/>
       <c r="M57" s="25"/>
-      <c r="N57" s="29">
-        <f>SUM(N58:N59)</f>
-        <v>0</v>
-      </c>
+      <c r="N57" s="29"/>
       <c r="O57" s="13"/>
       <c r="P57" s="25"/>
-      <c r="Q57" s="29">
-        <f>I57+N57</f>
-        <v>0</v>
-      </c>
+      <c r="Q57" s="29"/>
       <c r="R57" s="11"/>
-      <c r="S57" s="71">
-        <f>IF(AND(E57=0,G57=0),0,Q57/E57*100)</f>
-        <v>0</v>
-      </c>
+      <c r="S57" s="71"/>
       <c r="T57" s="9"/>
       <c r="U57" s="1"/>
     </row>
     <row r="58" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="37" t="s">
-        <v>60</v>
-      </c>
+      <c r="A58" s="37"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
@@ -7437,40 +7439,53 @@
       <c r="U58" s="1"/>
     </row>
     <row r="59" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="91" t="s">
+      <c r="A59" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="B59" s="101" t="s">
-        <v>138</v>
+      <c r="B59" s="84" t="s">
+        <v>123</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
-      <c r="E59" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G59" s="30"/>
+      <c r="E59" s="85">
+        <v>684912</v>
+      </c>
+      <c r="F59" s="31"/>
+      <c r="G59" s="87">
+        <v>684912</v>
+      </c>
       <c r="H59" s="31"/>
-      <c r="I59" s="29"/>
+      <c r="I59" s="29">
+        <f>E59-G59</f>
+        <v>0</v>
+      </c>
       <c r="J59" s="11"/>
-      <c r="K59" s="71"/>
+      <c r="K59" s="71">
+        <f>IF(AND(E59=0,G59=0),0,I59/E59*100)</f>
+        <v>0</v>
+      </c>
       <c r="L59" s="13"/>
       <c r="M59" s="25"/>
-      <c r="N59" s="29"/>
+      <c r="N59" s="29">
+        <f>SUM(N60:N63)</f>
+        <v>0</v>
+      </c>
       <c r="O59" s="13"/>
       <c r="P59" s="25"/>
-      <c r="Q59" s="29"/>
+      <c r="Q59" s="29">
+        <f>I59+N59</f>
+        <v>0</v>
+      </c>
       <c r="R59" s="11"/>
-      <c r="S59" s="71"/>
+      <c r="S59" s="71">
+        <f>IF(AND(E59=0,G59=0),0,Q59/E59*100)</f>
+        <v>0</v>
+      </c>
       <c r="T59" s="9"/>
       <c r="U59" s="1"/>
     </row>
     <row r="60" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="37" t="s">
-        <v>60</v>
-      </c>
+      <c r="A60" s="37"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -7493,40 +7508,48 @@
       <c r="U60" s="1"/>
     </row>
     <row r="61" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="91" t="s">
+      <c r="A61" s="97" t="s">
         <v>128</v>
       </c>
-      <c r="B61" s="11" t="s">
-        <v>41</v>
+      <c r="B61" s="98" t="s">
+        <v>149</v>
       </c>
       <c r="C61" s="11"/>
       <c r="D61" s="11"/>
-      <c r="E61" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="F61" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" s="29"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="29"/>
+      <c r="E61" s="29">
+        <v>7498629.6299999999</v>
+      </c>
+      <c r="F61" s="32"/>
+      <c r="G61" s="29">
+        <v>7498629.6299999999</v>
+      </c>
+      <c r="H61" s="32"/>
+      <c r="I61" s="29">
+        <v>0</v>
+      </c>
       <c r="J61" s="11"/>
-      <c r="K61" s="71"/>
+      <c r="K61" s="29">
+        <v>0</v>
+      </c>
       <c r="L61" s="13"/>
       <c r="M61" s="25"/>
-      <c r="N61" s="29"/>
+      <c r="N61" s="29">
+        <v>0</v>
+      </c>
       <c r="O61" s="13"/>
       <c r="P61" s="25"/>
-      <c r="Q61" s="29"/>
+      <c r="Q61" s="29">
+        <v>0</v>
+      </c>
       <c r="R61" s="11"/>
-      <c r="S61" s="71"/>
+      <c r="S61" s="29">
+        <v>0</v>
+      </c>
       <c r="T61" s="9"/>
       <c r="U61" s="1"/>
     </row>
     <row r="62" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="37" t="s">
-        <v>61</v>
-      </c>
+      <c r="A62" s="37"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
@@ -7549,210 +7572,220 @@
       <c r="U62" s="1"/>
     </row>
     <row r="63" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="37"/>
-      <c r="B63" s="11"/>
+      <c r="A63" s="103" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="91" t="s">
+        <v>138</v>
+      </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="33"/>
-      <c r="F63" s="32"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="32"/>
-      <c r="I63" s="33"/>
+      <c r="E63" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" s="30"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="29"/>
       <c r="J63" s="11"/>
-      <c r="K63" s="72"/>
+      <c r="K63" s="71"/>
       <c r="L63" s="13"/>
       <c r="M63" s="25"/>
-      <c r="N63" s="33"/>
+      <c r="N63" s="29"/>
       <c r="O63" s="13"/>
       <c r="P63" s="25"/>
-      <c r="Q63" s="33"/>
+      <c r="Q63" s="29"/>
       <c r="R63" s="11"/>
-      <c r="S63" s="72"/>
+      <c r="S63" s="71"/>
       <c r="T63" s="9"/>
       <c r="U63" s="1"/>
     </row>
-    <row r="64" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A64" s="37"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
-      <c r="E64" s="34">
-        <f>SUM(E61,E59,E57,E50,E48,E25,E21,E17,E10,E8,E31,E32,E41,E54,E55,E14,E15)</f>
-        <v>77314863.819999993</v>
-      </c>
-      <c r="F64" s="31"/>
-      <c r="G64" s="34">
-        <f>SUM(G61,G59,G57,G50,G48,G25,G21,G17,G10,G8,G31,G32,G41,G54,G55,G14,G15)</f>
-        <v>77314863.819999993</v>
-      </c>
-      <c r="H64" s="31"/>
-      <c r="I64" s="34">
-        <f>SUM(I61,I59,I57,I50,I48,I25,I21,I17,I10,I8,I31,I32,I41,I54,I55,I14,I15)</f>
-        <v>0</v>
-      </c>
+      <c r="E64" s="32"/>
+      <c r="F64" s="32"/>
+      <c r="G64" s="32"/>
+      <c r="H64" s="32"/>
+      <c r="I64" s="32"/>
       <c r="J64" s="11"/>
-      <c r="K64" s="72">
-        <f t="shared" ref="K64" si="5">IF(E64=0,"",I64/E64*100)</f>
-        <v>0</v>
-      </c>
+      <c r="K64" s="72"/>
       <c r="L64" s="13"/>
       <c r="M64" s="25"/>
-      <c r="N64" s="34">
-        <f>SUM(N61,N59,N57,N50,N48,N25,N21,N17,N10,N8,N31,N32,N41,N54,N55,N14,N15)</f>
-        <v>0</v>
-      </c>
+      <c r="N64" s="32"/>
       <c r="O64" s="13"/>
       <c r="P64" s="25"/>
-      <c r="Q64" s="34">
-        <f>SUM(Q61,Q59,Q57,Q50,Q48,Q25,Q21,Q17,Q10,Q8,Q31,Q32,Q41,Q54,Q55,Q14,Q15)</f>
-        <v>0</v>
-      </c>
+      <c r="Q64" s="32"/>
       <c r="R64" s="11"/>
-      <c r="S64" s="72">
-        <f t="shared" ref="S64" si="6">IF(E64=0,"",Q64/E64*100)</f>
-        <v>0</v>
-      </c>
+      <c r="S64" s="72"/>
       <c r="T64" s="9"/>
       <c r="U64" s="1"/>
     </row>
-    <row r="65" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="16"/>
-      <c r="B65" s="17"/>
-      <c r="C65" s="17"/>
-      <c r="D65" s="18"/>
-      <c r="E65" s="42"/>
-      <c r="F65" s="42"/>
-      <c r="G65" s="42"/>
-      <c r="H65" s="42"/>
-      <c r="I65" s="42"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="18"/>
-      <c r="L65" s="18"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="42"/>
-      <c r="O65" s="18"/>
-      <c r="P65" s="18"/>
-      <c r="Q65" s="42"/>
-      <c r="R65" s="18"/>
-      <c r="S65" s="18"/>
-      <c r="T65" s="19"/>
+    <row r="65" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="103" t="s">
+        <v>151</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="F65" s="31" t="s">
+        <v>20</v>
+      </c>
+      <c r="G65" s="29"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="29"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="71"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="29"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="71"/>
+      <c r="T65" s="9"/>
       <c r="U65" s="1"/>
     </row>
-    <row r="66" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="38"/>
+    <row r="66" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="37"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="32"/>
       <c r="F66" s="32"/>
-      <c r="G66" s="38"/>
+      <c r="G66" s="32"/>
       <c r="H66" s="32"/>
-      <c r="I66" s="38"/>
-      <c r="J66" s="1"/>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="1"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="1"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="38"/>
-      <c r="R66" s="1"/>
-      <c r="S66" s="1"/>
-      <c r="T66" s="1"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="72"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="32"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="72"/>
+      <c r="T66" s="9"/>
       <c r="U66" s="1"/>
     </row>
-    <row r="67" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-      <c r="H67" s="1"/>
-      <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="1"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
-      <c r="R67" s="1"/>
-      <c r="S67" s="1"/>
-      <c r="T67" s="1"/>
+    <row r="67" spans="1:21" ht="14.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="37"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="32"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="72"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="33"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="72"/>
+      <c r="T67" s="9"/>
       <c r="U67" s="1"/>
     </row>
     <row r="68" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="1"/>
-      <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-      <c r="K68" s="1"/>
-      <c r="L68" s="1"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
-      <c r="R68" s="1"/>
-      <c r="S68" s="1"/>
-      <c r="T68" s="1"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="34">
+        <f>SUM(E65,E63,E59,E50,E48,E25,E21,E17,E10,E8,E31,E61,E52,E32,E41,E56,E57,E14,E15)</f>
+        <v>89112613.449999988</v>
+      </c>
+      <c r="F68" s="31"/>
+      <c r="G68" s="34">
+        <f>SUM(G65,G63,G59,G50,G48,G25,G21,G17,G10,G8,G31,G52,G61,G32,G41,G56,G57,G14,G15)</f>
+        <v>89112613.449999988</v>
+      </c>
+      <c r="H68" s="31"/>
+      <c r="I68" s="34">
+        <f>SUM(I65,I63,I59,I50,I48,I25,I21,I17,I10,I8,I31,I32,I41,I56,I57,I14,I15)</f>
+        <v>0</v>
+      </c>
+      <c r="J68" s="11"/>
+      <c r="K68" s="99">
+        <f t="shared" ref="K68" si="5">IF(E68=0,"",I68/E68*100)</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="13"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="34">
+        <f>SUM(N65,N63,N59,N50,N48,N25,N21,N17,N10,N8,N31,N32,N41,N56,N57,N14,N15)</f>
+        <v>0</v>
+      </c>
+      <c r="O68" s="13"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="34">
+        <f>SUM(Q65,Q63,Q59,Q50,Q48,Q25,Q21,Q17,Q10,Q8,Q31,Q32,Q41,Q56,Q57,Q14,Q15)</f>
+        <v>0</v>
+      </c>
+      <c r="R68" s="11"/>
+      <c r="S68" s="99">
+        <f t="shared" ref="S68" si="6">IF(E68=0,"",Q68/E68*100)</f>
+        <v>0</v>
+      </c>
+      <c r="T68" s="9"/>
       <c r="U68" s="1"/>
     </row>
-    <row r="69" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="1"/>
-      <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-      <c r="K69" s="1"/>
-      <c r="L69" s="1"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
-      <c r="R69" s="1"/>
-      <c r="S69" s="1"/>
-      <c r="T69" s="1"/>
+    <row r="69" spans="1:21" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="18"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="18"/>
+      <c r="S69" s="18"/>
+      <c r="T69" s="19"/>
       <c r="U69" s="1"/>
     </row>
     <row r="70" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="1"/>
-      <c r="I70" s="1"/>
+      <c r="E70" s="38"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="38"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="38"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
+      <c r="N70" s="38"/>
       <c r="O70" s="1"/>
       <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
+      <c r="Q70" s="38"/>
       <c r="R70" s="1"/>
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
@@ -7760,10 +7793,10 @@
     </row>
     <row r="71" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="45" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -7809,10 +7842,10 @@
     </row>
     <row r="73" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="45" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -7858,10 +7891,10 @@
     </row>
     <row r="75" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="45" t="s">
-        <v>124</v>
-      </c>
-      <c r="B75" s="86" t="s">
-        <v>125</v>
+        <v>20</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -7884,9 +7917,107 @@
       <c r="U75" s="1"/>
     </row>
     <row r="76" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="28"/>
-      <c r="F76" s="32"/>
-      <c r="H76" s="32"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+      <c r="U76" s="1"/>
+    </row>
+    <row r="77" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+      <c r="U77" s="1"/>
+    </row>
+    <row r="78" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+      <c r="U78" s="1"/>
+    </row>
+    <row r="79" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B79" s="86" t="s">
+        <v>125</v>
+      </c>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+      <c r="U79" s="1"/>
+    </row>
+    <row r="80" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="28"/>
+      <c r="F80" s="32"/>
+      <c r="H80" s="32"/>
     </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -7903,10 +8034,10 @@
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Z233"/>
+  <dimension ref="A1:Z237"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView showGridLines="0" topLeftCell="A191" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E229" sqref="E229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="24.75" customHeight="1" outlineLevelRow="3" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -11572,7 +11703,7 @@
       <c r="V93" s="9"/>
       <c r="W93" s="1"/>
     </row>
-    <row r="94" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A94" s="37"/>
       <c r="C94" s="67" t="s">
         <v>91</v>
@@ -11908,7 +12039,7 @@
       <c r="V101" s="9"/>
       <c r="W101" s="1"/>
     </row>
-    <row r="102" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A102" s="37"/>
       <c r="C102" s="67" t="s">
         <v>92</v>
@@ -12244,7 +12375,7 @@
       <c r="V109" s="9"/>
       <c r="W109" s="1"/>
     </row>
-    <row r="110" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A110" s="37"/>
       <c r="C110" s="67" t="s">
         <v>93</v>
@@ -12580,7 +12711,7 @@
       <c r="V117" s="9"/>
       <c r="W117" s="1"/>
     </row>
-    <row r="118" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A118" s="37"/>
       <c r="C118" s="67" t="s">
         <v>94</v>
@@ -12916,7 +13047,7 @@
       <c r="V125" s="9"/>
       <c r="W125" s="1"/>
     </row>
-    <row r="126" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A126" s="37"/>
       <c r="C126" s="67" t="s">
         <v>95</v>
@@ -13252,7 +13383,7 @@
       <c r="V133" s="9"/>
       <c r="W133" s="1"/>
     </row>
-    <row r="134" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A134" s="37"/>
       <c r="C134" s="67" t="s">
         <v>96</v>
@@ -13588,7 +13719,7 @@
       <c r="V141" s="9"/>
       <c r="W141" s="1"/>
     </row>
-    <row r="142" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A142" s="37"/>
       <c r="C142" s="67" t="s">
         <v>97</v>
@@ -13924,7 +14055,7 @@
       <c r="V149" s="9"/>
       <c r="W149" s="1"/>
     </row>
-    <row r="150" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A150" s="37"/>
       <c r="C150" s="67" t="s">
         <v>98</v>
@@ -14246,7 +14377,7 @@
       <c r="V157" s="9"/>
       <c r="W157" s="1"/>
     </row>
-    <row r="158" spans="1:23" s="66" customFormat="1" ht="24.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:23" s="66" customFormat="1" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A158" s="62"/>
       <c r="B158" s="59"/>
       <c r="C158" s="59"/>
@@ -14595,7 +14726,7 @@
       <c r="V166" s="9"/>
       <c r="W166" s="1"/>
     </row>
-    <row r="167" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A167" s="37"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -14621,10 +14752,10 @@
       <c r="W167" s="1"/>
     </row>
     <row r="168" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="91" t="s">
+      <c r="A168" s="90" t="s">
         <v>59</v>
       </c>
-      <c r="B168" s="89" t="s">
+      <c r="B168" s="88" t="s">
         <v>129</v>
       </c>
       <c r="C168" s="11"/>
@@ -14945,7 +15076,7 @@
       <c r="V175" s="9"/>
       <c r="W175" s="1"/>
     </row>
-    <row r="176" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A176" s="37"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -14971,37 +15102,53 @@
       <c r="W176" s="1"/>
     </row>
     <row r="177" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A177" s="91" t="s">
+      <c r="A177" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="B177" s="11" t="s">
-        <v>48</v>
+      <c r="B177" s="98" t="s">
+        <v>148</v>
       </c>
       <c r="C177" s="11"/>
       <c r="D177" s="11"/>
-      <c r="E177" s="32"/>
-      <c r="F177" s="45"/>
-      <c r="G177" s="32"/>
-      <c r="H177" s="45"/>
-      <c r="I177" s="32"/>
-      <c r="J177" s="45"/>
-      <c r="K177" s="32"/>
+      <c r="E177" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F177" s="31"/>
+      <c r="G177" s="29">
+        <v>0</v>
+      </c>
+      <c r="H177" s="31"/>
+      <c r="I177" s="29">
+        <v>0</v>
+      </c>
+      <c r="J177" s="31"/>
+      <c r="K177" s="29">
+        <v>0</v>
+      </c>
       <c r="L177" s="11"/>
-      <c r="M177" s="72"/>
+      <c r="M177" s="29">
+        <v>0</v>
+      </c>
       <c r="N177" s="13"/>
       <c r="O177" s="25"/>
-      <c r="P177" s="32"/>
+      <c r="P177" s="29">
+        <v>0</v>
+      </c>
       <c r="Q177" s="13"/>
       <c r="R177" s="25"/>
-      <c r="S177" s="32"/>
+      <c r="S177" s="29">
+        <v>0</v>
+      </c>
       <c r="T177" s="11"/>
-      <c r="U177" s="72"/>
+      <c r="U177" s="29">
+        <v>0</v>
+      </c>
       <c r="V177" s="9"/>
       <c r="W177" s="1"/>
     </row>
-    <row r="178" spans="1:23" s="1" customFormat="1" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A178" s="37"/>
-      <c r="B178" s="11"/>
+    <row r="178" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="97"/>
+      <c r="B178" s="98"/>
       <c r="C178" s="11"/>
       <c r="D178" s="11"/>
       <c r="E178" s="32"/>
@@ -15012,7 +15159,7 @@
       <c r="J178" s="31"/>
       <c r="K178" s="32"/>
       <c r="L178" s="11"/>
-      <c r="M178" s="32"/>
+      <c r="M178" s="72"/>
       <c r="N178" s="13"/>
       <c r="O178" s="25"/>
       <c r="P178" s="32"/>
@@ -15022,130 +15169,106 @@
       <c r="T178" s="11"/>
       <c r="U178" s="72"/>
       <c r="V178" s="9"/>
-    </row>
-    <row r="179" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A179" s="37"/>
-      <c r="C179" s="67" t="s">
-        <v>102</v>
-      </c>
+      <c r="W178" s="1"/>
+    </row>
+    <row r="179" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C179" s="11"/>
       <c r="D179" s="11"/>
-      <c r="E179" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F179" s="32"/>
-      <c r="G179" s="29">
-        <f>SUM(G180:G186)</f>
-        <v>0</v>
-      </c>
-      <c r="H179" s="32"/>
-      <c r="I179" s="29">
-        <f>SUM(I180:I186)</f>
-        <v>0</v>
-      </c>
-      <c r="J179" s="32"/>
-      <c r="K179" s="29">
-        <f>SUM(K180:K186)</f>
-        <v>0</v>
-      </c>
+      <c r="E179" s="32"/>
+      <c r="F179" s="45"/>
+      <c r="G179" s="32"/>
+      <c r="H179" s="45"/>
+      <c r="I179" s="32"/>
+      <c r="J179" s="45"/>
+      <c r="K179" s="32"/>
       <c r="L179" s="11"/>
-      <c r="M179" s="71">
-        <f t="shared" ref="M179:M187" si="71">IF(G179=0,0,K179/G179*100)</f>
-        <v>0</v>
-      </c>
+      <c r="M179" s="72"/>
       <c r="N179" s="13"/>
       <c r="O179" s="25"/>
-      <c r="P179" s="29">
-        <f>SUM(P180:P186)</f>
-        <v>0</v>
-      </c>
+      <c r="P179" s="32"/>
       <c r="Q179" s="13"/>
       <c r="R179" s="25"/>
-      <c r="S179" s="29">
-        <f>SUM(S180:S186)</f>
-        <v>0</v>
-      </c>
+      <c r="S179" s="32"/>
       <c r="T179" s="11"/>
-      <c r="U179" s="71">
-        <f>IF(G179=0,0,S179/G179*100)</f>
-        <v>0</v>
-      </c>
+      <c r="U179" s="72"/>
       <c r="V179" s="9"/>
       <c r="W179" s="1"/>
     </row>
-    <row r="180" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:23" s="1" customFormat="1" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A180" s="37"/>
-      <c r="B180" s="55" t="s">
-        <v>83</v>
-      </c>
+      <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="11"/>
-      <c r="E180" s="29"/>
+      <c r="E180" s="32"/>
       <c r="F180" s="31"/>
-      <c r="G180" s="29"/>
+      <c r="G180" s="32"/>
       <c r="H180" s="31"/>
-      <c r="I180" s="29"/>
+      <c r="I180" s="32"/>
       <c r="J180" s="31"/>
-      <c r="K180" s="29">
-        <f t="shared" ref="K180:K186" si="72">G180-I180</f>
-        <v>0</v>
-      </c>
+      <c r="K180" s="32"/>
       <c r="L180" s="11"/>
-      <c r="M180" s="71">
-        <f t="shared" si="71"/>
-        <v>0</v>
-      </c>
+      <c r="M180" s="32"/>
       <c r="N180" s="13"/>
       <c r="O180" s="25"/>
-      <c r="P180" s="29"/>
+      <c r="P180" s="32"/>
       <c r="Q180" s="13"/>
       <c r="R180" s="25"/>
-      <c r="S180" s="29">
-        <f t="shared" ref="S180:S186" si="73">K180+P180</f>
-        <v>0</v>
-      </c>
+      <c r="S180" s="32"/>
       <c r="T180" s="11"/>
-      <c r="U180" s="71" t="str">
-        <f t="shared" ref="U180:U194" si="74">IF(G180=0,"",S180/G180*100)</f>
-        <v/>
-      </c>
+      <c r="U180" s="72"/>
       <c r="V180" s="9"/>
-      <c r="W180" s="1"/>
-    </row>
-    <row r="181" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="181" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A181" s="37"/>
-      <c r="B181" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="C181" s="11"/>
+      <c r="C181" s="67" t="s">
+        <v>102</v>
+      </c>
       <c r="D181" s="11"/>
-      <c r="E181" s="29"/>
-      <c r="F181" s="31"/>
-      <c r="G181" s="29"/>
-      <c r="H181" s="31"/>
-      <c r="I181" s="29"/>
-      <c r="J181" s="31"/>
+      <c r="E181" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F181" s="32"/>
+      <c r="G181" s="29">
+        <f>SUM(G182:G188)</f>
+        <v>0</v>
+      </c>
+      <c r="H181" s="32"/>
+      <c r="I181" s="29">
+        <f>SUM(I182:I188)</f>
+        <v>0</v>
+      </c>
+      <c r="J181" s="32"/>
       <c r="K181" s="29">
-        <f t="shared" si="72"/>
+        <f>SUM(K182:K188)</f>
         <v>0</v>
       </c>
       <c r="L181" s="11"/>
       <c r="M181" s="71">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="M181:M189" si="71">IF(G181=0,0,K181/G181*100)</f>
         <v>0</v>
       </c>
       <c r="N181" s="13"/>
       <c r="O181" s="25"/>
-      <c r="P181" s="29"/>
+      <c r="P181" s="29">
+        <f>SUM(P182:P188)</f>
+        <v>0</v>
+      </c>
       <c r="Q181" s="13"/>
       <c r="R181" s="25"/>
       <c r="S181" s="29">
-        <f t="shared" si="73"/>
+        <f>SUM(S182:S188)</f>
         <v>0</v>
       </c>
       <c r="T181" s="11"/>
-      <c r="U181" s="71" t="str">
-        <f t="shared" si="74"/>
-        <v/>
+      <c r="U181" s="71">
+        <f>IF(G181=0,0,S181/G181*100)</f>
+        <v>0</v>
       </c>
       <c r="V181" s="9"/>
       <c r="W181" s="1"/>
@@ -15153,7 +15276,7 @@
     <row r="182" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A182" s="37"/>
       <c r="B182" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C182" s="11"/>
       <c r="D182" s="11"/>
@@ -15164,7 +15287,7 @@
       <c r="I182" s="29"/>
       <c r="J182" s="31"/>
       <c r="K182" s="29">
-        <f t="shared" si="72"/>
+        <f t="shared" ref="K182:K188" si="72">G182-I182</f>
         <v>0</v>
       </c>
       <c r="L182" s="11"/>
@@ -15178,12 +15301,12 @@
       <c r="Q182" s="13"/>
       <c r="R182" s="25"/>
       <c r="S182" s="29">
-        <f t="shared" si="73"/>
+        <f t="shared" ref="S182:S188" si="73">K182+P182</f>
         <v>0</v>
       </c>
       <c r="T182" s="11"/>
       <c r="U182" s="71" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="U182:U196" si="74">IF(G182=0,"",S182/G182*100)</f>
         <v/>
       </c>
       <c r="V182" s="9"/>
@@ -15191,8 +15314,8 @@
     </row>
     <row r="183" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A183" s="37"/>
-      <c r="B183" s="6" t="s">
-        <v>64</v>
+      <c r="B183" s="55" t="s">
+        <v>84</v>
       </c>
       <c r="C183" s="11"/>
       <c r="D183" s="11"/>
@@ -15230,8 +15353,8 @@
     </row>
     <row r="184" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A184" s="37"/>
-      <c r="B184" s="6" t="s">
-        <v>65</v>
+      <c r="B184" s="55" t="s">
+        <v>85</v>
       </c>
       <c r="C184" s="11"/>
       <c r="D184" s="11"/>
@@ -15269,8 +15392,8 @@
     </row>
     <row r="185" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A185" s="37"/>
-      <c r="B185" s="55" t="s">
-        <v>86</v>
+      <c r="B185" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="C185" s="11"/>
       <c r="D185" s="11"/>
@@ -15309,7 +15432,7 @@
     <row r="186" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A186" s="37"/>
       <c r="B186" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C186" s="11"/>
       <c r="D186" s="11"/>
@@ -15345,28 +15468,21 @@
       <c r="V186" s="9"/>
       <c r="W186" s="1"/>
     </row>
-    <row r="187" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A187" s="37"/>
-      <c r="C187" s="11" t="s">
-        <v>62</v>
-      </c>
+      <c r="B187" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C187" s="11"/>
       <c r="D187" s="11"/>
-      <c r="E187" s="35" t="s">
-        <v>49</v>
-      </c>
-      <c r="F187" s="32"/>
-      <c r="G187" s="29">
-        <f>SUM(G188:G194)</f>
-        <v>0</v>
-      </c>
-      <c r="H187" s="32"/>
-      <c r="I187" s="29">
-        <f>SUM(I188:I194)</f>
-        <v>0</v>
-      </c>
-      <c r="J187" s="32"/>
+      <c r="E187" s="29"/>
+      <c r="F187" s="31"/>
+      <c r="G187" s="29"/>
+      <c r="H187" s="31"/>
+      <c r="I187" s="29"/>
+      <c r="J187" s="31"/>
       <c r="K187" s="29">
-        <f>SUM(K188:K194)</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="L187" s="11"/>
@@ -15376,28 +15492,25 @@
       </c>
       <c r="N187" s="13"/>
       <c r="O187" s="25"/>
-      <c r="P187" s="29">
-        <f>SUM(P188:P194)</f>
-        <v>0</v>
-      </c>
+      <c r="P187" s="29"/>
       <c r="Q187" s="13"/>
       <c r="R187" s="25"/>
       <c r="S187" s="29">
-        <f>SUM(S188:S194)</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="T187" s="11"/>
-      <c r="U187" s="71">
-        <f>IF(G187=0,0,S187/G187*100)</f>
-        <v>0</v>
+      <c r="U187" s="71" t="str">
+        <f t="shared" si="74"/>
+        <v/>
       </c>
       <c r="V187" s="9"/>
       <c r="W187" s="1"/>
     </row>
     <row r="188" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A188" s="37"/>
-      <c r="B188" s="55" t="s">
-        <v>83</v>
+      <c r="B188" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C188" s="11"/>
       <c r="D188" s="11"/>
@@ -15408,13 +15521,13 @@
       <c r="I188" s="29"/>
       <c r="J188" s="31"/>
       <c r="K188" s="29">
-        <f t="shared" ref="K188:K194" si="75">G188-I188</f>
+        <f t="shared" si="72"/>
         <v>0</v>
       </c>
       <c r="L188" s="11"/>
-      <c r="M188" s="71" t="str">
-        <f t="shared" ref="M188:M194" si="76">IF(G188=0,"",K188/G188*100)</f>
-        <v/>
+      <c r="M188" s="71">
+        <f t="shared" si="71"/>
+        <v>0</v>
       </c>
       <c r="N188" s="13"/>
       <c r="O188" s="25"/>
@@ -15422,7 +15535,7 @@
       <c r="Q188" s="13"/>
       <c r="R188" s="25"/>
       <c r="S188" s="29">
-        <f t="shared" ref="S188:S194" si="77">K188+P188</f>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="T188" s="11"/>
@@ -15433,41 +15546,51 @@
       <c r="V188" s="9"/>
       <c r="W188" s="1"/>
     </row>
-    <row r="189" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A189" s="37"/>
-      <c r="B189" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="C189" s="11"/>
+      <c r="C189" s="11" t="s">
+        <v>62</v>
+      </c>
       <c r="D189" s="11"/>
-      <c r="E189" s="29"/>
-      <c r="F189" s="31"/>
-      <c r="G189" s="29"/>
-      <c r="H189" s="31"/>
-      <c r="I189" s="29"/>
-      <c r="J189" s="31"/>
+      <c r="E189" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F189" s="32"/>
+      <c r="G189" s="29">
+        <f>SUM(G190:G196)</f>
+        <v>0</v>
+      </c>
+      <c r="H189" s="32"/>
+      <c r="I189" s="29">
+        <f>SUM(I190:I196)</f>
+        <v>0</v>
+      </c>
+      <c r="J189" s="32"/>
       <c r="K189" s="29">
-        <f t="shared" si="75"/>
+        <f>SUM(K190:K196)</f>
         <v>0</v>
       </c>
       <c r="L189" s="11"/>
-      <c r="M189" s="71" t="str">
-        <f t="shared" si="76"/>
-        <v/>
+      <c r="M189" s="71">
+        <f t="shared" si="71"/>
+        <v>0</v>
       </c>
       <c r="N189" s="13"/>
       <c r="O189" s="25"/>
-      <c r="P189" s="29"/>
+      <c r="P189" s="29">
+        <f>SUM(P190:P196)</f>
+        <v>0</v>
+      </c>
       <c r="Q189" s="13"/>
       <c r="R189" s="25"/>
       <c r="S189" s="29">
-        <f t="shared" si="77"/>
+        <f>SUM(S190:S196)</f>
         <v>0</v>
       </c>
       <c r="T189" s="11"/>
-      <c r="U189" s="71" t="str">
-        <f t="shared" si="74"/>
-        <v/>
+      <c r="U189" s="71">
+        <f>IF(G189=0,0,S189/G189*100)</f>
+        <v>0</v>
       </c>
       <c r="V189" s="9"/>
       <c r="W189" s="1"/>
@@ -15475,7 +15598,7 @@
     <row r="190" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A190" s="37"/>
       <c r="B190" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C190" s="11"/>
       <c r="D190" s="11"/>
@@ -15486,12 +15609,12 @@
       <c r="I190" s="29"/>
       <c r="J190" s="31"/>
       <c r="K190" s="29">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="K190:K196" si="75">G190-I190</f>
         <v>0</v>
       </c>
       <c r="L190" s="11"/>
       <c r="M190" s="71" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="M190:M196" si="76">IF(G190=0,"",K190/G190*100)</f>
         <v/>
       </c>
       <c r="N190" s="13"/>
@@ -15500,7 +15623,7 @@
       <c r="Q190" s="13"/>
       <c r="R190" s="25"/>
       <c r="S190" s="29">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="S190:S196" si="77">K190+P190</f>
         <v>0</v>
       </c>
       <c r="T190" s="11"/>
@@ -15513,8 +15636,8 @@
     </row>
     <row r="191" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A191" s="37"/>
-      <c r="B191" s="6" t="s">
-        <v>64</v>
+      <c r="B191" s="55" t="s">
+        <v>84</v>
       </c>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
@@ -15552,8 +15675,8 @@
     </row>
     <row r="192" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A192" s="37"/>
-      <c r="B192" s="6" t="s">
-        <v>65</v>
+      <c r="B192" s="55" t="s">
+        <v>85</v>
       </c>
       <c r="C192" s="11"/>
       <c r="D192" s="11"/>
@@ -15591,8 +15714,8 @@
     </row>
     <row r="193" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A193" s="37"/>
-      <c r="B193" s="55" t="s">
-        <v>86</v>
+      <c r="B193" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
@@ -15631,7 +15754,7 @@
     <row r="194" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A194" s="37"/>
       <c r="B194" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C194" s="11"/>
       <c r="D194" s="11"/>
@@ -15667,160 +15790,156 @@
       <c r="V194" s="9"/>
       <c r="W194" s="1"/>
     </row>
-    <row r="195" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A195" s="37"/>
-      <c r="B195" s="11"/>
+      <c r="B195" s="55" t="s">
+        <v>86</v>
+      </c>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
-      <c r="E195" s="32"/>
-      <c r="F195" s="32"/>
-      <c r="G195" s="32"/>
-      <c r="H195" s="32"/>
-      <c r="I195" s="32"/>
-      <c r="J195" s="32"/>
-      <c r="K195" s="32"/>
+      <c r="E195" s="29"/>
+      <c r="F195" s="31"/>
+      <c r="G195" s="29"/>
+      <c r="H195" s="31"/>
+      <c r="I195" s="29"/>
+      <c r="J195" s="31"/>
+      <c r="K195" s="29">
+        <f t="shared" si="75"/>
+        <v>0</v>
+      </c>
       <c r="L195" s="11"/>
-      <c r="M195" s="72"/>
+      <c r="M195" s="71" t="str">
+        <f t="shared" si="76"/>
+        <v/>
+      </c>
       <c r="N195" s="13"/>
       <c r="O195" s="25"/>
-      <c r="P195" s="32"/>
+      <c r="P195" s="29"/>
       <c r="Q195" s="13"/>
       <c r="R195" s="25"/>
-      <c r="S195" s="32"/>
+      <c r="S195" s="29">
+        <f t="shared" si="77"/>
+        <v>0</v>
+      </c>
       <c r="T195" s="11"/>
-      <c r="U195" s="72"/>
+      <c r="U195" s="71" t="str">
+        <f t="shared" si="74"/>
+        <v/>
+      </c>
       <c r="V195" s="9"/>
       <c r="W195" s="1"/>
     </row>
-    <row r="196" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A196" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="B196" s="84" t="s">
-        <v>126</v>
+    <row r="196" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A196" s="37"/>
+      <c r="B196" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C196" s="11"/>
       <c r="D196" s="11"/>
-      <c r="E196" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="F196" s="32"/>
-      <c r="G196" s="29">
-        <f>SUM(G197:G203)</f>
-        <v>0</v>
-      </c>
+      <c r="E196" s="29"/>
+      <c r="F196" s="31"/>
+      <c r="G196" s="29"/>
       <c r="H196" s="31"/>
-      <c r="I196" s="29">
-        <f>SUM(I197:I203)</f>
-        <v>0</v>
-      </c>
+      <c r="I196" s="29"/>
       <c r="J196" s="31"/>
       <c r="K196" s="29">
-        <f>SUM(K197:K203)</f>
+        <f t="shared" si="75"/>
         <v>0</v>
       </c>
       <c r="L196" s="11"/>
       <c r="M196" s="71" t="str">
-        <f t="shared" ref="M196" si="78">IF(G196=0,"",K196/G196*100)</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="N196" s="13"/>
       <c r="O196" s="25"/>
-      <c r="P196" s="29">
-        <f>SUM(P197:P203)</f>
-        <v>0</v>
-      </c>
-      <c r="Q196" s="83"/>
+      <c r="P196" s="29"/>
+      <c r="Q196" s="13"/>
       <c r="R196" s="25"/>
       <c r="S196" s="29">
-        <f>SUM(S197:S203)</f>
+        <f t="shared" si="77"/>
         <v>0</v>
       </c>
       <c r="T196" s="11"/>
       <c r="U196" s="71" t="str">
-        <f t="shared" ref="U196:U203" si="79">IF(G196=0,"",S196/G196*100)</f>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="V196" s="9"/>
       <c r="W196" s="1"/>
     </row>
-    <row r="197" spans="1:23" ht="24.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A197" s="37"/>
-      <c r="B197" s="55" t="s">
-        <v>83</v>
-      </c>
+      <c r="B197" s="11"/>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="32"/>
       <c r="F197" s="32"/>
-      <c r="G197" s="29">
-        <v>0</v>
-      </c>
-      <c r="H197" s="31"/>
-      <c r="I197" s="29"/>
-      <c r="J197" s="31"/>
-      <c r="K197" s="29">
-        <f>G197-I197</f>
-        <v>0</v>
-      </c>
+      <c r="G197" s="32"/>
+      <c r="H197" s="32"/>
+      <c r="I197" s="32"/>
+      <c r="J197" s="32"/>
+      <c r="K197" s="32"/>
       <c r="L197" s="11"/>
-      <c r="M197" s="71" t="str">
-        <f t="shared" ref="M197:M203" si="80">IF(G197=0,"",K197/G197*100)</f>
-        <v/>
-      </c>
+      <c r="M197" s="72"/>
       <c r="N197" s="13"/>
       <c r="O197" s="25"/>
-      <c r="P197" s="29"/>
-      <c r="Q197" s="83"/>
+      <c r="P197" s="32"/>
+      <c r="Q197" s="13"/>
       <c r="R197" s="25"/>
-      <c r="S197" s="29">
-        <f>SUM(K197+P197)</f>
-        <v>0</v>
-      </c>
+      <c r="S197" s="32"/>
       <c r="T197" s="11"/>
-      <c r="U197" s="71" t="str">
-        <f t="shared" si="79"/>
-        <v/>
-      </c>
+      <c r="U197" s="72"/>
       <c r="V197" s="9"/>
       <c r="W197" s="1"/>
     </row>
-    <row r="198" spans="1:23" ht="24.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
-      <c r="A198" s="37"/>
-      <c r="B198" s="55" t="s">
-        <v>84</v>
+    <row r="198" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="B198" s="84" t="s">
+        <v>126</v>
       </c>
       <c r="C198" s="11"/>
       <c r="D198" s="11"/>
-      <c r="E198" s="32"/>
+      <c r="E198" s="35" t="s">
+        <v>44</v>
+      </c>
       <c r="F198" s="32"/>
       <c r="G198" s="29">
+        <f>SUM(G199:G205)</f>
         <v>0</v>
       </c>
       <c r="H198" s="31"/>
-      <c r="I198" s="29"/>
+      <c r="I198" s="29">
+        <f>SUM(I199:I205)</f>
+        <v>0</v>
+      </c>
       <c r="J198" s="31"/>
       <c r="K198" s="29">
-        <f t="shared" ref="K198:K203" si="81">G198-I198</f>
+        <f>SUM(K199:K205)</f>
         <v>0</v>
       </c>
       <c r="L198" s="11"/>
       <c r="M198" s="71" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="M198" si="78">IF(G198=0,"",K198/G198*100)</f>
         <v/>
       </c>
       <c r="N198" s="13"/>
       <c r="O198" s="25"/>
-      <c r="P198" s="29"/>
-      <c r="Q198" s="13"/>
+      <c r="P198" s="29">
+        <f>SUM(P199:P205)</f>
+        <v>0</v>
+      </c>
+      <c r="Q198" s="83"/>
       <c r="R198" s="25"/>
       <c r="S198" s="29">
-        <f t="shared" ref="S198:S203" si="82">SUM(K198+P198)</f>
+        <f>SUM(S199:S205)</f>
         <v>0</v>
       </c>
       <c r="T198" s="11"/>
       <c r="U198" s="71" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="U198:U205" si="79">IF(G198=0,"",S198/G198*100)</f>
         <v/>
       </c>
       <c r="V198" s="9"/>
@@ -15829,11 +15948,11 @@
     <row r="199" spans="1:23" ht="24.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A199" s="37"/>
       <c r="B199" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C199" s="11"/>
       <c r="D199" s="11"/>
-      <c r="E199" s="32"/>
+      <c r="E199" s="29"/>
       <c r="F199" s="32"/>
       <c r="G199" s="29">
         <v>0</v>
@@ -15842,21 +15961,21 @@
       <c r="I199" s="29"/>
       <c r="J199" s="31"/>
       <c r="K199" s="29">
-        <f t="shared" si="81"/>
+        <f>G199-I199</f>
         <v>0</v>
       </c>
       <c r="L199" s="11"/>
       <c r="M199" s="71" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="M199:M205" si="80">IF(G199=0,"",K199/G199*100)</f>
         <v/>
       </c>
       <c r="N199" s="13"/>
       <c r="O199" s="25"/>
       <c r="P199" s="29"/>
-      <c r="Q199" s="13"/>
+      <c r="Q199" s="83"/>
       <c r="R199" s="25"/>
       <c r="S199" s="29">
-        <f t="shared" si="82"/>
+        <f>SUM(K199+P199)</f>
         <v>0</v>
       </c>
       <c r="T199" s="11"/>
@@ -15869,12 +15988,12 @@
     </row>
     <row r="200" spans="1:23" ht="24.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A200" s="37"/>
-      <c r="B200" s="6" t="s">
-        <v>64</v>
+      <c r="B200" s="55" t="s">
+        <v>84</v>
       </c>
       <c r="C200" s="11"/>
       <c r="D200" s="11"/>
-      <c r="E200" s="32"/>
+      <c r="E200" s="29"/>
       <c r="F200" s="32"/>
       <c r="G200" s="29">
         <v>0</v>
@@ -15883,7 +16002,7 @@
       <c r="I200" s="29"/>
       <c r="J200" s="31"/>
       <c r="K200" s="29">
-        <f t="shared" si="81"/>
+        <f t="shared" ref="K200:K205" si="81">G200-I200</f>
         <v>0</v>
       </c>
       <c r="L200" s="11"/>
@@ -15897,7 +16016,7 @@
       <c r="Q200" s="13"/>
       <c r="R200" s="25"/>
       <c r="S200" s="29">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="S200:S205" si="82">SUM(K200+P200)</f>
         <v>0</v>
       </c>
       <c r="T200" s="11"/>
@@ -15910,12 +16029,12 @@
     </row>
     <row r="201" spans="1:23" ht="24.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A201" s="37"/>
-      <c r="B201" s="6" t="s">
-        <v>65</v>
+      <c r="B201" s="55" t="s">
+        <v>85</v>
       </c>
       <c r="C201" s="11"/>
       <c r="D201" s="11"/>
-      <c r="E201" s="32"/>
+      <c r="E201" s="29"/>
       <c r="F201" s="32"/>
       <c r="G201" s="29">
         <v>0</v>
@@ -15951,12 +16070,12 @@
     </row>
     <row r="202" spans="1:23" ht="24.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A202" s="37"/>
-      <c r="B202" s="55" t="s">
-        <v>86</v>
+      <c r="B202" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="C202" s="11"/>
       <c r="D202" s="11"/>
-      <c r="E202" s="32"/>
+      <c r="E202" s="29"/>
       <c r="F202" s="32"/>
       <c r="G202" s="29">
         <v>0</v>
@@ -15993,11 +16112,11 @@
     <row r="203" spans="1:23" ht="24.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A203" s="37"/>
       <c r="B203" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C203" s="11"/>
       <c r="D203" s="11"/>
-      <c r="E203" s="32"/>
+      <c r="E203" s="29"/>
       <c r="F203" s="32"/>
       <c r="G203" s="29">
         <v>0</v>
@@ -16031,272 +16150,280 @@
       <c r="V203" s="9"/>
       <c r="W203" s="1"/>
     </row>
-    <row r="204" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:23" ht="24.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A204" s="37"/>
-      <c r="B204" s="11"/>
+      <c r="B204" s="55" t="s">
+        <v>86</v>
+      </c>
       <c r="C204" s="11"/>
       <c r="D204" s="11"/>
-      <c r="E204" s="32"/>
+      <c r="E204" s="29"/>
       <c r="F204" s="32"/>
-      <c r="G204" s="32"/>
-      <c r="H204" s="32"/>
-      <c r="I204" s="32"/>
-      <c r="J204" s="32"/>
-      <c r="K204" s="32"/>
+      <c r="G204" s="29">
+        <v>0</v>
+      </c>
+      <c r="H204" s="31"/>
+      <c r="I204" s="29"/>
+      <c r="J204" s="31"/>
+      <c r="K204" s="29">
+        <f t="shared" si="81"/>
+        <v>0</v>
+      </c>
       <c r="L204" s="11"/>
-      <c r="M204" s="72"/>
+      <c r="M204" s="71" t="str">
+        <f t="shared" si="80"/>
+        <v/>
+      </c>
       <c r="N204" s="13"/>
       <c r="O204" s="25"/>
-      <c r="P204" s="32"/>
+      <c r="P204" s="29"/>
       <c r="Q204" s="13"/>
       <c r="R204" s="25"/>
-      <c r="S204" s="32"/>
+      <c r="S204" s="29">
+        <f t="shared" si="82"/>
+        <v>0</v>
+      </c>
       <c r="T204" s="11"/>
-      <c r="U204" s="72"/>
+      <c r="U204" s="71" t="str">
+        <f t="shared" si="79"/>
+        <v/>
+      </c>
       <c r="V204" s="9"/>
       <c r="W204" s="1"/>
     </row>
-    <row r="205" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A205" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="B205" s="101" t="s">
-        <v>138</v>
+    <row r="205" spans="1:23" ht="24.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+      <c r="A205" s="37"/>
+      <c r="B205" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C205" s="11"/>
       <c r="D205" s="11"/>
-      <c r="E205" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="F205" s="31"/>
+      <c r="E205" s="29"/>
+      <c r="F205" s="32"/>
       <c r="G205" s="29">
-        <f>SUM(G206:G212)</f>
-        <v>2114465.0099999998</v>
+        <v>0</v>
       </c>
       <c r="H205" s="31"/>
-      <c r="I205" s="29">
-        <f>SUM(I206:I212)</f>
-        <v>2011648.6</v>
-      </c>
+      <c r="I205" s="29"/>
       <c r="J205" s="31"/>
       <c r="K205" s="29">
-        <f>SUM(K206:K212)</f>
-        <v>102816.40999999968</v>
+        <f t="shared" si="81"/>
+        <v>0</v>
       </c>
       <c r="L205" s="11"/>
-      <c r="M205" s="71">
-        <f t="shared" ref="M205:M212" si="83">IF(G205=0,"",K205/G205*100)</f>
-        <v>4.8625259587530225</v>
+      <c r="M205" s="71" t="str">
+        <f t="shared" si="80"/>
+        <v/>
       </c>
       <c r="N205" s="13"/>
       <c r="O205" s="25"/>
-      <c r="P205" s="29">
-        <f>SUM(P206:P212)</f>
-        <v>-102816.41</v>
-      </c>
-      <c r="Q205" s="83" t="s">
-        <v>19</v>
-      </c>
+      <c r="P205" s="29"/>
+      <c r="Q205" s="13"/>
       <c r="R205" s="25"/>
       <c r="S205" s="29">
-        <f>SUM(S206:S212)</f>
-        <v>-3.2014213502407074E-10</v>
+        <f t="shared" si="82"/>
+        <v>0</v>
       </c>
       <c r="T205" s="11"/>
-      <c r="U205" s="71">
-        <f t="shared" ref="U205:U212" si="84">IF(G205=0,"",S205/G205*100)</f>
-        <v>-1.514057378627754E-14</v>
+      <c r="U205" s="71" t="str">
+        <f t="shared" si="79"/>
+        <v/>
       </c>
       <c r="V205" s="9"/>
       <c r="W205" s="1"/>
     </row>
-    <row r="206" spans="1:23" ht="24.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A206" s="37"/>
-      <c r="B206" s="55" t="s">
-        <v>83</v>
-      </c>
+      <c r="B206" s="11"/>
       <c r="C206" s="11"/>
       <c r="D206" s="11"/>
-      <c r="E206" s="29"/>
-      <c r="F206" s="31"/>
-      <c r="G206" s="29">
-        <v>2114465.0099999998</v>
-      </c>
-      <c r="H206" s="31"/>
-      <c r="I206" s="29">
-        <v>2011648.6</v>
-      </c>
-      <c r="J206" s="31"/>
-      <c r="K206" s="29">
-        <f>G206-I206</f>
-        <v>102816.40999999968</v>
-      </c>
+      <c r="E206" s="32"/>
+      <c r="F206" s="32"/>
+      <c r="G206" s="32"/>
+      <c r="H206" s="32"/>
+      <c r="I206" s="32"/>
+      <c r="J206" s="32"/>
+      <c r="K206" s="32"/>
       <c r="L206" s="11"/>
-      <c r="M206" s="71">
-        <f t="shared" si="83"/>
-        <v>4.8625259587530225</v>
-      </c>
+      <c r="M206" s="72"/>
       <c r="N206" s="13"/>
       <c r="O206" s="25"/>
-      <c r="P206" s="29">
-        <v>-102816.41</v>
-      </c>
-      <c r="Q206" s="83" t="s">
-        <v>19</v>
-      </c>
+      <c r="P206" s="32"/>
+      <c r="Q206" s="13"/>
       <c r="R206" s="25"/>
-      <c r="S206" s="29">
-        <f>SUM(K206+P206)</f>
-        <v>-3.2014213502407074E-10</v>
-      </c>
+      <c r="S206" s="32"/>
       <c r="T206" s="11"/>
-      <c r="U206" s="71">
-        <f t="shared" si="84"/>
-        <v>-1.514057378627754E-14</v>
-      </c>
+      <c r="U206" s="72"/>
       <c r="V206" s="9"/>
       <c r="W206" s="1"/>
     </row>
-    <row r="207" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A207" s="37"/>
-      <c r="B207" s="55" t="s">
-        <v>84</v>
+    <row r="207" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="B207" s="98" t="s">
+        <v>149</v>
       </c>
       <c r="C207" s="11"/>
       <c r="D207" s="11"/>
-      <c r="E207" s="29"/>
-      <c r="F207" s="31"/>
-      <c r="G207" s="29"/>
-      <c r="H207" s="31"/>
-      <c r="I207" s="29"/>
-      <c r="J207" s="31"/>
-      <c r="K207" s="29"/>
+      <c r="E207" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="F207" s="32"/>
+      <c r="G207" s="29">
+        <v>0</v>
+      </c>
+      <c r="H207" s="32"/>
+      <c r="I207" s="29">
+        <v>0</v>
+      </c>
+      <c r="J207" s="32"/>
+      <c r="K207" s="29">
+        <v>0</v>
+      </c>
       <c r="L207" s="11"/>
-      <c r="M207" s="71" t="str">
-        <f t="shared" si="83"/>
-        <v/>
+      <c r="M207" s="29">
+        <v>0</v>
       </c>
       <c r="N207" s="13"/>
       <c r="O207" s="25"/>
-      <c r="P207" s="29"/>
+      <c r="P207" s="29">
+        <v>0</v>
+      </c>
       <c r="Q207" s="13"/>
       <c r="R207" s="25"/>
       <c r="S207" s="29">
-        <f t="shared" ref="S207:S212" si="85">SUM(K207+P207)</f>
         <v>0</v>
       </c>
       <c r="T207" s="11"/>
-      <c r="U207" s="71" t="str">
-        <f t="shared" si="84"/>
-        <v/>
+      <c r="U207" s="29">
+        <v>0</v>
       </c>
       <c r="V207" s="9"/>
       <c r="W207" s="1"/>
     </row>
-    <row r="208" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A208" s="37"/>
-      <c r="B208" s="55" t="s">
-        <v>85</v>
-      </c>
+      <c r="B208" s="11"/>
       <c r="C208" s="11"/>
       <c r="D208" s="11"/>
-      <c r="E208" s="29"/>
-      <c r="F208" s="31"/>
-      <c r="G208" s="29"/>
-      <c r="H208" s="31"/>
-      <c r="I208" s="29"/>
-      <c r="J208" s="31"/>
-      <c r="K208" s="29"/>
+      <c r="E208" s="32"/>
+      <c r="F208" s="32"/>
+      <c r="G208" s="32"/>
+      <c r="H208" s="32"/>
+      <c r="I208" s="32"/>
+      <c r="J208" s="32"/>
+      <c r="K208" s="32"/>
       <c r="L208" s="11"/>
-      <c r="M208" s="71" t="str">
-        <f t="shared" si="83"/>
-        <v/>
-      </c>
+      <c r="M208" s="72"/>
       <c r="N208" s="13"/>
       <c r="O208" s="25"/>
-      <c r="P208" s="29"/>
+      <c r="P208" s="32"/>
       <c r="Q208" s="13"/>
       <c r="R208" s="25"/>
-      <c r="S208" s="29">
-        <f t="shared" si="85"/>
-        <v>0</v>
-      </c>
+      <c r="S208" s="32"/>
       <c r="T208" s="11"/>
-      <c r="U208" s="71" t="str">
-        <f t="shared" si="84"/>
-        <v/>
-      </c>
+      <c r="U208" s="72"/>
       <c r="V208" s="9"/>
       <c r="W208" s="1"/>
     </row>
-    <row r="209" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
-      <c r="A209" s="37"/>
-      <c r="B209" s="6" t="s">
-        <v>64</v>
+    <row r="209" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="B209" s="91" t="s">
+        <v>138</v>
       </c>
       <c r="C209" s="11"/>
       <c r="D209" s="11"/>
-      <c r="E209" s="29"/>
+      <c r="E209" s="35" t="s">
+        <v>43</v>
+      </c>
       <c r="F209" s="31"/>
-      <c r="G209" s="29"/>
+      <c r="G209" s="29">
+        <f>SUM(G210:G216)</f>
+        <v>2114465.0099999998</v>
+      </c>
       <c r="H209" s="31"/>
-      <c r="I209" s="29"/>
+      <c r="I209" s="29">
+        <f>SUM(I210:I216)</f>
+        <v>2011648.6</v>
+      </c>
       <c r="J209" s="31"/>
-      <c r="K209" s="29"/>
+      <c r="K209" s="29">
+        <f>SUM(K210:K216)</f>
+        <v>102816.40999999968</v>
+      </c>
       <c r="L209" s="11"/>
-      <c r="M209" s="71" t="str">
-        <f t="shared" si="83"/>
-        <v/>
+      <c r="M209" s="71">
+        <f t="shared" ref="M209:M216" si="83">IF(G209=0,"",K209/G209*100)</f>
+        <v>4.8625259587530225</v>
       </c>
       <c r="N209" s="13"/>
       <c r="O209" s="25"/>
-      <c r="P209" s="29"/>
-      <c r="Q209" s="13"/>
+      <c r="P209" s="29">
+        <f>SUM(P210:P216)</f>
+        <v>-102816.41</v>
+      </c>
+      <c r="Q209" s="83" t="s">
+        <v>19</v>
+      </c>
       <c r="R209" s="25"/>
       <c r="S209" s="29">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <f>SUM(S210:S216)</f>
+        <v>-3.2014213502407074E-10</v>
       </c>
       <c r="T209" s="11"/>
-      <c r="U209" s="71" t="str">
-        <f t="shared" si="84"/>
-        <v/>
+      <c r="U209" s="71">
+        <f t="shared" ref="U209:U216" si="84">IF(G209=0,"",S209/G209*100)</f>
+        <v>-1.514057378627754E-14</v>
       </c>
       <c r="V209" s="9"/>
       <c r="W209" s="1"/>
     </row>
-    <row r="210" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:23" ht="24.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A210" s="37"/>
-      <c r="B210" s="6" t="s">
-        <v>65</v>
+      <c r="B210" s="55" t="s">
+        <v>83</v>
       </c>
       <c r="C210" s="11"/>
       <c r="D210" s="11"/>
       <c r="E210" s="29"/>
       <c r="F210" s="31"/>
-      <c r="G210" s="29"/>
+      <c r="G210" s="29">
+        <v>2114465.0099999998</v>
+      </c>
       <c r="H210" s="31"/>
-      <c r="I210" s="29"/>
+      <c r="I210" s="29">
+        <v>2011648.6</v>
+      </c>
       <c r="J210" s="31"/>
-      <c r="K210" s="29"/>
+      <c r="K210" s="29">
+        <f>G210-I210</f>
+        <v>102816.40999999968</v>
+      </c>
       <c r="L210" s="11"/>
-      <c r="M210" s="71" t="str">
+      <c r="M210" s="71">
         <f t="shared" si="83"/>
-        <v/>
+        <v>4.8625259587530225</v>
       </c>
       <c r="N210" s="13"/>
       <c r="O210" s="25"/>
-      <c r="P210" s="29"/>
-      <c r="Q210" s="13"/>
+      <c r="P210" s="29">
+        <v>-102816.41</v>
+      </c>
+      <c r="Q210" s="83" t="s">
+        <v>19</v>
+      </c>
       <c r="R210" s="25"/>
       <c r="S210" s="29">
-        <f t="shared" si="85"/>
-        <v>0</v>
+        <f>SUM(K210+P210)</f>
+        <v>-3.2014213502407074E-10</v>
       </c>
       <c r="T210" s="11"/>
-      <c r="U210" s="71" t="str">
+      <c r="U210" s="71">
         <f t="shared" si="84"/>
-        <v/>
+        <v>-1.514057378627754E-14</v>
       </c>
       <c r="V210" s="9"/>
       <c r="W210" s="1"/>
@@ -16304,7 +16431,7 @@
     <row r="211" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A211" s="37"/>
       <c r="B211" s="55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C211" s="11"/>
       <c r="D211" s="11"/>
@@ -16326,7 +16453,7 @@
       <c r="Q211" s="13"/>
       <c r="R211" s="25"/>
       <c r="S211" s="29">
-        <f t="shared" si="85"/>
+        <f t="shared" ref="S211:S216" si="85">SUM(K211+P211)</f>
         <v>0</v>
       </c>
       <c r="T211" s="11"/>
@@ -16339,8 +16466,8 @@
     </row>
     <row r="212" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A212" s="37"/>
-      <c r="B212" s="6" t="s">
-        <v>66</v>
+      <c r="B212" s="55" t="s">
+        <v>85</v>
       </c>
       <c r="C212" s="11"/>
       <c r="D212" s="11"/>
@@ -16373,360 +16500,330 @@
       <c r="V212" s="9"/>
       <c r="W212" s="1"/>
     </row>
-    <row r="213" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A213" s="37"/>
-      <c r="B213" s="11"/>
+      <c r="B213" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C213" s="11"/>
       <c r="D213" s="11"/>
-      <c r="E213" s="32"/>
-      <c r="F213" s="32"/>
-      <c r="G213" s="32"/>
-      <c r="H213" s="32"/>
-      <c r="I213" s="32"/>
-      <c r="J213" s="32"/>
-      <c r="K213" s="32"/>
+      <c r="E213" s="29"/>
+      <c r="F213" s="31"/>
+      <c r="G213" s="29"/>
+      <c r="H213" s="31"/>
+      <c r="I213" s="29"/>
+      <c r="J213" s="31"/>
+      <c r="K213" s="29"/>
       <c r="L213" s="11"/>
-      <c r="M213" s="72"/>
+      <c r="M213" s="71" t="str">
+        <f t="shared" si="83"/>
+        <v/>
+      </c>
       <c r="N213" s="13"/>
       <c r="O213" s="25"/>
-      <c r="P213" s="32"/>
+      <c r="P213" s="29"/>
       <c r="Q213" s="13"/>
       <c r="R213" s="25"/>
-      <c r="S213" s="32"/>
+      <c r="S213" s="29">
+        <f t="shared" si="85"/>
+        <v>0</v>
+      </c>
       <c r="T213" s="11"/>
-      <c r="U213" s="72"/>
+      <c r="U213" s="71" t="str">
+        <f t="shared" si="84"/>
+        <v/>
+      </c>
       <c r="V213" s="9"/>
       <c r="W213" s="1"/>
     </row>
-    <row r="214" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A214" s="91" t="s">
-        <v>128</v>
-      </c>
-      <c r="B214" s="11" t="s">
-        <v>41</v>
+    <row r="214" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A214" s="37"/>
+      <c r="B214" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="C214" s="11"/>
       <c r="D214" s="11"/>
-      <c r="E214" s="35" t="s">
-        <v>43</v>
-      </c>
+      <c r="E214" s="29"/>
       <c r="F214" s="31"/>
-      <c r="G214" s="29">
-        <f>SUM(G215:G221)</f>
-        <v>40832665</v>
-      </c>
+      <c r="G214" s="29"/>
       <c r="H214" s="31"/>
-      <c r="I214" s="29">
-        <f>SUM(I215:I221)</f>
-        <v>40695620.689999998</v>
-      </c>
+      <c r="I214" s="29"/>
       <c r="J214" s="31"/>
-      <c r="K214" s="29">
-        <f>SUM(K215:K221)</f>
-        <v>137044.31000000171</v>
-      </c>
+      <c r="K214" s="29"/>
       <c r="L214" s="11"/>
-      <c r="M214" s="71">
-        <f t="shared" ref="M214:M221" si="86">IF(G214=0,"",K214/G214*100)</f>
-        <v>0.33562421164526418</v>
+      <c r="M214" s="71" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
       <c r="N214" s="13"/>
       <c r="O214" s="25"/>
-      <c r="P214" s="29">
-        <f>SUM(P215:P221)</f>
-        <v>-137044.13</v>
-      </c>
-      <c r="Q214" s="83" t="s">
-        <v>20</v>
-      </c>
+      <c r="P214" s="29"/>
+      <c r="Q214" s="13"/>
       <c r="R214" s="25"/>
       <c r="S214" s="29">
-        <f>SUM(S215:S221)</f>
-        <v>0.18000000171650754</v>
+        <f t="shared" si="85"/>
+        <v>0</v>
       </c>
       <c r="T214" s="11"/>
-      <c r="U214" s="71">
-        <f t="shared" ref="U214:U221" si="87">IF(G214=0,"",S214/G214*100)</f>
-        <v>4.4082354584621778E-7</v>
+      <c r="U214" s="71" t="str">
+        <f t="shared" si="84"/>
+        <v/>
       </c>
       <c r="V214" s="9"/>
       <c r="W214" s="1"/>
     </row>
-    <row r="215" spans="1:23" ht="24.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A215" s="37"/>
       <c r="B215" s="55" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C215" s="11"/>
       <c r="D215" s="11"/>
       <c r="E215" s="29"/>
       <c r="F215" s="31"/>
-      <c r="G215" s="29">
-        <f>14445401+19482+115748-46080</f>
-        <v>14534551</v>
-      </c>
+      <c r="G215" s="29"/>
       <c r="H215" s="31"/>
-      <c r="I215" s="29">
-        <f>14130544.58+242047.79+80658.29-46080</f>
-        <v>14407170.659999998</v>
-      </c>
+      <c r="I215" s="29"/>
       <c r="J215" s="31"/>
-      <c r="K215" s="29">
-        <f>G215-I215</f>
-        <v>127380.34000000171</v>
-      </c>
+      <c r="K215" s="29"/>
       <c r="L215" s="11"/>
-      <c r="M215" s="71">
-        <f t="shared" si="86"/>
-        <v>0.87639680097446226</v>
+      <c r="M215" s="71" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
       <c r="N215" s="13"/>
       <c r="O215" s="25"/>
-      <c r="P215" s="29">
-        <f>-(19482+115748-7850.08)</f>
-        <v>-127379.92</v>
-      </c>
-      <c r="Q215" s="83" t="s">
-        <v>20</v>
-      </c>
+      <c r="P215" s="29"/>
+      <c r="Q215" s="13"/>
       <c r="R215" s="25"/>
       <c r="S215" s="29">
-        <f t="shared" ref="S215:S221" si="88">K215+P215</f>
-        <v>0.42000000171537977</v>
+        <f t="shared" si="85"/>
+        <v>0</v>
       </c>
       <c r="T215" s="11"/>
-      <c r="U215" s="71">
-        <f t="shared" si="87"/>
-        <v>2.8896661597278086E-6</v>
+      <c r="U215" s="71" t="str">
+        <f t="shared" si="84"/>
+        <v/>
       </c>
       <c r="V215" s="9"/>
       <c r="W215" s="1"/>
     </row>
-    <row r="216" spans="1:23" ht="24.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A216" s="37"/>
-      <c r="B216" s="55" t="s">
-        <v>84</v>
+      <c r="B216" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="C216" s="11"/>
       <c r="D216" s="11"/>
       <c r="E216" s="29"/>
       <c r="F216" s="31"/>
-      <c r="G216" s="29">
-        <v>25073123</v>
-      </c>
+      <c r="G216" s="29"/>
       <c r="H216" s="31"/>
-      <c r="I216" s="29">
-        <v>25070851</v>
-      </c>
+      <c r="I216" s="29"/>
       <c r="J216" s="31"/>
-      <c r="K216" s="29">
-        <f t="shared" ref="K216:K221" si="89">G216-I216</f>
-        <v>2272</v>
-      </c>
+      <c r="K216" s="29"/>
       <c r="L216" s="11"/>
-      <c r="M216" s="71">
-        <f t="shared" si="86"/>
-        <v>9.0614958495597066E-3</v>
+      <c r="M216" s="71" t="str">
+        <f t="shared" si="83"/>
+        <v/>
       </c>
       <c r="N216" s="13"/>
       <c r="O216" s="25"/>
-      <c r="P216" s="29">
-        <v>-2272</v>
-      </c>
-      <c r="Q216" s="83" t="s">
-        <v>20</v>
-      </c>
+      <c r="P216" s="29"/>
+      <c r="Q216" s="13"/>
       <c r="R216" s="25"/>
       <c r="S216" s="29">
-        <f t="shared" si="88"/>
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
       <c r="T216" s="11"/>
-      <c r="U216" s="71">
-        <f t="shared" si="87"/>
-        <v>0</v>
+      <c r="U216" s="71" t="str">
+        <f t="shared" si="84"/>
+        <v/>
       </c>
       <c r="V216" s="9"/>
       <c r="W216" s="1"/>
     </row>
-    <row r="217" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A217" s="37"/>
-      <c r="B217" s="55" t="s">
-        <v>85</v>
-      </c>
+      <c r="B217" s="11"/>
       <c r="C217" s="11"/>
       <c r="D217" s="11"/>
-      <c r="E217" s="29"/>
-      <c r="F217" s="31"/>
-      <c r="G217" s="29"/>
-      <c r="H217" s="31"/>
-      <c r="I217" s="29"/>
-      <c r="J217" s="31"/>
-      <c r="K217" s="29">
-        <f t="shared" si="89"/>
-        <v>0</v>
-      </c>
+      <c r="E217" s="32"/>
+      <c r="F217" s="32"/>
+      <c r="G217" s="32"/>
+      <c r="H217" s="32"/>
+      <c r="I217" s="32"/>
+      <c r="J217" s="32"/>
+      <c r="K217" s="32"/>
       <c r="L217" s="11"/>
-      <c r="M217" s="71" t="str">
-        <f t="shared" si="86"/>
-        <v/>
-      </c>
+      <c r="M217" s="72"/>
       <c r="N217" s="13"/>
       <c r="O217" s="25"/>
-      <c r="P217" s="29">
-        <v>0</v>
-      </c>
+      <c r="P217" s="32"/>
       <c r="Q217" s="13"/>
       <c r="R217" s="25"/>
-      <c r="S217" s="29">
-        <f t="shared" si="88"/>
-        <v>0</v>
-      </c>
+      <c r="S217" s="32"/>
       <c r="T217" s="11"/>
-      <c r="U217" s="71" t="str">
-        <f t="shared" si="87"/>
-        <v/>
-      </c>
+      <c r="U217" s="72"/>
       <c r="V217" s="9"/>
       <c r="W217" s="1"/>
     </row>
-    <row r="218" spans="1:23" ht="24.75" customHeight="1" outlineLevel="2" collapsed="1" x14ac:dyDescent="0.2">
-      <c r="A218" s="37"/>
-      <c r="B218" s="6" t="s">
-        <v>64</v>
+    <row r="218" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>41</v>
       </c>
       <c r="C218" s="11"/>
       <c r="D218" s="11"/>
-      <c r="E218" s="29"/>
+      <c r="E218" s="35" t="s">
+        <v>43</v>
+      </c>
       <c r="F218" s="31"/>
       <c r="G218" s="29">
-        <v>146821</v>
+        <f>SUM(G219:G225)</f>
+        <v>40832665</v>
       </c>
       <c r="H218" s="31"/>
       <c r="I218" s="29">
-        <v>139428.79</v>
+        <f>SUM(I219:I225)</f>
+        <v>40695620.689999998</v>
       </c>
       <c r="J218" s="31"/>
       <c r="K218" s="29">
-        <f t="shared" si="89"/>
-        <v>7392.2099999999919</v>
+        <f>SUM(K219:K225)</f>
+        <v>137044.31000000171</v>
       </c>
       <c r="L218" s="11"/>
       <c r="M218" s="71">
-        <f t="shared" si="86"/>
-        <v>5.0348451515791277</v>
+        <f t="shared" ref="M218:M225" si="86">IF(G218=0,"",K218/G218*100)</f>
+        <v>0.33562421164526418</v>
       </c>
       <c r="N218" s="13"/>
       <c r="O218" s="25"/>
-      <c r="P218" s="70">
-        <v>-7392.21</v>
+      <c r="P218" s="29">
+        <f>SUM(P219:P225)</f>
+        <v>-137044.13</v>
       </c>
       <c r="Q218" s="83" t="s">
         <v>20</v>
       </c>
       <c r="R218" s="25"/>
       <c r="S218" s="29">
-        <f t="shared" si="88"/>
-        <v>-8.1854523159563541E-12</v>
+        <f>SUM(S219:S225)</f>
+        <v>0.18000000171650754</v>
       </c>
       <c r="T218" s="11"/>
       <c r="U218" s="71">
-        <f t="shared" si="87"/>
-        <v>-5.5751236648411012E-15</v>
+        <f t="shared" ref="U218:U225" si="87">IF(G218=0,"",S218/G218*100)</f>
+        <v>4.4082354584621778E-7</v>
       </c>
       <c r="V218" s="9"/>
       <c r="W218" s="1"/>
     </row>
     <row r="219" spans="1:23" ht="24.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A219" s="37"/>
-      <c r="B219" s="6" t="s">
-        <v>65</v>
+      <c r="B219" s="55" t="s">
+        <v>83</v>
       </c>
       <c r="C219" s="11"/>
       <c r="D219" s="11"/>
       <c r="E219" s="29"/>
       <c r="F219" s="31"/>
       <c r="G219" s="29">
-        <v>1078170</v>
+        <f>14445401+19482+115748-46080</f>
+        <v>14534551</v>
       </c>
       <c r="H219" s="31"/>
       <c r="I219" s="29">
-        <v>1078170.24</v>
+        <f>14130544.58+242047.79+80658.29-46080</f>
+        <v>14407170.659999998</v>
       </c>
       <c r="J219" s="31"/>
       <c r="K219" s="29">
-        <f t="shared" si="89"/>
-        <v>-0.23999999999068677</v>
+        <f>G219-I219</f>
+        <v>127380.34000000171</v>
       </c>
       <c r="L219" s="11"/>
       <c r="M219" s="71">
         <f t="shared" si="86"/>
-        <v>-2.2259940453795485E-5</v>
+        <v>0.87639680097446226</v>
       </c>
       <c r="N219" s="13"/>
       <c r="O219" s="25"/>
       <c r="P219" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q219" s="13"/>
+        <f>-(19482+115748-7850.08)</f>
+        <v>-127379.92</v>
+      </c>
+      <c r="Q219" s="83" t="s">
+        <v>20</v>
+      </c>
       <c r="R219" s="25"/>
       <c r="S219" s="29">
-        <f t="shared" si="88"/>
-        <v>-0.23999999999068677</v>
+        <f t="shared" ref="S219:S225" si="88">K219+P219</f>
+        <v>0.42000000171537977</v>
       </c>
       <c r="T219" s="11"/>
       <c r="U219" s="71">
         <f t="shared" si="87"/>
-        <v>-2.2259940453795485E-5</v>
+        <v>2.8896661597278086E-6</v>
       </c>
       <c r="V219" s="9"/>
       <c r="W219" s="1"/>
     </row>
-    <row r="220" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:23" ht="24.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A220" s="37"/>
       <c r="B220" s="55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C220" s="11"/>
       <c r="D220" s="11"/>
       <c r="E220" s="29"/>
       <c r="F220" s="31"/>
-      <c r="G220" s="29"/>
+      <c r="G220" s="29">
+        <v>25073123</v>
+      </c>
       <c r="H220" s="31"/>
-      <c r="I220" s="29"/>
+      <c r="I220" s="29">
+        <v>25070851</v>
+      </c>
       <c r="J220" s="31"/>
       <c r="K220" s="29">
-        <f t="shared" si="89"/>
-        <v>0</v>
+        <f t="shared" ref="K220:K225" si="89">G220-I220</f>
+        <v>2272</v>
       </c>
       <c r="L220" s="11"/>
-      <c r="M220" s="71" t="str">
+      <c r="M220" s="71">
         <f t="shared" si="86"/>
-        <v/>
+        <v>9.0614958495597066E-3</v>
       </c>
       <c r="N220" s="13"/>
       <c r="O220" s="25"/>
       <c r="P220" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q220" s="13"/>
+        <v>-2272</v>
+      </c>
+      <c r="Q220" s="83" t="s">
+        <v>20</v>
+      </c>
       <c r="R220" s="25"/>
       <c r="S220" s="29">
         <f t="shared" si="88"/>
         <v>0</v>
       </c>
       <c r="T220" s="11"/>
-      <c r="U220" s="71" t="str">
+      <c r="U220" s="71">
         <f t="shared" si="87"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="V220" s="9"/>
       <c r="W220" s="1"/>
     </row>
     <row r="221" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A221" s="37"/>
-      <c r="B221" s="6" t="s">
-        <v>66</v>
+      <c r="B221" s="55" t="s">
+        <v>85</v>
       </c>
       <c r="C221" s="11"/>
       <c r="D221" s="11"/>
@@ -16764,261 +16861,319 @@
       <c r="V221" s="9"/>
       <c r="W221" s="1"/>
     </row>
-    <row r="222" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:23" ht="24.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A222" s="37"/>
-      <c r="B222" s="11"/>
+      <c r="B222" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C222" s="11"/>
       <c r="D222" s="11"/>
-      <c r="E222" s="32"/>
-      <c r="F222" s="32"/>
-      <c r="G222" s="32"/>
-      <c r="H222" s="32"/>
-      <c r="I222" s="32"/>
-      <c r="J222" s="32"/>
-      <c r="K222" s="32"/>
+      <c r="E222" s="29"/>
+      <c r="F222" s="31"/>
+      <c r="G222" s="29">
+        <v>146821</v>
+      </c>
+      <c r="H222" s="31"/>
+      <c r="I222" s="29">
+        <v>139428.79</v>
+      </c>
+      <c r="J222" s="31"/>
+      <c r="K222" s="29">
+        <f t="shared" si="89"/>
+        <v>7392.2099999999919</v>
+      </c>
       <c r="L222" s="11"/>
-      <c r="M222" s="72"/>
+      <c r="M222" s="71">
+        <f t="shared" si="86"/>
+        <v>5.0348451515791277</v>
+      </c>
       <c r="N222" s="13"/>
       <c r="O222" s="25"/>
-      <c r="P222" s="32"/>
-      <c r="Q222" s="13"/>
+      <c r="P222" s="70">
+        <v>-7392.21</v>
+      </c>
+      <c r="Q222" s="83" t="s">
+        <v>20</v>
+      </c>
       <c r="R222" s="25"/>
-      <c r="S222" s="32"/>
+      <c r="S222" s="29">
+        <f t="shared" si="88"/>
+        <v>-8.1854523159563541E-12</v>
+      </c>
       <c r="T222" s="11"/>
-      <c r="U222" s="72"/>
+      <c r="U222" s="71">
+        <f t="shared" si="87"/>
+        <v>-5.5751236648411012E-15</v>
+      </c>
       <c r="V222" s="9"/>
       <c r="W222" s="1"/>
     </row>
-    <row r="223" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:23" ht="24.75" customHeight="1" outlineLevel="2" x14ac:dyDescent="0.2">
       <c r="A223" s="37"/>
-      <c r="B223" s="11"/>
+      <c r="B223" s="6" t="s">
+        <v>65</v>
+      </c>
       <c r="C223" s="11"/>
       <c r="D223" s="11"/>
       <c r="E223" s="29"/>
       <c r="F223" s="31"/>
-      <c r="G223" s="29"/>
+      <c r="G223" s="29">
+        <v>1078170</v>
+      </c>
       <c r="H223" s="31"/>
-      <c r="I223" s="29"/>
+      <c r="I223" s="29">
+        <v>1078170.24</v>
+      </c>
       <c r="J223" s="31"/>
       <c r="K223" s="29">
-        <f>G223-I223</f>
-        <v>0</v>
+        <f t="shared" si="89"/>
+        <v>-0.23999999999068677</v>
       </c>
       <c r="L223" s="11"/>
-      <c r="M223" s="71" t="str">
-        <f t="shared" ref="M223" si="90">IF(G223=0,"",K223/G223*100)</f>
-        <v/>
+      <c r="M223" s="71">
+        <f t="shared" si="86"/>
+        <v>-2.2259940453795485E-5</v>
       </c>
       <c r="N223" s="13"/>
       <c r="O223" s="25"/>
-      <c r="P223" s="29"/>
+      <c r="P223" s="29">
+        <v>0</v>
+      </c>
       <c r="Q223" s="13"/>
       <c r="R223" s="25"/>
       <c r="S223" s="29">
-        <f>K223+P223</f>
-        <v>0</v>
+        <f t="shared" si="88"/>
+        <v>-0.23999999999068677</v>
       </c>
       <c r="T223" s="11"/>
-      <c r="U223" s="71" t="str">
-        <f t="shared" ref="U223" si="91">IF(G223=0,"",S223/G223*100)</f>
-        <v/>
+      <c r="U223" s="71">
+        <f t="shared" si="87"/>
+        <v>-2.2259940453795485E-5</v>
       </c>
       <c r="V223" s="9"/>
       <c r="W223" s="1"/>
     </row>
-    <row r="224" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A224" s="37"/>
-      <c r="B224" s="11"/>
+      <c r="B224" s="55" t="s">
+        <v>86</v>
+      </c>
       <c r="C224" s="11"/>
       <c r="D224" s="11"/>
-      <c r="E224" s="32"/>
-      <c r="F224" s="32"/>
-      <c r="G224" s="33"/>
-      <c r="H224" s="32"/>
-      <c r="I224" s="33"/>
-      <c r="J224" s="32"/>
-      <c r="K224" s="33"/>
+      <c r="E224" s="29"/>
+      <c r="F224" s="31"/>
+      <c r="G224" s="29"/>
+      <c r="H224" s="31"/>
+      <c r="I224" s="29"/>
+      <c r="J224" s="31"/>
+      <c r="K224" s="29">
+        <f t="shared" si="89"/>
+        <v>0</v>
+      </c>
       <c r="L224" s="11"/>
-      <c r="M224" s="72"/>
+      <c r="M224" s="71" t="str">
+        <f t="shared" si="86"/>
+        <v/>
+      </c>
       <c r="N224" s="13"/>
       <c r="O224" s="25"/>
-      <c r="P224" s="33"/>
+      <c r="P224" s="29">
+        <v>0</v>
+      </c>
       <c r="Q224" s="13"/>
       <c r="R224" s="25"/>
-      <c r="S224" s="33"/>
+      <c r="S224" s="29">
+        <f t="shared" si="88"/>
+        <v>0</v>
+      </c>
       <c r="T224" s="11"/>
-      <c r="U224" s="72"/>
+      <c r="U224" s="71" t="str">
+        <f t="shared" si="87"/>
+        <v/>
+      </c>
       <c r="V224" s="9"/>
       <c r="W224" s="1"/>
     </row>
-    <row r="225" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
       <c r="A225" s="37"/>
-      <c r="B225" s="11"/>
+      <c r="B225" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="C225" s="11"/>
       <c r="D225" s="11"/>
-      <c r="E225" s="46"/>
+      <c r="E225" s="29"/>
       <c r="F225" s="31"/>
-      <c r="G225" s="34">
-        <f>SUM(G8,G18,G27,G36,G45,G54,G66,G75,G86:G150,G168,G179:G187,G205,G196,G214,)</f>
-        <v>231812141.44999999</v>
-      </c>
+      <c r="G225" s="29"/>
       <c r="H225" s="31"/>
-      <c r="I225" s="34">
-        <f>SUM(I8,I18,I27,I36,I45,I54,I66,I75,I86:I150,I168,I179:I187,I205,I196,I214,)</f>
-        <v>231384155.83999997</v>
-      </c>
+      <c r="I225" s="29"/>
       <c r="J225" s="31"/>
-      <c r="K225" s="34">
-        <f>SUM(K8,K18,K27,K36,K45,K54,K66,K75,K86:K150,K168,K179:K187,K205,K196,K214,)</f>
-        <v>427985.61000000278</v>
+      <c r="K225" s="29">
+        <f t="shared" si="89"/>
+        <v>0</v>
       </c>
       <c r="L225" s="11"/>
-      <c r="M225" s="72">
-        <f t="shared" ref="M225" si="92">IF(G225=0,"",K225/G225*100)</f>
-        <v>0.18462605423638512</v>
+      <c r="M225" s="71" t="str">
+        <f t="shared" si="86"/>
+        <v/>
       </c>
       <c r="N225" s="13"/>
       <c r="O225" s="25"/>
-      <c r="P225" s="34">
-        <f>SUM(P8,P18,P27,P36,P45,P54,P66,P75,P86:P150,P168,P179:P187,P205,P196,P214,)</f>
-        <v>-427985.64</v>
+      <c r="P225" s="29">
+        <v>0</v>
       </c>
       <c r="Q225" s="13"/>
       <c r="R225" s="25"/>
-      <c r="S225" s="34">
-        <f>SUM(S8,S18,S27,S36,S45,S54,S66,S75,S86:S150,S168,S179:S187,S205,S196,S214,)</f>
-        <v>-2.99999972603473E-2</v>
+      <c r="S225" s="29">
+        <f t="shared" si="88"/>
+        <v>0</v>
       </c>
       <c r="T225" s="11"/>
-      <c r="U225" s="72">
-        <f t="shared" ref="U225" si="93">IF(G225=0,"",S225/G225*100)</f>
-        <v>-1.2941512499170824E-8</v>
+      <c r="U225" s="71" t="str">
+        <f t="shared" si="87"/>
+        <v/>
       </c>
       <c r="V225" s="9"/>
       <c r="W225" s="1"/>
     </row>
-    <row r="226" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="82"/>
-      <c r="B226" s="67"/>
+    <row r="226" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A226" s="37"/>
+      <c r="B226" s="11"/>
       <c r="C226" s="11"/>
       <c r="D226" s="11"/>
-      <c r="E226" s="46"/>
-      <c r="F226" s="58"/>
-      <c r="G226" s="57"/>
-      <c r="H226" s="58"/>
-      <c r="I226" s="57"/>
-      <c r="J226" s="58"/>
-      <c r="K226" s="57"/>
-      <c r="L226" s="59"/>
-      <c r="M226" s="60"/>
-      <c r="N226" s="60"/>
-      <c r="O226" s="60"/>
-      <c r="P226" s="57"/>
-      <c r="Q226" s="60"/>
-      <c r="R226" s="60"/>
-      <c r="S226" s="57"/>
+      <c r="E226" s="32"/>
+      <c r="F226" s="32"/>
+      <c r="G226" s="32"/>
+      <c r="H226" s="32"/>
+      <c r="I226" s="32"/>
+      <c r="J226" s="32"/>
+      <c r="K226" s="32"/>
+      <c r="L226" s="11"/>
+      <c r="M226" s="72"/>
+      <c r="N226" s="13"/>
+      <c r="O226" s="25"/>
+      <c r="P226" s="32"/>
+      <c r="Q226" s="13"/>
+      <c r="R226" s="25"/>
+      <c r="S226" s="32"/>
       <c r="T226" s="11"/>
-      <c r="U226" s="13"/>
+      <c r="U226" s="72"/>
       <c r="V226" s="9"/>
       <c r="W226" s="1"/>
     </row>
-    <row r="227" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="82" t="s">
-        <v>118</v>
-      </c>
-      <c r="B227" s="77" t="s">
-        <v>121</v>
-      </c>
+    <row r="227" spans="1:23" ht="24.75" customHeight="1" outlineLevel="3" x14ac:dyDescent="0.2">
+      <c r="A227" s="37"/>
+      <c r="B227" s="11"/>
       <c r="C227" s="11"/>
       <c r="D227" s="11"/>
-      <c r="E227" s="57"/>
-      <c r="F227" s="58"/>
-      <c r="G227" s="57"/>
-      <c r="H227" s="58"/>
-      <c r="I227" s="57"/>
-      <c r="J227" s="58"/>
-      <c r="K227" s="57"/>
-      <c r="L227" s="59"/>
-      <c r="M227" s="60"/>
-      <c r="N227" s="60"/>
-      <c r="O227" s="60"/>
-      <c r="P227" s="57"/>
-      <c r="Q227" s="60"/>
-      <c r="R227" s="60"/>
-      <c r="S227" s="57"/>
+      <c r="E227" s="29"/>
+      <c r="F227" s="31"/>
+      <c r="G227" s="29"/>
+      <c r="H227" s="31"/>
+      <c r="I227" s="29"/>
+      <c r="J227" s="31"/>
+      <c r="K227" s="29">
+        <f>G227-I227</f>
+        <v>0</v>
+      </c>
+      <c r="L227" s="11"/>
+      <c r="M227" s="71" t="str">
+        <f t="shared" ref="M227" si="90">IF(G227=0,"",K227/G227*100)</f>
+        <v/>
+      </c>
+      <c r="N227" s="13"/>
+      <c r="O227" s="25"/>
+      <c r="P227" s="29"/>
+      <c r="Q227" s="13"/>
+      <c r="R227" s="25"/>
+      <c r="S227" s="29">
+        <f>K227+P227</f>
+        <v>0</v>
+      </c>
       <c r="T227" s="11"/>
-      <c r="U227" s="13"/>
+      <c r="U227" s="71" t="str">
+        <f t="shared" ref="U227" si="91">IF(G227=0,"",S227/G227*100)</f>
+        <v/>
+      </c>
       <c r="V227" s="9"/>
       <c r="W227" s="1"/>
     </row>
     <row r="228" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="82" t="s">
-        <v>16</v>
-      </c>
-      <c r="B228" s="77" t="s">
-        <v>112</v>
-      </c>
+      <c r="A228" s="37"/>
+      <c r="B228" s="11"/>
       <c r="C228" s="11"/>
       <c r="D228" s="11"/>
-      <c r="E228" s="57"/>
-      <c r="F228" s="58"/>
-      <c r="G228" s="57"/>
-      <c r="H228" s="58"/>
-      <c r="I228" s="57"/>
-      <c r="J228" s="58"/>
-      <c r="K228" s="57"/>
-      <c r="L228" s="59"/>
-      <c r="M228" s="60"/>
-      <c r="N228" s="60"/>
-      <c r="O228" s="60"/>
-      <c r="P228" s="57"/>
-      <c r="Q228" s="60"/>
-      <c r="R228" s="60"/>
-      <c r="S228" s="57"/>
+      <c r="E228" s="32"/>
+      <c r="F228" s="32"/>
+      <c r="G228" s="33"/>
+      <c r="H228" s="32"/>
+      <c r="I228" s="33"/>
+      <c r="J228" s="32"/>
+      <c r="K228" s="33"/>
+      <c r="L228" s="11"/>
+      <c r="M228" s="72"/>
+      <c r="N228" s="13"/>
+      <c r="O228" s="25"/>
+      <c r="P228" s="33"/>
+      <c r="Q228" s="13"/>
+      <c r="R228" s="25"/>
+      <c r="S228" s="33"/>
       <c r="T228" s="11"/>
-      <c r="U228" s="13"/>
+      <c r="U228" s="72"/>
       <c r="V228" s="9"/>
       <c r="W228" s="1"/>
     </row>
-    <row r="229" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="82" t="s">
-        <v>19</v>
-      </c>
-      <c r="B229" s="61" t="s">
-        <v>99</v>
-      </c>
+    <row r="229" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="37"/>
+      <c r="B229" s="11"/>
       <c r="C229" s="11"/>
       <c r="D229" s="11"/>
-      <c r="E229" s="57"/>
-      <c r="F229" s="58"/>
-      <c r="G229" s="57"/>
-      <c r="H229" s="58"/>
-      <c r="I229" s="57"/>
-      <c r="J229" s="58"/>
-      <c r="K229" s="57"/>
-      <c r="L229" s="59"/>
-      <c r="M229" s="60"/>
-      <c r="N229" s="60"/>
-      <c r="O229" s="60"/>
-      <c r="P229" s="57"/>
-      <c r="Q229" s="60"/>
-      <c r="R229" s="60"/>
-      <c r="S229" s="57"/>
+      <c r="E229" s="29"/>
+      <c r="F229" s="31"/>
+      <c r="G229" s="34">
+        <f>SUM(G8,G18,G27,G36,G45,G54,G66,G75,G86:G150,G168,G181:G189,G209,G198,G218,)</f>
+        <v>231812141.44999999</v>
+      </c>
+      <c r="H229" s="31"/>
+      <c r="I229" s="34">
+        <f>SUM(I8,I18,I27,I36,I45,I54,I66,I75,I86:I150,I168,I181:I189,I209,I198,I218,)</f>
+        <v>231384155.83999997</v>
+      </c>
+      <c r="J229" s="31"/>
+      <c r="K229" s="34">
+        <f>SUM(K8,K18,K27,K36,K45,K54,K66,K75,K86:K150,K168,K181:K189,K209,K198,K218,)</f>
+        <v>427985.61000000278</v>
+      </c>
+      <c r="L229" s="11"/>
+      <c r="M229" s="100">
+        <f t="shared" ref="M229" si="92">IF(G229=0,"",K229/G229*100)</f>
+        <v>0.18462605423638512</v>
+      </c>
+      <c r="N229" s="13"/>
+      <c r="O229" s="25"/>
+      <c r="P229" s="34">
+        <f>SUM(P8,P18,P27,P36,P45,P54,P66,P75,P86:P150,P168,P181:P189,P209,P198,P218,)</f>
+        <v>-427985.64</v>
+      </c>
+      <c r="Q229" s="13"/>
+      <c r="R229" s="25"/>
+      <c r="S229" s="34">
+        <f>SUM(S8,S18,S27,S36,S45,S54,S66,S75,S86:S150,S168,S181:S189,S209,S198,S218,)</f>
+        <v>-2.99999972603473E-2</v>
+      </c>
       <c r="T229" s="11"/>
-      <c r="U229" s="13"/>
+      <c r="U229" s="101">
+        <f t="shared" ref="U229" si="93">IF(G229=0,"",S229/G229*100)</f>
+        <v>-1.2941512499170824E-8</v>
+      </c>
       <c r="V229" s="9"/>
       <c r="W229" s="1"/>
     </row>
     <row r="230" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="82" t="s">
-        <v>20</v>
-      </c>
-      <c r="B230" s="80" t="s">
-        <v>113</v>
-      </c>
+      <c r="A230" s="82"/>
+      <c r="B230" s="67"/>
       <c r="C230" s="11"/>
       <c r="D230" s="11"/>
-      <c r="E230" s="57"/>
+      <c r="E230" s="46"/>
       <c r="F230" s="58"/>
       <c r="G230" s="57"/>
       <c r="H230" s="58"/>
@@ -17040,10 +17195,10 @@
     </row>
     <row r="231" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A231" s="82" t="s">
-        <v>23</v>
-      </c>
-      <c r="B231" s="80" t="s">
-        <v>120</v>
+        <v>118</v>
+      </c>
+      <c r="B231" s="77" t="s">
+        <v>121</v>
       </c>
       <c r="C231" s="11"/>
       <c r="D231" s="11"/>
@@ -17067,53 +17222,169 @@
       <c r="V231" s="9"/>
       <c r="W231" s="1"/>
     </row>
-    <row r="232" spans="1:23" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="16"/>
-      <c r="B232" s="17"/>
-      <c r="C232" s="17"/>
-      <c r="D232" s="18"/>
-      <c r="E232" s="42"/>
-      <c r="F232" s="42"/>
-      <c r="G232" s="42"/>
-      <c r="H232" s="42"/>
-      <c r="I232" s="42"/>
-      <c r="J232" s="42"/>
-      <c r="K232" s="42"/>
-      <c r="L232" s="18"/>
-      <c r="M232" s="18"/>
-      <c r="N232" s="18"/>
-      <c r="O232" s="18"/>
-      <c r="P232" s="42"/>
-      <c r="Q232" s="18"/>
-      <c r="R232" s="18"/>
-      <c r="S232" s="42"/>
-      <c r="T232" s="18"/>
-      <c r="U232" s="18"/>
-      <c r="V232" s="19"/>
+    <row r="232" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="82" t="s">
+        <v>16</v>
+      </c>
+      <c r="B232" s="77" t="s">
+        <v>112</v>
+      </c>
+      <c r="C232" s="11"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="57"/>
+      <c r="F232" s="58"/>
+      <c r="G232" s="57"/>
+      <c r="H232" s="58"/>
+      <c r="I232" s="57"/>
+      <c r="J232" s="58"/>
+      <c r="K232" s="57"/>
+      <c r="L232" s="59"/>
+      <c r="M232" s="60"/>
+      <c r="N232" s="60"/>
+      <c r="O232" s="60"/>
+      <c r="P232" s="57"/>
+      <c r="Q232" s="60"/>
+      <c r="R232" s="60"/>
+      <c r="S232" s="57"/>
+      <c r="T232" s="11"/>
+      <c r="U232" s="13"/>
+      <c r="V232" s="9"/>
       <c r="W232" s="1"/>
     </row>
-    <row r="233" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="1"/>
-      <c r="B233" s="1"/>
-      <c r="C233" s="1"/>
-      <c r="D233" s="1"/>
-      <c r="E233" s="38"/>
-      <c r="F233" s="32"/>
-      <c r="G233" s="38"/>
-      <c r="H233" s="32"/>
-      <c r="I233" s="38"/>
-      <c r="J233" s="32"/>
-      <c r="K233" s="38"/>
-      <c r="L233" s="1"/>
-      <c r="M233" s="1"/>
-      <c r="N233" s="1"/>
-      <c r="O233" s="1"/>
-      <c r="P233" s="38"/>
-      <c r="Q233" s="1"/>
-      <c r="R233" s="1"/>
-      <c r="S233" s="38"/>
-      <c r="T233" s="1"/>
-      <c r="U233" s="1"/>
+    <row r="233" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="B233" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C233" s="11"/>
+      <c r="D233" s="11"/>
+      <c r="E233" s="57"/>
+      <c r="F233" s="58"/>
+      <c r="G233" s="57"/>
+      <c r="H233" s="58"/>
+      <c r="I233" s="57"/>
+      <c r="J233" s="58"/>
+      <c r="K233" s="57"/>
+      <c r="L233" s="59"/>
+      <c r="M233" s="60"/>
+      <c r="N233" s="60"/>
+      <c r="O233" s="60"/>
+      <c r="P233" s="57"/>
+      <c r="Q233" s="60"/>
+      <c r="R233" s="60"/>
+      <c r="S233" s="57"/>
+      <c r="T233" s="11"/>
+      <c r="U233" s="13"/>
+      <c r="V233" s="9"/>
+      <c r="W233" s="1"/>
+    </row>
+    <row r="234" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="B234" s="80" t="s">
+        <v>113</v>
+      </c>
+      <c r="C234" s="11"/>
+      <c r="D234" s="11"/>
+      <c r="E234" s="57"/>
+      <c r="F234" s="58"/>
+      <c r="G234" s="57"/>
+      <c r="H234" s="58"/>
+      <c r="I234" s="57"/>
+      <c r="J234" s="58"/>
+      <c r="K234" s="57"/>
+      <c r="L234" s="59"/>
+      <c r="M234" s="60"/>
+      <c r="N234" s="60"/>
+      <c r="O234" s="60"/>
+      <c r="P234" s="57"/>
+      <c r="Q234" s="60"/>
+      <c r="R234" s="60"/>
+      <c r="S234" s="57"/>
+      <c r="T234" s="11"/>
+      <c r="U234" s="13"/>
+      <c r="V234" s="9"/>
+      <c r="W234" s="1"/>
+    </row>
+    <row r="235" spans="1:23" ht="24.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="82" t="s">
+        <v>23</v>
+      </c>
+      <c r="B235" s="80" t="s">
+        <v>120</v>
+      </c>
+      <c r="C235" s="11"/>
+      <c r="D235" s="11"/>
+      <c r="E235" s="57"/>
+      <c r="F235" s="58"/>
+      <c r="G235" s="57"/>
+      <c r="H235" s="58"/>
+      <c r="I235" s="57"/>
+      <c r="J235" s="58"/>
+      <c r="K235" s="57"/>
+      <c r="L235" s="59"/>
+      <c r="M235" s="60"/>
+      <c r="N235" s="60"/>
+      <c r="O235" s="60"/>
+      <c r="P235" s="57"/>
+      <c r="Q235" s="60"/>
+      <c r="R235" s="60"/>
+      <c r="S235" s="57"/>
+      <c r="T235" s="11"/>
+      <c r="U235" s="13"/>
+      <c r="V235" s="9"/>
+      <c r="W235" s="1"/>
+    </row>
+    <row r="236" spans="1:23" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A236" s="16"/>
+      <c r="B236" s="17"/>
+      <c r="C236" s="17"/>
+      <c r="D236" s="18"/>
+      <c r="E236" s="42"/>
+      <c r="F236" s="42"/>
+      <c r="G236" s="42"/>
+      <c r="H236" s="42"/>
+      <c r="I236" s="42"/>
+      <c r="J236" s="42"/>
+      <c r="K236" s="42"/>
+      <c r="L236" s="18"/>
+      <c r="M236" s="18"/>
+      <c r="N236" s="18"/>
+      <c r="O236" s="18"/>
+      <c r="P236" s="42"/>
+      <c r="Q236" s="18"/>
+      <c r="R236" s="18"/>
+      <c r="S236" s="42"/>
+      <c r="T236" s="18"/>
+      <c r="U236" s="18"/>
+      <c r="V236" s="19"/>
+      <c r="W236" s="1"/>
+    </row>
+    <row r="237" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="1"/>
+      <c r="B237" s="1"/>
+      <c r="C237" s="1"/>
+      <c r="D237" s="1"/>
+      <c r="E237" s="38"/>
+      <c r="F237" s="32"/>
+      <c r="G237" s="38"/>
+      <c r="H237" s="32"/>
+      <c r="I237" s="38"/>
+      <c r="J237" s="32"/>
+      <c r="K237" s="38"/>
+      <c r="L237" s="1"/>
+      <c r="M237" s="1"/>
+      <c r="N237" s="1"/>
+      <c r="O237" s="1"/>
+      <c r="P237" s="38"/>
+      <c r="Q237" s="1"/>
+      <c r="R237" s="1"/>
+      <c r="S237" s="38"/>
+      <c r="T237" s="1"/>
+      <c r="U237" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.31496062992125984" right="0.19685039370078741" top="0.39370078740157483" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -17123,8 +17394,8 @@
     <brk id="175" max="16383" man="1"/>
   </rowBreaks>
   <ignoredErrors>
-    <ignoredError sqref="K8:K9 M17 S8 U17 M26 U26 U35 U44 U53 U63 U65 U83 U158 U178 U195 U213 U222 M35 M44 M53 M63 M65 M83 M158 M195 M213 M222" evalError="1"/>
-    <ignoredError sqref="K75 K94:K150 K187 S187 S86:S150 S75 U187" formula="1"/>
+    <ignoredError sqref="K8:K9 M17 S8 U17 M26 U26 U35 U44 U53 U63 U65 U83 U158 U180 U197 U217 U226 M35 M44 M53 M63 M65 M83 M158 M197 M217 M226" evalError="1"/>
+    <ignoredError sqref="K75 K94:K150 K189 S189 S86:S150 S75 U189" formula="1"/>
     <ignoredError sqref="P54" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>
@@ -17138,7 +17409,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -17211,7 +17482,7 @@
       <c r="T2" s="5"/>
       <c r="U2" s="1"/>
     </row>
-    <row r="3" spans="1:21" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>101</v>
       </c>
@@ -17364,17 +17635,17 @@
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A8,Feldes_Förderabgabe_1!$G$8:$G$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A8,Feldes_Förderabgabe_1!$G$8:$G$228)</f>
         <v>177293644.24000001</v>
       </c>
       <c r="F8" s="31"/>
       <c r="G8" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A8,Feldes_Förderabgabe_1!$I$8:$I$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A8,Feldes_Förderabgabe_1!$I$8:$I$228)</f>
         <v>176934011.78</v>
       </c>
       <c r="H8" s="31"/>
       <c r="I8" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A8,Feldes_Förderabgabe_1!$K$8:$K$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A8,Feldes_Förderabgabe_1!$K$8:$K$228)</f>
         <v>359632.46000000229</v>
       </c>
       <c r="J8" s="11"/>
@@ -17385,7 +17656,7 @@
       <c r="L8" s="13"/>
       <c r="M8" s="25"/>
       <c r="N8" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A8,Feldes_Förderabgabe_1!$P$8:$P$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A8,Feldes_Förderabgabe_1!$P$8:$P$228)</f>
         <v>-359632.45</v>
       </c>
       <c r="O8" s="13"/>
@@ -17433,17 +17704,17 @@
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
       <c r="E10" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A10,Feldes_Förderabgabe_1!$G$8:$G$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A10,Feldes_Förderabgabe_1!$G$8:$G$228)</f>
         <v>49415226.879999995</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A10,Feldes_Förderabgabe_1!$I$8:$I$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A10,Feldes_Förderabgabe_1!$I$8:$I$228)</f>
         <v>49354265.899999999</v>
       </c>
       <c r="H10" s="31"/>
       <c r="I10" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A10,Feldes_Förderabgabe_1!$K$8:$K$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A10,Feldes_Förderabgabe_1!$K$8:$K$228)</f>
         <v>60960.980000000447</v>
       </c>
       <c r="J10" s="11"/>
@@ -17454,7 +17725,7 @@
       <c r="L10" s="13"/>
       <c r="M10" s="25"/>
       <c r="N10" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A10,Feldes_Förderabgabe_1!$P$8:$P$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A10,Feldes_Förderabgabe_1!$P$8:$P$228)</f>
         <v>-60960.98</v>
       </c>
       <c r="O10" s="13"/>
@@ -17502,17 +17773,17 @@
       <c r="C12" s="11"/>
       <c r="D12" s="11"/>
       <c r="E12" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A12,Feldes_Förderabgabe_1!$G$8:$G$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A12,Feldes_Förderabgabe_1!$G$8:$G$228)</f>
         <v>23726</v>
       </c>
       <c r="F12" s="31"/>
       <c r="G12" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A12,Feldes_Förderabgabe_1!$I$8:$I$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A12,Feldes_Förderabgabe_1!$I$8:$I$228)</f>
         <v>23725.8</v>
       </c>
       <c r="H12" s="31"/>
       <c r="I12" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A12,Feldes_Förderabgabe_1!$K$8:$K$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A12,Feldes_Förderabgabe_1!$K$8:$K$228)</f>
         <v>0.2000000000007276</v>
       </c>
       <c r="J12" s="11"/>
@@ -17523,7 +17794,7 @@
       <c r="L12" s="13"/>
       <c r="M12" s="25"/>
       <c r="N12" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A12,Feldes_Förderabgabe_1!$P$8:$P$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A12,Feldes_Förderabgabe_1!$P$8:$P$228)</f>
         <v>0</v>
       </c>
       <c r="O12" s="13"/>
@@ -17571,17 +17842,17 @@
       <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A14,Feldes_Förderabgabe_1!$G$8:$G$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A14,Feldes_Förderabgabe_1!$G$8:$G$228)</f>
         <v>2787291.1899999995</v>
       </c>
       <c r="F14" s="31"/>
       <c r="G14" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A14,Feldes_Förderabgabe_1!$I$8:$I$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A14,Feldes_Förderabgabe_1!$I$8:$I$228)</f>
         <v>2779898.9799999995</v>
       </c>
       <c r="H14" s="31"/>
       <c r="I14" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A14,Feldes_Förderabgabe_1!$K$8:$K$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A14,Feldes_Förderabgabe_1!$K$8:$K$228)</f>
         <v>7392.2099999999919</v>
       </c>
       <c r="J14" s="11"/>
@@ -17592,7 +17863,7 @@
       <c r="L14" s="13"/>
       <c r="M14" s="25"/>
       <c r="N14" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A14,Feldes_Förderabgabe_1!$P$8:$P$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A14,Feldes_Förderabgabe_1!$P$8:$P$228)</f>
         <v>-7392.21</v>
       </c>
       <c r="O14" s="13"/>
@@ -17640,17 +17911,17 @@
       <c r="C16" s="11"/>
       <c r="D16" s="11"/>
       <c r="E16" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A16,Feldes_Förderabgabe_1!$G$8:$G$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A16,Feldes_Förderabgabe_1!$G$8:$G$228)</f>
         <v>1284411.46</v>
       </c>
       <c r="F16" s="31"/>
       <c r="G16" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A16,Feldes_Förderabgabe_1!$I$8:$I$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A16,Feldes_Förderabgabe_1!$I$8:$I$228)</f>
         <v>1284411.7</v>
       </c>
       <c r="H16" s="31"/>
       <c r="I16" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A16,Feldes_Förderabgabe_1!$K$8:$K$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A16,Feldes_Förderabgabe_1!$K$8:$K$228)</f>
         <v>-0.23999999999068677</v>
       </c>
       <c r="J16" s="11"/>
@@ -17661,7 +17932,7 @@
       <c r="L16" s="13"/>
       <c r="M16" s="25"/>
       <c r="N16" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A16,Feldes_Förderabgabe_1!$P$8:$P$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A16,Feldes_Förderabgabe_1!$P$8:$P$228)</f>
         <v>0</v>
       </c>
       <c r="O16" s="13"/>
@@ -17709,17 +17980,17 @@
       <c r="C18" s="11"/>
       <c r="D18" s="11"/>
       <c r="E18" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$C$8:$G$224,Feldes_Förderabgabe_2!A18,Feldes_Förderabgabe_1!$G$8:$G$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$C$8:$G$228,Feldes_Förderabgabe_2!A18,Feldes_Förderabgabe_1!$G$8:$G$228)</f>
         <v>1007841.68</v>
       </c>
       <c r="F18" s="31"/>
       <c r="G18" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$C$8:CD$224,Feldes_Förderabgabe_2!A18,Feldes_Förderabgabe_1!$I$8:$I$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$C$8:CD$228,Feldes_Förderabgabe_2!A18,Feldes_Förderabgabe_1!$I$8:$I$228)</f>
         <v>1007841.68</v>
       </c>
       <c r="H18" s="31"/>
       <c r="I18" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A18,Feldes_Förderabgabe_1!$K$8:$K$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A18,Feldes_Förderabgabe_1!$K$8:$K$228)</f>
         <v>0</v>
       </c>
       <c r="J18" s="11"/>
@@ -17730,7 +18001,7 @@
       <c r="L18" s="13"/>
       <c r="M18" s="25"/>
       <c r="N18" s="29">
-        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$224,Feldes_Förderabgabe_2!A18,Feldes_Förderabgabe_1!$P$8:$P$224)</f>
+        <f ca="1">SUMIF(Feldes_Förderabgabe_1!$B$8:$G$228,Feldes_Förderabgabe_2!A18,Feldes_Förderabgabe_1!$P$8:$P$228)</f>
         <v>0</v>
       </c>
       <c r="O18" s="13"/>
@@ -17995,7 +18266,7 @@
   <dimension ref="A1:U19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
